--- a/Python_BNumMet/Report/2023-12-02/2023-02-12-BNumMet-issues-report.xlsx
+++ b/Python_BNumMet/Report/2023-12-02/2023-02-12-BNumMet-issues-report.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3995" uniqueCount="738">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3799" uniqueCount="735">
   <si>
     <t>Rule</t>
   </si>
@@ -842,9 +842,6 @@
     <t>effort</t>
   </si>
   <si>
-    <t>messageFormattings</t>
-  </si>
-  <si>
     <t>message</t>
   </si>
   <si>
@@ -854,9 +851,6 @@
     <t>type</t>
   </si>
   <si>
-    <t>quickFixAvailable</t>
-  </si>
-  <si>
     <t>tags</t>
   </si>
   <si>
@@ -896,9 +890,6 @@
     <t>BNumMet</t>
   </si>
   <si>
-    <t>false</t>
-  </si>
-  <si>
     <t>[convention]</t>
   </si>
   <si>
@@ -1010,7 +1001,7 @@
     <t>[brain-overload]</t>
   </si>
   <si>
-    <t>[{locations=[{component=BNumMet:src/BNumMet/NonLinear.py, textRange={startLine=236.0, endLine=236.0, startOffset=4.0, endOffset=6.0}, msg=+1, msgFormattings=[]}]}, {locations=[{component=BNumMet:src/BNumMet/NonLinear.py, textRange={startLine=243.0, endLine=243.0, startOffset=4.0, endOffset=6.0}, msg=+1, msgFormattings=[]}]}, {locations=[{component=BNumMet:src/BNumMet/NonLinear.py, textRange={startLine=255.0, endLine=255.0, startOffset=4.0, endOffset=9.0}, msg=+1, msgFormattings=[]}]}, {locations=[{component=BNumMet:src/BNumMet/NonLinear.py, textRange={startLine=255.0, endLine=255.0, startOffset=36.0, endOffset=39.0}, msg=+1, msgFormattings=[]}]}, {locations=[{component=BNumMet:src/BNumMet/NonLinear.py, textRange={startLine=259.0, endLine=259.0, startOffset=8.0, endOffset=10.0}, msg=+2 (incl 1 for nesting), msgFormattings=[]}]}, {locations=[{component=BNumMet:src/BNumMet/NonLinear.py, textRange={startLine=259.0, endLine=259.0, startOffset=30.0, endOffset=32.0}, msg=+1, msgFormattings=[]}]}, {locations=[{component=BNumMet:src/BNumMet/NonLinear.py, textRange={startLine=263.0, endLine=263.0, startOffset=8.0, endOffset=12.0}, msg=+1, msgFormattings=[]}]}, {locations=[{component=BNumMet:src/BNumMet/NonLinear.py, textRange={startLine=266.0, endLine=266.0, startOffset=12.0, endOffset=14.0}, msg=+3 (incl 2 for nesting), msgFormattings=[]}]}, {locations=[{component=BNumMet:src/BNumMet/NonLinear.py, textRange={startLine=270.0, endLine=270.0, startOffset=12.0, endOffset=16.0}, msg=+1, msgFormattings=[]}]}, {locations=[{component=BNumMet:src/BNumMet/NonLinear.py, textRange={startLine=278.0, endLine=278.0, startOffset=12.0, endOffset=14.0}, msg=+3 (incl 2 for nesting), msgFormattings=[]}]}, {locations=[{component=BNumMet:src/BNumMet/NonLinear.py, textRange={startLine=280.0, endLine=280.0, startOffset=12.0, endOffset=16.0}, msg=+1, msgFormattings=[]}]}, {locations=[{component=BNumMet:src/BNumMet/NonLinear.py, textRange={startLine=287.0, endLine=287.0, startOffset=12.0, endOffset=14.0}, msg=+3 (incl 2 for nesting), msgFormattings=[]}]}, {locations=[{component=BNumMet:src/BNumMet/NonLinear.py, textRange={startLine=287.0, endLine=287.0, startOffset=54.0, endOffset=57.0}, msg=+1, msgFormattings=[]}]}, {locations=[{component=BNumMet:src/BNumMet/NonLinear.py, textRange={startLine=290.0, endLine=290.0, startOffset=45.0, endOffset=47.0}, msg=+4 (incl 3 for nesting), msgFormattings=[]}]}, {locations=[{component=BNumMet:src/BNumMet/NonLinear.py, textRange={startLine=291.0, endLine=291.0, startOffset=12.0, endOffset=16.0}, msg=+1, msgFormattings=[]}]}, {locations=[{component=BNumMet:src/BNumMet/NonLinear.py, textRange={startLine=299.0, endLine=299.0, startOffset=15.0, endOffset=17.0}, msg=+2 (incl 1 for nesting), msgFormattings=[]}]}, {locations=[{component=BNumMet:src/BNumMet/NonLinear.py, textRange={startLine=306.0, endLine=306.0, startOffset=8.0, endOffset=10.0}, msg=+2 (incl 1 for nesting), msgFormattings=[]}]}, {locations=[{component=BNumMet:src/BNumMet/NonLinear.py, textRange={startLine=310.0, endLine=310.0, startOffset=8.0, endOffset=12.0}, msg=+1, msgFormattings=[]}]}, {locations=[{component=BNumMet:src/BNumMet/NonLinear.py, textRange={startLine=320.0, endLine=320.0, startOffset=4.0, endOffset=6.0}, msg=+1, msgFormattings=[]}]}, {locations=[{component=BNumMet:src/BNumMet/NonLinear.py, textRange={startLine=320.0, endLine=320.0, startOffset=13.0, endOffset=16.0}, msg=+1, msgFormattings=[]}]}, {locations=[{component=BNumMet:src/BNumMet/NonLinear.py, textRange={startLine=322.0, endLine=322.0, startOffset=4.0, endOffset=6.0}, msg=+1, msgFormattings=[]}]}, {locations=[{component=BNumMet:src/BNumMet/NonLinear.py, textRange={startLine=324.0, endLine=324.0, startOffset=4.0, endOffset=6.0}, msg=+1, msgFormattings=[]}]}]</t>
+    <t>[{locations=[{component=BNumMet:src/BNumMet/NonLinear.py, textRange={startLine=236.0, endLine=236.0, startOffset=4.0, endOffset=6.0}, msg=+1}]}, {locations=[{component=BNumMet:src/BNumMet/NonLinear.py, textRange={startLine=243.0, endLine=243.0, startOffset=4.0, endOffset=6.0}, msg=+1}]}, {locations=[{component=BNumMet:src/BNumMet/NonLinear.py, textRange={startLine=255.0, endLine=255.0, startOffset=4.0, endOffset=9.0}, msg=+1}]}, {locations=[{component=BNumMet:src/BNumMet/NonLinear.py, textRange={startLine=255.0, endLine=255.0, startOffset=36.0, endOffset=39.0}, msg=+1}]}, {locations=[{component=BNumMet:src/BNumMet/NonLinear.py, textRange={startLine=259.0, endLine=259.0, startOffset=8.0, endOffset=10.0}, msg=+2 (incl 1 for nesting)}]}, {locations=[{component=BNumMet:src/BNumMet/NonLinear.py, textRange={startLine=259.0, endLine=259.0, startOffset=30.0, endOffset=32.0}, msg=+1}]}, {locations=[{component=BNumMet:src/BNumMet/NonLinear.py, textRange={startLine=263.0, endLine=263.0, startOffset=8.0, endOffset=12.0}, msg=+1}]}, {locations=[{component=BNumMet:src/BNumMet/NonLinear.py, textRange={startLine=266.0, endLine=266.0, startOffset=12.0, endOffset=14.0}, msg=+3 (incl 2 for nesting)}]}, {locations=[{component=BNumMet:src/BNumMet/NonLinear.py, textRange={startLine=270.0, endLine=270.0, startOffset=12.0, endOffset=16.0}, msg=+1}]}, {locations=[{component=BNumMet:src/BNumMet/NonLinear.py, textRange={startLine=278.0, endLine=278.0, startOffset=12.0, endOffset=14.0}, msg=+3 (incl 2 for nesting)}]}, {locations=[{component=BNumMet:src/BNumMet/NonLinear.py, textRange={startLine=280.0, endLine=280.0, startOffset=12.0, endOffset=16.0}, msg=+1}]}, {locations=[{component=BNumMet:src/BNumMet/NonLinear.py, textRange={startLine=287.0, endLine=287.0, startOffset=12.0, endOffset=14.0}, msg=+3 (incl 2 for nesting)}]}, {locations=[{component=BNumMet:src/BNumMet/NonLinear.py, textRange={startLine=287.0, endLine=287.0, startOffset=54.0, endOffset=57.0}, msg=+1}]}, {locations=[{component=BNumMet:src/BNumMet/NonLinear.py, textRange={startLine=290.0, endLine=290.0, startOffset=45.0, endOffset=47.0}, msg=+4 (incl 3 for nesting)}]}, {locations=[{component=BNumMet:src/BNumMet/NonLinear.py, textRange={startLine=291.0, endLine=291.0, startOffset=12.0, endOffset=16.0}, msg=+1}]}, {locations=[{component=BNumMet:src/BNumMet/NonLinear.py, textRange={startLine=299.0, endLine=299.0, startOffset=15.0, endOffset=17.0}, msg=+2 (incl 1 for nesting)}]}, {locations=[{component=BNumMet:src/BNumMet/NonLinear.py, textRange={startLine=306.0, endLine=306.0, startOffset=8.0, endOffset=10.0}, msg=+2 (incl 1 for nesting)}]}, {locations=[{component=BNumMet:src/BNumMet/NonLinear.py, textRange={startLine=310.0, endLine=310.0, startOffset=8.0, endOffset=12.0}, msg=+1}]}, {locations=[{component=BNumMet:src/BNumMet/NonLinear.py, textRange={startLine=320.0, endLine=320.0, startOffset=4.0, endOffset=6.0}, msg=+1}]}, {locations=[{component=BNumMet:src/BNumMet/NonLinear.py, textRange={startLine=320.0, endLine=320.0, startOffset=13.0, endOffset=16.0}, msg=+1}]}, {locations=[{component=BNumMet:src/BNumMet/NonLinear.py, textRange={startLine=322.0, endLine=322.0, startOffset=4.0, endOffset=6.0}, msg=+1}]}, {locations=[{component=BNumMet:src/BNumMet/NonLinear.py, textRange={startLine=324.0, endLine=324.0, startOffset=4.0, endOffset=6.0}, msg=+1}]}]</t>
   </si>
   <si>
     <t>{startLine=211.0, endLine=211.0, startOffset=4.0, endOffset=16.0}</t>
@@ -1421,7 +1412,7 @@
     <t>2023-02-12T16:46:45+0000</t>
   </si>
   <si>
-    <t>[{locations=[{component=BNumMet:src/BNumMet/Visualizers/NonLinearVisualizer.py, textRange={startLine=543.0, endLine=543.0, startOffset=8.0, endOffset=10.0}, msg=+1, msgFormattings=[]}]}, {locations=[{component=BNumMet:src/BNumMet/Visualizers/NonLinearVisualizer.py, textRange={startLine=543.0, endLine=543.0, startOffset=59.0, endOffset=61.0}, msg=+1, msgFormattings=[]}]}, {locations=[{component=BNumMet:src/BNumMet/Visualizers/NonLinearVisualizer.py, textRange={startLine=563.0, endLine=563.0, startOffset=8.0, endOffset=10.0}, msg=+1, msgFormattings=[]}]}, {locations=[{component=BNumMet:src/BNumMet/Visualizers/NonLinearVisualizer.py, textRange={startLine=568.0, endLine=568.0, startOffset=8.0, endOffset=12.0}, msg=+1, msgFormattings=[]}]}, {locations=[{component=BNumMet:src/BNumMet/Visualizers/NonLinearVisualizer.py, textRange={startLine=580.0, endLine=580.0, startOffset=12.0, endOffset=14.0}, msg=+2 (incl 1 for nesting), msgFormattings=[]}]}, {locations=[{component=BNumMet:src/BNumMet/Visualizers/NonLinearVisualizer.py, textRange={startLine=582.0, endLine=582.0, startOffset=12.0, endOffset=16.0}, msg=+1, msgFormattings=[]}]}, {locations=[{component=BNumMet:src/BNumMet/Visualizers/NonLinearVisualizer.py, textRange={startLine=587.0, endLine=587.0, startOffset=8.0, endOffset=10.0}, msg=+1, msgFormattings=[]}]}, {locations=[{component=BNumMet:src/BNumMet/Visualizers/NonLinearVisualizer.py, textRange={startLine=590.0, endLine=590.0, startOffset=8.0, endOffset=12.0}, msg=+1, msgFormattings=[]}]}, {locations=[{component=BNumMet:src/BNumMet/Visualizers/NonLinearVisualizer.py, textRange={startLine=596.0, endLine=596.0, startOffset=17.0, endOffset=19.0}, msg=+1, msgFormattings=[]}]}, {locations=[{component=BNumMet:src/BNumMet/Visualizers/NonLinearVisualizer.py, textRange={startLine=602.0, endLine=602.0, startOffset=17.0, endOffset=19.0}, msg=+1, msgFormattings=[]}]}, {locations=[{component=BNumMet:src/BNumMet/Visualizers/NonLinearVisualizer.py, textRange={startLine=605.0, endLine=605.0, startOffset=21.0, endOffset=23.0}, msg=+1, msgFormattings=[]}]}, {locations=[{component=BNumMet:src/BNumMet/Visualizers/NonLinearVisualizer.py, textRange={startLine=609.0, endLine=609.0, startOffset=8.0, endOffset=10.0}, msg=+1, msgFormattings=[]}]}, {locations=[{component=BNumMet:src/BNumMet/Visualizers/NonLinearVisualizer.py, textRange={startLine=611.0, endLine=611.0, startOffset=10.0, endOffset=13.0}, msg=+1, msgFormattings=[]}]}, {locations=[{component=BNumMet:src/BNumMet/Visualizers/NonLinearVisualizer.py, textRange={startLine=612.0, endLine=612.0, startOffset=30.0, endOffset=32.0}, msg=+2 (incl 1 for nesting), msgFormattings=[]}]}, {locations=[{component=BNumMet:src/BNumMet/Visualizers/NonLinearVisualizer.py, textRange={startLine=613.0, endLine=613.0, startOffset=8.0, endOffset=12.0}, msg=+1, msgFormattings=[]}]}]</t>
+    <t>[{locations=[{component=BNumMet:src/BNumMet/Visualizers/NonLinearVisualizer.py, textRange={startLine=543.0, endLine=543.0, startOffset=8.0, endOffset=10.0}, msg=+1}]}, {locations=[{component=BNumMet:src/BNumMet/Visualizers/NonLinearVisualizer.py, textRange={startLine=543.0, endLine=543.0, startOffset=59.0, endOffset=61.0}, msg=+1}]}, {locations=[{component=BNumMet:src/BNumMet/Visualizers/NonLinearVisualizer.py, textRange={startLine=563.0, endLine=563.0, startOffset=8.0, endOffset=10.0}, msg=+1}]}, {locations=[{component=BNumMet:src/BNumMet/Visualizers/NonLinearVisualizer.py, textRange={startLine=568.0, endLine=568.0, startOffset=8.0, endOffset=12.0}, msg=+1}]}, {locations=[{component=BNumMet:src/BNumMet/Visualizers/NonLinearVisualizer.py, textRange={startLine=580.0, endLine=580.0, startOffset=12.0, endOffset=14.0}, msg=+2 (incl 1 for nesting)}]}, {locations=[{component=BNumMet:src/BNumMet/Visualizers/NonLinearVisualizer.py, textRange={startLine=582.0, endLine=582.0, startOffset=12.0, endOffset=16.0}, msg=+1}]}, {locations=[{component=BNumMet:src/BNumMet/Visualizers/NonLinearVisualizer.py, textRange={startLine=587.0, endLine=587.0, startOffset=8.0, endOffset=10.0}, msg=+1}]}, {locations=[{component=BNumMet:src/BNumMet/Visualizers/NonLinearVisualizer.py, textRange={startLine=590.0, endLine=590.0, startOffset=8.0, endOffset=12.0}, msg=+1}]}, {locations=[{component=BNumMet:src/BNumMet/Visualizers/NonLinearVisualizer.py, textRange={startLine=596.0, endLine=596.0, startOffset=17.0, endOffset=19.0}, msg=+1}]}, {locations=[{component=BNumMet:src/BNumMet/Visualizers/NonLinearVisualizer.py, textRange={startLine=602.0, endLine=602.0, startOffset=17.0, endOffset=19.0}, msg=+1}]}, {locations=[{component=BNumMet:src/BNumMet/Visualizers/NonLinearVisualizer.py, textRange={startLine=605.0, endLine=605.0, startOffset=21.0, endOffset=23.0}, msg=+1}]}, {locations=[{component=BNumMet:src/BNumMet/Visualizers/NonLinearVisualizer.py, textRange={startLine=609.0, endLine=609.0, startOffset=8.0, endOffset=10.0}, msg=+1}]}, {locations=[{component=BNumMet:src/BNumMet/Visualizers/NonLinearVisualizer.py, textRange={startLine=611.0, endLine=611.0, startOffset=10.0, endOffset=13.0}, msg=+1}]}, {locations=[{component=BNumMet:src/BNumMet/Visualizers/NonLinearVisualizer.py, textRange={startLine=612.0, endLine=612.0, startOffset=30.0, endOffset=32.0}, msg=+2 (incl 1 for nesting)}]}, {locations=[{component=BNumMet:src/BNumMet/Visualizers/NonLinearVisualizer.py, textRange={startLine=613.0, endLine=613.0, startOffset=8.0, endOffset=12.0}, msg=+1}]}]</t>
   </si>
   <si>
     <t>AYZGVOAuK3-6EP2jdksG</t>
@@ -1505,7 +1496,7 @@
     <t>287.0</t>
   </si>
   <si>
-    <t>[{locations=[{component=BNumMet:src/BNumMet/Visualizers/LUVisualizer.py, textRange={startLine=290.0, endLine=290.0, startOffset=4.0, endOffset=6.0}, msg=+1, msgFormattings=[]}]}, {locations=[{component=BNumMet:src/BNumMet/Visualizers/LUVisualizer.py, textRange={startLine=291.0, endLine=291.0, startOffset=8.0, endOffset=11.0}, msg=+2 (incl 1 for nesting), msgFormattings=[]}]}, {locations=[{component=BNumMet:src/BNumMet/Visualizers/LUVisualizer.py, textRange={startLine=295.0, endLine=295.0, startOffset=4.0, endOffset=8.0}, msg=+1, msgFormattings=[]}]}, {locations=[{component=BNumMet:src/BNumMet/Visualizers/LUVisualizer.py, textRange={startLine=297.0, endLine=297.0, startOffset=8.0, endOffset=11.0}, msg=+2 (incl 1 for nesting), msgFormattings=[]}]}, {locations=[{component=BNumMet:src/BNumMet/Visualizers/LUVisualizer.py, textRange={startLine=298.0, endLine=298.0, startOffset=12.0, endOffset=15.0}, msg=+3 (incl 2 for nesting), msgFormattings=[]}]}, {locations=[{component=BNumMet:src/BNumMet/Visualizers/LUVisualizer.py, textRange={startLine=299.0, endLine=299.0, startOffset=16.0, endOffset=18.0}, msg=+4 (incl 3 for nesting), msgFormattings=[]}]}, {locations=[{component=BNumMet:src/BNumMet/Visualizers/LUVisualizer.py, textRange={startLine=299.0, endLine=299.0, startOffset=40.0, endOffset=42.0}, msg=+1, msgFormattings=[]}]}, {locations=[{component=BNumMet:src/BNumMet/Visualizers/LUVisualizer.py, textRange={startLine=299.0, endLine=299.0, startOffset=27.0, endOffset=29.0}, msg=+1, msgFormattings=[]}]}, {locations=[{component=BNumMet:src/BNumMet/Visualizers/LUVisualizer.py, textRange={startLine=301.0, endLine=301.0, startOffset=16.0, endOffset=20.0}, msg=+1, msgFormattings=[]}]}, {locations=[{component=BNumMet:src/BNumMet/Visualizers/LUVisualizer.py, textRange={startLine=304.0, endLine=304.0, startOffset=4.0, endOffset=8.0}, msg=+1, msgFormattings=[]}]}, {locations=[{component=BNumMet:src/BNumMet/Visualizers/LUVisualizer.py, textRange={startLine=306.0, endLine=306.0, startOffset=8.0, endOffset=11.0}, msg=+2 (incl 1 for nesting), msgFormattings=[]}]}, {locations=[{component=BNumMet:src/BNumMet/Visualizers/LUVisualizer.py, textRange={startLine=307.0, endLine=307.0, startOffset=12.0, endOffset=15.0}, msg=+3 (incl 2 for nesting), msgFormattings=[]}]}, {locations=[{component=BNumMet:src/BNumMet/Visualizers/LUVisualizer.py, textRange={startLine=308.0, endLine=308.0, startOffset=16.0, endOffset=18.0}, msg=+4 (incl 3 for nesting), msgFormattings=[]}]}, {locations=[{component=BNumMet:src/BNumMet/Visualizers/LUVisualizer.py, textRange={startLine=308.0, endLine=308.0, startOffset=43.0, endOffset=46.0}, msg=+1, msgFormattings=[]}]}, {locations=[{component=BNumMet:src/BNumMet/Visualizers/LUVisualizer.py, textRange={startLine=310.0, endLine=310.0, startOffset=16.0, endOffset=20.0}, msg=+1, msgFormattings=[]}]}, {locations=[{component=BNumMet:src/BNumMet/Visualizers/LUVisualizer.py, textRange={startLine=316.0, endLine=316.0, startOffset=21.0, endOffset=23.0}, msg=+1, msgFormattings=[]}]}]</t>
+    <t>[{locations=[{component=BNumMet:src/BNumMet/Visualizers/LUVisualizer.py, textRange={startLine=290.0, endLine=290.0, startOffset=4.0, endOffset=6.0}, msg=+1}]}, {locations=[{component=BNumMet:src/BNumMet/Visualizers/LUVisualizer.py, textRange={startLine=291.0, endLine=291.0, startOffset=8.0, endOffset=11.0}, msg=+2 (incl 1 for nesting)}]}, {locations=[{component=BNumMet:src/BNumMet/Visualizers/LUVisualizer.py, textRange={startLine=295.0, endLine=295.0, startOffset=4.0, endOffset=8.0}, msg=+1}]}, {locations=[{component=BNumMet:src/BNumMet/Visualizers/LUVisualizer.py, textRange={startLine=297.0, endLine=297.0, startOffset=8.0, endOffset=11.0}, msg=+2 (incl 1 for nesting)}]}, {locations=[{component=BNumMet:src/BNumMet/Visualizers/LUVisualizer.py, textRange={startLine=298.0, endLine=298.0, startOffset=12.0, endOffset=15.0}, msg=+3 (incl 2 for nesting)}]}, {locations=[{component=BNumMet:src/BNumMet/Visualizers/LUVisualizer.py, textRange={startLine=299.0, endLine=299.0, startOffset=16.0, endOffset=18.0}, msg=+4 (incl 3 for nesting)}]}, {locations=[{component=BNumMet:src/BNumMet/Visualizers/LUVisualizer.py, textRange={startLine=299.0, endLine=299.0, startOffset=40.0, endOffset=42.0}, msg=+1}]}, {locations=[{component=BNumMet:src/BNumMet/Visualizers/LUVisualizer.py, textRange={startLine=299.0, endLine=299.0, startOffset=27.0, endOffset=29.0}, msg=+1}]}, {locations=[{component=BNumMet:src/BNumMet/Visualizers/LUVisualizer.py, textRange={startLine=301.0, endLine=301.0, startOffset=16.0, endOffset=20.0}, msg=+1}]}, {locations=[{component=BNumMet:src/BNumMet/Visualizers/LUVisualizer.py, textRange={startLine=304.0, endLine=304.0, startOffset=4.0, endOffset=8.0}, msg=+1}]}, {locations=[{component=BNumMet:src/BNumMet/Visualizers/LUVisualizer.py, textRange={startLine=306.0, endLine=306.0, startOffset=8.0, endOffset=11.0}, msg=+2 (incl 1 for nesting)}]}, {locations=[{component=BNumMet:src/BNumMet/Visualizers/LUVisualizer.py, textRange={startLine=307.0, endLine=307.0, startOffset=12.0, endOffset=15.0}, msg=+3 (incl 2 for nesting)}]}, {locations=[{component=BNumMet:src/BNumMet/Visualizers/LUVisualizer.py, textRange={startLine=308.0, endLine=308.0, startOffset=16.0, endOffset=18.0}, msg=+4 (incl 3 for nesting)}]}, {locations=[{component=BNumMet:src/BNumMet/Visualizers/LUVisualizer.py, textRange={startLine=308.0, endLine=308.0, startOffset=43.0, endOffset=46.0}, msg=+1}]}, {locations=[{component=BNumMet:src/BNumMet/Visualizers/LUVisualizer.py, textRange={startLine=310.0, endLine=310.0, startOffset=16.0, endOffset=20.0}, msg=+1}]}, {locations=[{component=BNumMet:src/BNumMet/Visualizers/LUVisualizer.py, textRange={startLine=316.0, endLine=316.0, startOffset=21.0, endOffset=23.0}, msg=+1}]}]</t>
   </si>
   <si>
     <t>{startLine=287.0, endLine=287.0, startOffset=4.0, endOffset=23.0}</t>
@@ -3034,9 +3025,9 @@
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="all" displayName="all" ref="A1:V98" insertRow="1" totalsRowShown="0" headerRowDxfId="5">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="all" displayName="all" ref="A1:T98" insertRow="1" totalsRowShown="0" headerRowDxfId="5">
   <autoFilter ref="A1:A2"/>
-  <tableColumns count="22">
+  <tableColumns count="20">
     <tableColumn id="1" name="severity"/>
     <tableColumn id="2" name="updateDate"/>
     <tableColumn id="3" name="comments"/>
@@ -3045,20 +3036,18 @@
     <tableColumn id="6" name="rule"/>
     <tableColumn id="7" name="project"/>
     <tableColumn id="8" name="effort"/>
-    <tableColumn id="9" name="messageFormattings"/>
-    <tableColumn id="10" name="message"/>
-    <tableColumn id="11" name="creationDate"/>
-    <tableColumn id="12" name="type"/>
-    <tableColumn id="13" name="quickFixAvailable"/>
-    <tableColumn id="14" name="tags"/>
-    <tableColumn id="15" name="component"/>
-    <tableColumn id="16" name="flows"/>
-    <tableColumn id="17" name="scope"/>
-    <tableColumn id="18" name="textRange"/>
-    <tableColumn id="19" name="debt"/>
-    <tableColumn id="20" name="key"/>
-    <tableColumn id="21" name="hash"/>
-    <tableColumn id="22" name="status"/>
+    <tableColumn id="9" name="message"/>
+    <tableColumn id="10" name="creationDate"/>
+    <tableColumn id="11" name="type"/>
+    <tableColumn id="12" name="tags"/>
+    <tableColumn id="13" name="component"/>
+    <tableColumn id="14" name="flows"/>
+    <tableColumn id="15" name="scope"/>
+    <tableColumn id="16" name="textRange"/>
+    <tableColumn id="17" name="debt"/>
+    <tableColumn id="18" name="key"/>
+    <tableColumn id="19" name="hash"/>
+    <tableColumn id="20" name="status"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight16" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -6635,7 +6624,7 @@
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="allIssues"/>
-  <dimension ref="A1:V98"/>
+  <dimension ref="A1:T98"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A2" sqref="A2"/>
@@ -6712,25 +6701,19 @@
       <c r="T1" t="s">
         <v>282</v>
       </c>
-      <c r="U1" t="s">
-        <v>283</v>
-      </c>
-      <c r="V1" t="s">
-        <v>284</v>
-      </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
         <v>21</v>
       </c>
       <c r="B2" t="s">
+        <v>283</v>
+      </c>
+      <c r="C2" t="s">
+        <v>284</v>
+      </c>
+      <c r="D2" t="s">
         <v>285</v>
-      </c>
-      <c r="C2" t="s">
-        <v>286</v>
-      </c>
-      <c r="D2" t="s">
-        <v>287</v>
       </c>
       <c r="E2" t="s">
         <v>27</v>
@@ -6739,51 +6722,45 @@
         <v>18</v>
       </c>
       <c r="G2" t="s">
+        <v>286</v>
+      </c>
+      <c r="H2" t="s">
+        <v>25</v>
+      </c>
+      <c r="I2" t="s">
+        <v>19</v>
+      </c>
+      <c r="J2" t="s">
+        <v>283</v>
+      </c>
+      <c r="K2" t="s">
+        <v>20</v>
+      </c>
+      <c r="L2" t="s">
+        <v>287</v>
+      </c>
+      <c r="M2" t="s">
+        <v>23</v>
+      </c>
+      <c r="N2" t="s">
+        <v>284</v>
+      </c>
+      <c r="O2" t="s">
         <v>288</v>
       </c>
-      <c r="H2" t="s">
-        <v>25</v>
-      </c>
-      <c r="I2" t="s">
-        <v>286</v>
-      </c>
-      <c r="J2" t="s">
-        <v>19</v>
-      </c>
-      <c r="K2" t="s">
-        <v>285</v>
-      </c>
-      <c r="L2" t="s">
-        <v>20</v>
-      </c>
-      <c r="M2" t="s">
+      <c r="P2" t="s">
         <v>289</v>
       </c>
-      <c r="N2" t="s">
+      <c r="Q2" t="s">
+        <v>25</v>
+      </c>
+      <c r="R2" t="s">
         <v>290</v>
       </c>
-      <c r="O2" t="s">
-        <v>23</v>
-      </c>
-      <c r="P2" t="s">
-        <v>286</v>
-      </c>
-      <c r="Q2" t="s">
+      <c r="S2" t="s">
         <v>291</v>
       </c>
-      <c r="R2" t="s">
-        <v>292</v>
-      </c>
-      <c r="S2" t="s">
-        <v>25</v>
-      </c>
       <c r="T2" t="s">
-        <v>293</v>
-      </c>
-      <c r="U2" t="s">
-        <v>294</v>
-      </c>
-      <c r="V2" t="s">
         <v>26</v>
       </c>
     </row>
@@ -6792,13 +6769,13 @@
         <v>21</v>
       </c>
       <c r="B3" t="s">
-        <v>285</v>
+        <v>283</v>
       </c>
       <c r="C3" t="s">
-        <v>286</v>
+        <v>284</v>
       </c>
       <c r="D3" t="s">
-        <v>295</v>
+        <v>292</v>
       </c>
       <c r="E3" t="s">
         <v>27</v>
@@ -6807,51 +6784,45 @@
         <v>18</v>
       </c>
       <c r="G3" t="s">
+        <v>286</v>
+      </c>
+      <c r="H3" t="s">
+        <v>25</v>
+      </c>
+      <c r="I3" t="s">
+        <v>19</v>
+      </c>
+      <c r="J3" t="s">
+        <v>283</v>
+      </c>
+      <c r="K3" t="s">
+        <v>20</v>
+      </c>
+      <c r="L3" t="s">
+        <v>287</v>
+      </c>
+      <c r="M3" t="s">
+        <v>23</v>
+      </c>
+      <c r="N3" t="s">
+        <v>284</v>
+      </c>
+      <c r="O3" t="s">
         <v>288</v>
       </c>
-      <c r="H3" t="s">
-        <v>25</v>
-      </c>
-      <c r="I3" t="s">
-        <v>286</v>
-      </c>
-      <c r="J3" t="s">
-        <v>19</v>
-      </c>
-      <c r="K3" t="s">
-        <v>285</v>
-      </c>
-      <c r="L3" t="s">
-        <v>20</v>
-      </c>
-      <c r="M3" t="s">
-        <v>289</v>
-      </c>
-      <c r="N3" t="s">
-        <v>290</v>
-      </c>
-      <c r="O3" t="s">
-        <v>23</v>
-      </c>
       <c r="P3" t="s">
-        <v>286</v>
+        <v>293</v>
       </c>
       <c r="Q3" t="s">
-        <v>291</v>
+        <v>25</v>
       </c>
       <c r="R3" t="s">
-        <v>296</v>
+        <v>294</v>
       </c>
       <c r="S3" t="s">
-        <v>25</v>
+        <v>295</v>
       </c>
       <c r="T3" t="s">
-        <v>297</v>
-      </c>
-      <c r="U3" t="s">
-        <v>298</v>
-      </c>
-      <c r="V3" t="s">
         <v>26</v>
       </c>
     </row>
@@ -6860,13 +6831,13 @@
         <v>21</v>
       </c>
       <c r="B4" t="s">
-        <v>285</v>
+        <v>283</v>
       </c>
       <c r="C4" t="s">
-        <v>286</v>
+        <v>284</v>
       </c>
       <c r="D4" t="s">
-        <v>299</v>
+        <v>296</v>
       </c>
       <c r="E4" t="s">
         <v>27</v>
@@ -6875,51 +6846,45 @@
         <v>18</v>
       </c>
       <c r="G4" t="s">
+        <v>286</v>
+      </c>
+      <c r="H4" t="s">
+        <v>25</v>
+      </c>
+      <c r="I4" t="s">
+        <v>19</v>
+      </c>
+      <c r="J4" t="s">
+        <v>283</v>
+      </c>
+      <c r="K4" t="s">
+        <v>20</v>
+      </c>
+      <c r="L4" t="s">
+        <v>287</v>
+      </c>
+      <c r="M4" t="s">
+        <v>23</v>
+      </c>
+      <c r="N4" t="s">
+        <v>284</v>
+      </c>
+      <c r="O4" t="s">
         <v>288</v>
       </c>
-      <c r="H4" t="s">
-        <v>25</v>
-      </c>
-      <c r="I4" t="s">
-        <v>286</v>
-      </c>
-      <c r="J4" t="s">
-        <v>19</v>
-      </c>
-      <c r="K4" t="s">
-        <v>285</v>
-      </c>
-      <c r="L4" t="s">
-        <v>20</v>
-      </c>
-      <c r="M4" t="s">
-        <v>289</v>
-      </c>
-      <c r="N4" t="s">
-        <v>290</v>
-      </c>
-      <c r="O4" t="s">
-        <v>23</v>
-      </c>
       <c r="P4" t="s">
-        <v>286</v>
+        <v>297</v>
       </c>
       <c r="Q4" t="s">
-        <v>291</v>
+        <v>25</v>
       </c>
       <c r="R4" t="s">
-        <v>300</v>
+        <v>298</v>
       </c>
       <c r="S4" t="s">
-        <v>25</v>
+        <v>299</v>
       </c>
       <c r="T4" t="s">
-        <v>301</v>
-      </c>
-      <c r="U4" t="s">
-        <v>302</v>
-      </c>
-      <c r="V4" t="s">
         <v>26</v>
       </c>
     </row>
@@ -6928,13 +6893,13 @@
         <v>21</v>
       </c>
       <c r="B5" t="s">
-        <v>285</v>
+        <v>283</v>
       </c>
       <c r="C5" t="s">
-        <v>286</v>
+        <v>284</v>
       </c>
       <c r="D5" t="s">
-        <v>303</v>
+        <v>300</v>
       </c>
       <c r="E5" t="s">
         <v>27</v>
@@ -6943,51 +6908,45 @@
         <v>18</v>
       </c>
       <c r="G5" t="s">
+        <v>286</v>
+      </c>
+      <c r="H5" t="s">
+        <v>25</v>
+      </c>
+      <c r="I5" t="s">
+        <v>19</v>
+      </c>
+      <c r="J5" t="s">
+        <v>283</v>
+      </c>
+      <c r="K5" t="s">
+        <v>20</v>
+      </c>
+      <c r="L5" t="s">
+        <v>287</v>
+      </c>
+      <c r="M5" t="s">
+        <v>23</v>
+      </c>
+      <c r="N5" t="s">
+        <v>284</v>
+      </c>
+      <c r="O5" t="s">
         <v>288</v>
       </c>
-      <c r="H5" t="s">
-        <v>25</v>
-      </c>
-      <c r="I5" t="s">
-        <v>286</v>
-      </c>
-      <c r="J5" t="s">
-        <v>19</v>
-      </c>
-      <c r="K5" t="s">
-        <v>285</v>
-      </c>
-      <c r="L5" t="s">
-        <v>20</v>
-      </c>
-      <c r="M5" t="s">
-        <v>289</v>
-      </c>
-      <c r="N5" t="s">
-        <v>290</v>
-      </c>
-      <c r="O5" t="s">
-        <v>23</v>
-      </c>
       <c r="P5" t="s">
-        <v>286</v>
+        <v>301</v>
       </c>
       <c r="Q5" t="s">
-        <v>291</v>
+        <v>25</v>
       </c>
       <c r="R5" t="s">
-        <v>304</v>
+        <v>302</v>
       </c>
       <c r="S5" t="s">
-        <v>25</v>
+        <v>303</v>
       </c>
       <c r="T5" t="s">
-        <v>305</v>
-      </c>
-      <c r="U5" t="s">
-        <v>306</v>
-      </c>
-      <c r="V5" t="s">
         <v>26</v>
       </c>
     </row>
@@ -6996,13 +6955,13 @@
         <v>21</v>
       </c>
       <c r="B6" t="s">
-        <v>285</v>
+        <v>283</v>
       </c>
       <c r="C6" t="s">
-        <v>286</v>
+        <v>284</v>
       </c>
       <c r="D6" t="s">
-        <v>307</v>
+        <v>304</v>
       </c>
       <c r="E6" t="s">
         <v>27</v>
@@ -7011,51 +6970,45 @@
         <v>18</v>
       </c>
       <c r="G6" t="s">
+        <v>286</v>
+      </c>
+      <c r="H6" t="s">
+        <v>25</v>
+      </c>
+      <c r="I6" t="s">
+        <v>19</v>
+      </c>
+      <c r="J6" t="s">
+        <v>283</v>
+      </c>
+      <c r="K6" t="s">
+        <v>20</v>
+      </c>
+      <c r="L6" t="s">
+        <v>287</v>
+      </c>
+      <c r="M6" t="s">
+        <v>23</v>
+      </c>
+      <c r="N6" t="s">
+        <v>284</v>
+      </c>
+      <c r="O6" t="s">
         <v>288</v>
       </c>
-      <c r="H6" t="s">
-        <v>25</v>
-      </c>
-      <c r="I6" t="s">
-        <v>286</v>
-      </c>
-      <c r="J6" t="s">
-        <v>19</v>
-      </c>
-      <c r="K6" t="s">
-        <v>285</v>
-      </c>
-      <c r="L6" t="s">
-        <v>20</v>
-      </c>
-      <c r="M6" t="s">
-        <v>289</v>
-      </c>
-      <c r="N6" t="s">
-        <v>290</v>
-      </c>
-      <c r="O6" t="s">
-        <v>23</v>
-      </c>
       <c r="P6" t="s">
-        <v>286</v>
+        <v>305</v>
       </c>
       <c r="Q6" t="s">
-        <v>291</v>
+        <v>25</v>
       </c>
       <c r="R6" t="s">
-        <v>308</v>
+        <v>306</v>
       </c>
       <c r="S6" t="s">
-        <v>25</v>
+        <v>307</v>
       </c>
       <c r="T6" t="s">
-        <v>309</v>
-      </c>
-      <c r="U6" t="s">
-        <v>310</v>
-      </c>
-      <c r="V6" t="s">
         <v>26</v>
       </c>
     </row>
@@ -7064,13 +7017,13 @@
         <v>21</v>
       </c>
       <c r="B7" t="s">
-        <v>311</v>
+        <v>308</v>
       </c>
       <c r="C7" t="s">
-        <v>286</v>
+        <v>284</v>
       </c>
       <c r="D7" t="s">
-        <v>312</v>
+        <v>309</v>
       </c>
       <c r="E7" t="s">
         <v>27</v>
@@ -7079,51 +7032,45 @@
         <v>32</v>
       </c>
       <c r="G7" t="s">
+        <v>286</v>
+      </c>
+      <c r="H7" t="s">
+        <v>25</v>
+      </c>
+      <c r="I7" t="s">
+        <v>33</v>
+      </c>
+      <c r="J7" t="s">
+        <v>308</v>
+      </c>
+      <c r="K7" t="s">
+        <v>20</v>
+      </c>
+      <c r="L7" t="s">
+        <v>287</v>
+      </c>
+      <c r="M7" t="s">
+        <v>34</v>
+      </c>
+      <c r="N7" t="s">
+        <v>284</v>
+      </c>
+      <c r="O7" t="s">
         <v>288</v>
       </c>
-      <c r="H7" t="s">
-        <v>25</v>
-      </c>
-      <c r="I7" t="s">
-        <v>286</v>
-      </c>
-      <c r="J7" t="s">
-        <v>33</v>
-      </c>
-      <c r="K7" t="s">
+      <c r="P7" t="s">
+        <v>310</v>
+      </c>
+      <c r="Q7" t="s">
+        <v>25</v>
+      </c>
+      <c r="R7" t="s">
         <v>311</v>
       </c>
-      <c r="L7" t="s">
-        <v>20</v>
-      </c>
-      <c r="M7" t="s">
-        <v>289</v>
-      </c>
-      <c r="N7" t="s">
-        <v>290</v>
-      </c>
-      <c r="O7" t="s">
-        <v>34</v>
-      </c>
-      <c r="P7" t="s">
-        <v>286</v>
-      </c>
-      <c r="Q7" t="s">
-        <v>291</v>
-      </c>
-      <c r="R7" t="s">
-        <v>313</v>
-      </c>
       <c r="S7" t="s">
-        <v>25</v>
+        <v>312</v>
       </c>
       <c r="T7" t="s">
-        <v>314</v>
-      </c>
-      <c r="U7" t="s">
-        <v>315</v>
-      </c>
-      <c r="V7" t="s">
         <v>26</v>
       </c>
     </row>
@@ -7132,13 +7079,13 @@
         <v>21</v>
       </c>
       <c r="B8" t="s">
-        <v>311</v>
+        <v>308</v>
       </c>
       <c r="C8" t="s">
-        <v>286</v>
+        <v>284</v>
       </c>
       <c r="D8" t="s">
-        <v>316</v>
+        <v>313</v>
       </c>
       <c r="E8" t="s">
         <v>27</v>
@@ -7147,51 +7094,45 @@
         <v>18</v>
       </c>
       <c r="G8" t="s">
+        <v>286</v>
+      </c>
+      <c r="H8" t="s">
+        <v>25</v>
+      </c>
+      <c r="I8" t="s">
+        <v>36</v>
+      </c>
+      <c r="J8" t="s">
+        <v>308</v>
+      </c>
+      <c r="K8" t="s">
+        <v>20</v>
+      </c>
+      <c r="L8" t="s">
+        <v>287</v>
+      </c>
+      <c r="M8" t="s">
+        <v>34</v>
+      </c>
+      <c r="N8" t="s">
+        <v>284</v>
+      </c>
+      <c r="O8" t="s">
         <v>288</v>
       </c>
-      <c r="H8" t="s">
-        <v>25</v>
-      </c>
-      <c r="I8" t="s">
-        <v>286</v>
-      </c>
-      <c r="J8" t="s">
-        <v>36</v>
-      </c>
-      <c r="K8" t="s">
-        <v>311</v>
-      </c>
-      <c r="L8" t="s">
-        <v>20</v>
-      </c>
-      <c r="M8" t="s">
-        <v>289</v>
-      </c>
-      <c r="N8" t="s">
-        <v>290</v>
-      </c>
-      <c r="O8" t="s">
-        <v>34</v>
-      </c>
       <c r="P8" t="s">
-        <v>286</v>
+        <v>314</v>
       </c>
       <c r="Q8" t="s">
-        <v>291</v>
+        <v>25</v>
       </c>
       <c r="R8" t="s">
-        <v>317</v>
+        <v>315</v>
       </c>
       <c r="S8" t="s">
-        <v>25</v>
+        <v>316</v>
       </c>
       <c r="T8" t="s">
-        <v>318</v>
-      </c>
-      <c r="U8" t="s">
-        <v>319</v>
-      </c>
-      <c r="V8" t="s">
         <v>26</v>
       </c>
     </row>
@@ -7200,13 +7141,13 @@
         <v>21</v>
       </c>
       <c r="B9" t="s">
-        <v>311</v>
+        <v>308</v>
       </c>
       <c r="C9" t="s">
-        <v>286</v>
+        <v>284</v>
       </c>
       <c r="D9" t="s">
-        <v>320</v>
+        <v>317</v>
       </c>
       <c r="E9" t="s">
         <v>27</v>
@@ -7215,51 +7156,45 @@
         <v>18</v>
       </c>
       <c r="G9" t="s">
+        <v>286</v>
+      </c>
+      <c r="H9" t="s">
+        <v>25</v>
+      </c>
+      <c r="I9" t="s">
+        <v>38</v>
+      </c>
+      <c r="J9" t="s">
+        <v>308</v>
+      </c>
+      <c r="K9" t="s">
+        <v>20</v>
+      </c>
+      <c r="L9" t="s">
+        <v>287</v>
+      </c>
+      <c r="M9" t="s">
+        <v>34</v>
+      </c>
+      <c r="N9" t="s">
+        <v>284</v>
+      </c>
+      <c r="O9" t="s">
         <v>288</v>
       </c>
-      <c r="H9" t="s">
-        <v>25</v>
-      </c>
-      <c r="I9" t="s">
-        <v>286</v>
-      </c>
-      <c r="J9" t="s">
-        <v>38</v>
-      </c>
-      <c r="K9" t="s">
-        <v>311</v>
-      </c>
-      <c r="L9" t="s">
-        <v>20</v>
-      </c>
-      <c r="M9" t="s">
-        <v>289</v>
-      </c>
-      <c r="N9" t="s">
-        <v>290</v>
-      </c>
-      <c r="O9" t="s">
-        <v>34</v>
-      </c>
       <c r="P9" t="s">
-        <v>286</v>
+        <v>318</v>
       </c>
       <c r="Q9" t="s">
-        <v>291</v>
+        <v>25</v>
       </c>
       <c r="R9" t="s">
-        <v>321</v>
+        <v>319</v>
       </c>
       <c r="S9" t="s">
-        <v>25</v>
+        <v>320</v>
       </c>
       <c r="T9" t="s">
-        <v>322</v>
-      </c>
-      <c r="U9" t="s">
-        <v>323</v>
-      </c>
-      <c r="V9" t="s">
         <v>26</v>
       </c>
     </row>
@@ -7268,13 +7203,13 @@
         <v>42</v>
       </c>
       <c r="B10" t="s">
-        <v>324</v>
+        <v>321</v>
       </c>
       <c r="C10" t="s">
-        <v>286</v>
+        <v>284</v>
       </c>
       <c r="D10" t="s">
-        <v>325</v>
+        <v>322</v>
       </c>
       <c r="E10" t="s">
         <v>27</v>
@@ -7283,51 +7218,45 @@
         <v>40</v>
       </c>
       <c r="G10" t="s">
-        <v>288</v>
+        <v>286</v>
       </c>
       <c r="H10" t="s">
         <v>45</v>
       </c>
       <c r="I10" t="s">
-        <v>286</v>
+        <v>41</v>
       </c>
       <c r="J10" t="s">
-        <v>41</v>
+        <v>321</v>
       </c>
       <c r="K10" t="s">
+        <v>20</v>
+      </c>
+      <c r="L10" t="s">
+        <v>323</v>
+      </c>
+      <c r="M10" t="s">
+        <v>43</v>
+      </c>
+      <c r="N10" t="s">
         <v>324</v>
       </c>
-      <c r="L10" t="s">
-        <v>20</v>
-      </c>
-      <c r="M10" t="s">
-        <v>289</v>
-      </c>
-      <c r="N10" t="s">
+      <c r="O10" t="s">
+        <v>288</v>
+      </c>
+      <c r="P10" t="s">
+        <v>325</v>
+      </c>
+      <c r="Q10" t="s">
+        <v>45</v>
+      </c>
+      <c r="R10" t="s">
         <v>326</v>
       </c>
-      <c r="O10" t="s">
-        <v>43</v>
-      </c>
-      <c r="P10" t="s">
+      <c r="S10" t="s">
         <v>327</v>
       </c>
-      <c r="Q10" t="s">
-        <v>291</v>
-      </c>
-      <c r="R10" t="s">
-        <v>328</v>
-      </c>
-      <c r="S10" t="s">
-        <v>45</v>
-      </c>
       <c r="T10" t="s">
-        <v>329</v>
-      </c>
-      <c r="U10" t="s">
-        <v>330</v>
-      </c>
-      <c r="V10" t="s">
         <v>26</v>
       </c>
     </row>
@@ -7336,13 +7265,13 @@
         <v>21</v>
       </c>
       <c r="B11" t="s">
-        <v>324</v>
+        <v>321</v>
       </c>
       <c r="C11" t="s">
-        <v>286</v>
+        <v>284</v>
       </c>
       <c r="D11" t="s">
-        <v>331</v>
+        <v>328</v>
       </c>
       <c r="E11" t="s">
         <v>27</v>
@@ -7351,51 +7280,45 @@
         <v>32</v>
       </c>
       <c r="G11" t="s">
+        <v>286</v>
+      </c>
+      <c r="H11" t="s">
+        <v>25</v>
+      </c>
+      <c r="I11" t="s">
+        <v>46</v>
+      </c>
+      <c r="J11" t="s">
+        <v>321</v>
+      </c>
+      <c r="K11" t="s">
+        <v>20</v>
+      </c>
+      <c r="L11" t="s">
+        <v>287</v>
+      </c>
+      <c r="M11" t="s">
+        <v>34</v>
+      </c>
+      <c r="N11" t="s">
+        <v>284</v>
+      </c>
+      <c r="O11" t="s">
         <v>288</v>
       </c>
-      <c r="H11" t="s">
-        <v>25</v>
-      </c>
-      <c r="I11" t="s">
-        <v>286</v>
-      </c>
-      <c r="J11" t="s">
-        <v>46</v>
-      </c>
-      <c r="K11" t="s">
-        <v>324</v>
-      </c>
-      <c r="L11" t="s">
-        <v>20</v>
-      </c>
-      <c r="M11" t="s">
-        <v>289</v>
-      </c>
-      <c r="N11" t="s">
-        <v>290</v>
-      </c>
-      <c r="O11" t="s">
-        <v>34</v>
-      </c>
       <c r="P11" t="s">
-        <v>286</v>
+        <v>329</v>
       </c>
       <c r="Q11" t="s">
-        <v>291</v>
+        <v>25</v>
       </c>
       <c r="R11" t="s">
-        <v>332</v>
+        <v>330</v>
       </c>
       <c r="S11" t="s">
-        <v>25</v>
+        <v>331</v>
       </c>
       <c r="T11" t="s">
-        <v>333</v>
-      </c>
-      <c r="U11" t="s">
-        <v>334</v>
-      </c>
-      <c r="V11" t="s">
         <v>26</v>
       </c>
     </row>
@@ -7404,13 +7327,13 @@
         <v>21</v>
       </c>
       <c r="B12" t="s">
-        <v>324</v>
+        <v>321</v>
       </c>
       <c r="C12" t="s">
-        <v>286</v>
+        <v>284</v>
       </c>
       <c r="D12" t="s">
-        <v>335</v>
+        <v>332</v>
       </c>
       <c r="E12" t="s">
         <v>27</v>
@@ -7419,51 +7342,45 @@
         <v>32</v>
       </c>
       <c r="G12" t="s">
+        <v>286</v>
+      </c>
+      <c r="H12" t="s">
+        <v>25</v>
+      </c>
+      <c r="I12" t="s">
+        <v>48</v>
+      </c>
+      <c r="J12" t="s">
+        <v>321</v>
+      </c>
+      <c r="K12" t="s">
+        <v>20</v>
+      </c>
+      <c r="L12" t="s">
+        <v>287</v>
+      </c>
+      <c r="M12" t="s">
+        <v>34</v>
+      </c>
+      <c r="N12" t="s">
+        <v>284</v>
+      </c>
+      <c r="O12" t="s">
         <v>288</v>
       </c>
-      <c r="H12" t="s">
-        <v>25</v>
-      </c>
-      <c r="I12" t="s">
-        <v>286</v>
-      </c>
-      <c r="J12" t="s">
-        <v>48</v>
-      </c>
-      <c r="K12" t="s">
-        <v>324</v>
-      </c>
-      <c r="L12" t="s">
-        <v>20</v>
-      </c>
-      <c r="M12" t="s">
-        <v>289</v>
-      </c>
-      <c r="N12" t="s">
-        <v>290</v>
-      </c>
-      <c r="O12" t="s">
-        <v>34</v>
-      </c>
       <c r="P12" t="s">
-        <v>286</v>
+        <v>333</v>
       </c>
       <c r="Q12" t="s">
-        <v>291</v>
+        <v>25</v>
       </c>
       <c r="R12" t="s">
-        <v>336</v>
+        <v>334</v>
       </c>
       <c r="S12" t="s">
-        <v>25</v>
+        <v>335</v>
       </c>
       <c r="T12" t="s">
-        <v>337</v>
-      </c>
-      <c r="U12" t="s">
-        <v>338</v>
-      </c>
-      <c r="V12" t="s">
         <v>26</v>
       </c>
     </row>
@@ -7472,13 +7389,13 @@
         <v>21</v>
       </c>
       <c r="B13" t="s">
-        <v>324</v>
+        <v>321</v>
       </c>
       <c r="C13" t="s">
-        <v>286</v>
+        <v>284</v>
       </c>
       <c r="D13" t="s">
-        <v>339</v>
+        <v>336</v>
       </c>
       <c r="E13" t="s">
         <v>27</v>
@@ -7487,51 +7404,45 @@
         <v>32</v>
       </c>
       <c r="G13" t="s">
+        <v>286</v>
+      </c>
+      <c r="H13" t="s">
+        <v>25</v>
+      </c>
+      <c r="I13" t="s">
+        <v>50</v>
+      </c>
+      <c r="J13" t="s">
+        <v>321</v>
+      </c>
+      <c r="K13" t="s">
+        <v>20</v>
+      </c>
+      <c r="L13" t="s">
+        <v>287</v>
+      </c>
+      <c r="M13" t="s">
+        <v>34</v>
+      </c>
+      <c r="N13" t="s">
+        <v>284</v>
+      </c>
+      <c r="O13" t="s">
         <v>288</v>
       </c>
-      <c r="H13" t="s">
-        <v>25</v>
-      </c>
-      <c r="I13" t="s">
-        <v>286</v>
-      </c>
-      <c r="J13" t="s">
-        <v>50</v>
-      </c>
-      <c r="K13" t="s">
-        <v>324</v>
-      </c>
-      <c r="L13" t="s">
-        <v>20</v>
-      </c>
-      <c r="M13" t="s">
-        <v>289</v>
-      </c>
-      <c r="N13" t="s">
-        <v>290</v>
-      </c>
-      <c r="O13" t="s">
-        <v>34</v>
-      </c>
       <c r="P13" t="s">
-        <v>286</v>
+        <v>337</v>
       </c>
       <c r="Q13" t="s">
-        <v>291</v>
+        <v>25</v>
       </c>
       <c r="R13" t="s">
-        <v>340</v>
+        <v>338</v>
       </c>
       <c r="S13" t="s">
-        <v>25</v>
+        <v>339</v>
       </c>
       <c r="T13" t="s">
-        <v>341</v>
-      </c>
-      <c r="U13" t="s">
-        <v>342</v>
-      </c>
-      <c r="V13" t="s">
         <v>26</v>
       </c>
     </row>
@@ -7540,13 +7451,13 @@
         <v>21</v>
       </c>
       <c r="B14" t="s">
-        <v>324</v>
+        <v>321</v>
       </c>
       <c r="C14" t="s">
-        <v>286</v>
+        <v>284</v>
       </c>
       <c r="D14" t="s">
-        <v>343</v>
+        <v>340</v>
       </c>
       <c r="E14" t="s">
         <v>27</v>
@@ -7555,51 +7466,45 @@
         <v>52</v>
       </c>
       <c r="G14" t="s">
-        <v>288</v>
+        <v>286</v>
       </c>
       <c r="H14" t="s">
         <v>55</v>
       </c>
       <c r="I14" t="s">
-        <v>286</v>
+        <v>53</v>
       </c>
       <c r="J14" t="s">
-        <v>53</v>
+        <v>321</v>
       </c>
       <c r="K14" t="s">
-        <v>324</v>
+        <v>20</v>
       </c>
       <c r="L14" t="s">
-        <v>20</v>
+        <v>287</v>
       </c>
       <c r="M14" t="s">
-        <v>289</v>
+        <v>34</v>
       </c>
       <c r="N14" t="s">
-        <v>290</v>
+        <v>284</v>
       </c>
       <c r="O14" t="s">
-        <v>34</v>
+        <v>288</v>
       </c>
       <c r="P14" t="s">
-        <v>286</v>
+        <v>341</v>
       </c>
       <c r="Q14" t="s">
-        <v>291</v>
+        <v>55</v>
       </c>
       <c r="R14" t="s">
-        <v>344</v>
+        <v>342</v>
       </c>
       <c r="S14" t="s">
-        <v>55</v>
+        <v>343</v>
       </c>
       <c r="T14" t="s">
-        <v>345</v>
-      </c>
-      <c r="U14" t="s">
-        <v>346</v>
-      </c>
-      <c r="V14" t="s">
         <v>26</v>
       </c>
     </row>
@@ -7608,13 +7513,13 @@
         <v>21</v>
       </c>
       <c r="B15" t="s">
-        <v>324</v>
+        <v>321</v>
       </c>
       <c r="C15" t="s">
-        <v>286</v>
+        <v>284</v>
       </c>
       <c r="D15" t="s">
-        <v>347</v>
+        <v>344</v>
       </c>
       <c r="E15" t="s">
         <v>27</v>
@@ -7623,51 +7528,45 @@
         <v>52</v>
       </c>
       <c r="G15" t="s">
-        <v>288</v>
+        <v>286</v>
       </c>
       <c r="H15" t="s">
         <v>55</v>
       </c>
       <c r="I15" t="s">
-        <v>286</v>
+        <v>56</v>
       </c>
       <c r="J15" t="s">
-        <v>56</v>
+        <v>321</v>
       </c>
       <c r="K15" t="s">
-        <v>324</v>
+        <v>20</v>
       </c>
       <c r="L15" t="s">
-        <v>20</v>
+        <v>287</v>
       </c>
       <c r="M15" t="s">
-        <v>289</v>
+        <v>34</v>
       </c>
       <c r="N15" t="s">
-        <v>290</v>
+        <v>284</v>
       </c>
       <c r="O15" t="s">
-        <v>34</v>
+        <v>288</v>
       </c>
       <c r="P15" t="s">
-        <v>286</v>
+        <v>345</v>
       </c>
       <c r="Q15" t="s">
-        <v>291</v>
+        <v>55</v>
       </c>
       <c r="R15" t="s">
-        <v>348</v>
+        <v>346</v>
       </c>
       <c r="S15" t="s">
-        <v>55</v>
+        <v>347</v>
       </c>
       <c r="T15" t="s">
-        <v>349</v>
-      </c>
-      <c r="U15" t="s">
-        <v>350</v>
-      </c>
-      <c r="V15" t="s">
         <v>26</v>
       </c>
     </row>
@@ -7676,13 +7575,13 @@
         <v>21</v>
       </c>
       <c r="B16" t="s">
-        <v>324</v>
+        <v>321</v>
       </c>
       <c r="C16" t="s">
-        <v>286</v>
+        <v>284</v>
       </c>
       <c r="D16" t="s">
-        <v>351</v>
+        <v>348</v>
       </c>
       <c r="E16" t="s">
         <v>27</v>
@@ -7691,51 +7590,45 @@
         <v>52</v>
       </c>
       <c r="G16" t="s">
-        <v>288</v>
+        <v>286</v>
       </c>
       <c r="H16" t="s">
         <v>55</v>
       </c>
       <c r="I16" t="s">
-        <v>286</v>
+        <v>58</v>
       </c>
       <c r="J16" t="s">
-        <v>58</v>
+        <v>321</v>
       </c>
       <c r="K16" t="s">
-        <v>324</v>
+        <v>20</v>
       </c>
       <c r="L16" t="s">
-        <v>20</v>
+        <v>287</v>
       </c>
       <c r="M16" t="s">
-        <v>289</v>
+        <v>34</v>
       </c>
       <c r="N16" t="s">
-        <v>290</v>
+        <v>284</v>
       </c>
       <c r="O16" t="s">
-        <v>34</v>
+        <v>288</v>
       </c>
       <c r="P16" t="s">
-        <v>286</v>
+        <v>349</v>
       </c>
       <c r="Q16" t="s">
-        <v>291</v>
+        <v>55</v>
       </c>
       <c r="R16" t="s">
-        <v>352</v>
+        <v>350</v>
       </c>
       <c r="S16" t="s">
-        <v>55</v>
+        <v>351</v>
       </c>
       <c r="T16" t="s">
-        <v>353</v>
-      </c>
-      <c r="U16" t="s">
-        <v>354</v>
-      </c>
-      <c r="V16" t="s">
         <v>26</v>
       </c>
     </row>
@@ -7744,13 +7637,13 @@
         <v>21</v>
       </c>
       <c r="B17" t="s">
-        <v>324</v>
+        <v>321</v>
       </c>
       <c r="C17" t="s">
-        <v>286</v>
+        <v>284</v>
       </c>
       <c r="D17" t="s">
-        <v>355</v>
+        <v>352</v>
       </c>
       <c r="E17" t="s">
         <v>27</v>
@@ -7759,51 +7652,45 @@
         <v>32</v>
       </c>
       <c r="G17" t="s">
+        <v>286</v>
+      </c>
+      <c r="H17" t="s">
+        <v>25</v>
+      </c>
+      <c r="I17" t="s">
+        <v>60</v>
+      </c>
+      <c r="J17" t="s">
+        <v>321</v>
+      </c>
+      <c r="K17" t="s">
+        <v>20</v>
+      </c>
+      <c r="L17" t="s">
+        <v>287</v>
+      </c>
+      <c r="M17" t="s">
+        <v>34</v>
+      </c>
+      <c r="N17" t="s">
+        <v>284</v>
+      </c>
+      <c r="O17" t="s">
         <v>288</v>
       </c>
-      <c r="H17" t="s">
-        <v>25</v>
-      </c>
-      <c r="I17" t="s">
-        <v>286</v>
-      </c>
-      <c r="J17" t="s">
-        <v>60</v>
-      </c>
-      <c r="K17" t="s">
-        <v>324</v>
-      </c>
-      <c r="L17" t="s">
-        <v>20</v>
-      </c>
-      <c r="M17" t="s">
-        <v>289</v>
-      </c>
-      <c r="N17" t="s">
-        <v>290</v>
-      </c>
-      <c r="O17" t="s">
-        <v>34</v>
-      </c>
       <c r="P17" t="s">
-        <v>286</v>
+        <v>353</v>
       </c>
       <c r="Q17" t="s">
-        <v>291</v>
+        <v>25</v>
       </c>
       <c r="R17" t="s">
-        <v>356</v>
+        <v>354</v>
       </c>
       <c r="S17" t="s">
-        <v>25</v>
+        <v>355</v>
       </c>
       <c r="T17" t="s">
-        <v>357</v>
-      </c>
-      <c r="U17" t="s">
-        <v>358</v>
-      </c>
-      <c r="V17" t="s">
         <v>26</v>
       </c>
     </row>
@@ -7812,13 +7699,13 @@
         <v>21</v>
       </c>
       <c r="B18" t="s">
-        <v>324</v>
+        <v>321</v>
       </c>
       <c r="C18" t="s">
-        <v>286</v>
+        <v>284</v>
       </c>
       <c r="D18" t="s">
-        <v>359</v>
+        <v>356</v>
       </c>
       <c r="E18" t="s">
         <v>27</v>
@@ -7827,51 +7714,45 @@
         <v>32</v>
       </c>
       <c r="G18" t="s">
+        <v>286</v>
+      </c>
+      <c r="H18" t="s">
+        <v>25</v>
+      </c>
+      <c r="I18" t="s">
+        <v>62</v>
+      </c>
+      <c r="J18" t="s">
+        <v>321</v>
+      </c>
+      <c r="K18" t="s">
+        <v>20</v>
+      </c>
+      <c r="L18" t="s">
+        <v>287</v>
+      </c>
+      <c r="M18" t="s">
+        <v>34</v>
+      </c>
+      <c r="N18" t="s">
+        <v>284</v>
+      </c>
+      <c r="O18" t="s">
         <v>288</v>
       </c>
-      <c r="H18" t="s">
-        <v>25</v>
-      </c>
-      <c r="I18" t="s">
-        <v>286</v>
-      </c>
-      <c r="J18" t="s">
-        <v>62</v>
-      </c>
-      <c r="K18" t="s">
-        <v>324</v>
-      </c>
-      <c r="L18" t="s">
-        <v>20</v>
-      </c>
-      <c r="M18" t="s">
-        <v>289</v>
-      </c>
-      <c r="N18" t="s">
-        <v>290</v>
-      </c>
-      <c r="O18" t="s">
-        <v>34</v>
-      </c>
       <c r="P18" t="s">
-        <v>286</v>
+        <v>357</v>
       </c>
       <c r="Q18" t="s">
-        <v>291</v>
+        <v>25</v>
       </c>
       <c r="R18" t="s">
-        <v>360</v>
+        <v>358</v>
       </c>
       <c r="S18" t="s">
-        <v>25</v>
+        <v>359</v>
       </c>
       <c r="T18" t="s">
-        <v>361</v>
-      </c>
-      <c r="U18" t="s">
-        <v>362</v>
-      </c>
-      <c r="V18" t="s">
         <v>26</v>
       </c>
     </row>
@@ -7880,13 +7761,13 @@
         <v>21</v>
       </c>
       <c r="B19" t="s">
-        <v>324</v>
+        <v>321</v>
       </c>
       <c r="C19" t="s">
-        <v>286</v>
+        <v>284</v>
       </c>
       <c r="D19" t="s">
-        <v>363</v>
+        <v>360</v>
       </c>
       <c r="E19" t="s">
         <v>27</v>
@@ -7895,51 +7776,45 @@
         <v>32</v>
       </c>
       <c r="G19" t="s">
+        <v>286</v>
+      </c>
+      <c r="H19" t="s">
+        <v>25</v>
+      </c>
+      <c r="I19" t="s">
+        <v>64</v>
+      </c>
+      <c r="J19" t="s">
+        <v>321</v>
+      </c>
+      <c r="K19" t="s">
+        <v>20</v>
+      </c>
+      <c r="L19" t="s">
+        <v>287</v>
+      </c>
+      <c r="M19" t="s">
+        <v>34</v>
+      </c>
+      <c r="N19" t="s">
+        <v>284</v>
+      </c>
+      <c r="O19" t="s">
         <v>288</v>
       </c>
-      <c r="H19" t="s">
-        <v>25</v>
-      </c>
-      <c r="I19" t="s">
-        <v>286</v>
-      </c>
-      <c r="J19" t="s">
-        <v>64</v>
-      </c>
-      <c r="K19" t="s">
-        <v>324</v>
-      </c>
-      <c r="L19" t="s">
-        <v>20</v>
-      </c>
-      <c r="M19" t="s">
-        <v>289</v>
-      </c>
-      <c r="N19" t="s">
-        <v>290</v>
-      </c>
-      <c r="O19" t="s">
-        <v>34</v>
-      </c>
       <c r="P19" t="s">
-        <v>286</v>
+        <v>361</v>
       </c>
       <c r="Q19" t="s">
-        <v>291</v>
+        <v>25</v>
       </c>
       <c r="R19" t="s">
-        <v>364</v>
+        <v>362</v>
       </c>
       <c r="S19" t="s">
-        <v>25</v>
+        <v>363</v>
       </c>
       <c r="T19" t="s">
-        <v>365</v>
-      </c>
-      <c r="U19" t="s">
-        <v>366</v>
-      </c>
-      <c r="V19" t="s">
         <v>26</v>
       </c>
     </row>
@@ -7948,13 +7823,13 @@
         <v>21</v>
       </c>
       <c r="B20" t="s">
-        <v>324</v>
+        <v>321</v>
       </c>
       <c r="C20" t="s">
-        <v>286</v>
+        <v>284</v>
       </c>
       <c r="D20" t="s">
-        <v>367</v>
+        <v>364</v>
       </c>
       <c r="E20" t="s">
         <v>27</v>
@@ -7963,51 +7838,45 @@
         <v>32</v>
       </c>
       <c r="G20" t="s">
+        <v>286</v>
+      </c>
+      <c r="H20" t="s">
+        <v>25</v>
+      </c>
+      <c r="I20" t="s">
+        <v>66</v>
+      </c>
+      <c r="J20" t="s">
+        <v>321</v>
+      </c>
+      <c r="K20" t="s">
+        <v>20</v>
+      </c>
+      <c r="L20" t="s">
+        <v>287</v>
+      </c>
+      <c r="M20" t="s">
+        <v>34</v>
+      </c>
+      <c r="N20" t="s">
+        <v>284</v>
+      </c>
+      <c r="O20" t="s">
         <v>288</v>
       </c>
-      <c r="H20" t="s">
-        <v>25</v>
-      </c>
-      <c r="I20" t="s">
-        <v>286</v>
-      </c>
-      <c r="J20" t="s">
-        <v>66</v>
-      </c>
-      <c r="K20" t="s">
-        <v>324</v>
-      </c>
-      <c r="L20" t="s">
-        <v>20</v>
-      </c>
-      <c r="M20" t="s">
-        <v>289</v>
-      </c>
-      <c r="N20" t="s">
-        <v>290</v>
-      </c>
-      <c r="O20" t="s">
-        <v>34</v>
-      </c>
       <c r="P20" t="s">
-        <v>286</v>
+        <v>365</v>
       </c>
       <c r="Q20" t="s">
-        <v>291</v>
+        <v>25</v>
       </c>
       <c r="R20" t="s">
-        <v>368</v>
+        <v>366</v>
       </c>
       <c r="S20" t="s">
-        <v>25</v>
+        <v>367</v>
       </c>
       <c r="T20" t="s">
-        <v>369</v>
-      </c>
-      <c r="U20" t="s">
-        <v>370</v>
-      </c>
-      <c r="V20" t="s">
         <v>26</v>
       </c>
     </row>
@@ -8016,13 +7885,13 @@
         <v>21</v>
       </c>
       <c r="B21" t="s">
-        <v>324</v>
+        <v>321</v>
       </c>
       <c r="C21" t="s">
-        <v>286</v>
+        <v>284</v>
       </c>
       <c r="D21" t="s">
-        <v>371</v>
+        <v>368</v>
       </c>
       <c r="E21" t="s">
         <v>27</v>
@@ -8031,51 +7900,45 @@
         <v>32</v>
       </c>
       <c r="G21" t="s">
+        <v>286</v>
+      </c>
+      <c r="H21" t="s">
+        <v>25</v>
+      </c>
+      <c r="I21" t="s">
+        <v>68</v>
+      </c>
+      <c r="J21" t="s">
+        <v>321</v>
+      </c>
+      <c r="K21" t="s">
+        <v>20</v>
+      </c>
+      <c r="L21" t="s">
+        <v>287</v>
+      </c>
+      <c r="M21" t="s">
+        <v>34</v>
+      </c>
+      <c r="N21" t="s">
+        <v>284</v>
+      </c>
+      <c r="O21" t="s">
         <v>288</v>
       </c>
-      <c r="H21" t="s">
-        <v>25</v>
-      </c>
-      <c r="I21" t="s">
-        <v>286</v>
-      </c>
-      <c r="J21" t="s">
-        <v>68</v>
-      </c>
-      <c r="K21" t="s">
-        <v>324</v>
-      </c>
-      <c r="L21" t="s">
-        <v>20</v>
-      </c>
-      <c r="M21" t="s">
-        <v>289</v>
-      </c>
-      <c r="N21" t="s">
-        <v>290</v>
-      </c>
-      <c r="O21" t="s">
-        <v>34</v>
-      </c>
       <c r="P21" t="s">
-        <v>286</v>
+        <v>369</v>
       </c>
       <c r="Q21" t="s">
-        <v>291</v>
+        <v>25</v>
       </c>
       <c r="R21" t="s">
-        <v>372</v>
+        <v>370</v>
       </c>
       <c r="S21" t="s">
-        <v>25</v>
+        <v>371</v>
       </c>
       <c r="T21" t="s">
-        <v>373</v>
-      </c>
-      <c r="U21" t="s">
-        <v>374</v>
-      </c>
-      <c r="V21" t="s">
         <v>26</v>
       </c>
     </row>
@@ -8084,13 +7947,13 @@
         <v>21</v>
       </c>
       <c r="B22" t="s">
-        <v>324</v>
+        <v>321</v>
       </c>
       <c r="C22" t="s">
-        <v>286</v>
+        <v>284</v>
       </c>
       <c r="D22" t="s">
-        <v>375</v>
+        <v>372</v>
       </c>
       <c r="E22" t="s">
         <v>27</v>
@@ -8099,51 +7962,45 @@
         <v>32</v>
       </c>
       <c r="G22" t="s">
+        <v>286</v>
+      </c>
+      <c r="H22" t="s">
+        <v>25</v>
+      </c>
+      <c r="I22" t="s">
+        <v>70</v>
+      </c>
+      <c r="J22" t="s">
+        <v>321</v>
+      </c>
+      <c r="K22" t="s">
+        <v>20</v>
+      </c>
+      <c r="L22" t="s">
+        <v>287</v>
+      </c>
+      <c r="M22" t="s">
+        <v>34</v>
+      </c>
+      <c r="N22" t="s">
+        <v>284</v>
+      </c>
+      <c r="O22" t="s">
         <v>288</v>
       </c>
-      <c r="H22" t="s">
-        <v>25</v>
-      </c>
-      <c r="I22" t="s">
-        <v>286</v>
-      </c>
-      <c r="J22" t="s">
-        <v>70</v>
-      </c>
-      <c r="K22" t="s">
-        <v>324</v>
-      </c>
-      <c r="L22" t="s">
-        <v>20</v>
-      </c>
-      <c r="M22" t="s">
-        <v>289</v>
-      </c>
-      <c r="N22" t="s">
-        <v>290</v>
-      </c>
-      <c r="O22" t="s">
-        <v>34</v>
-      </c>
       <c r="P22" t="s">
-        <v>286</v>
+        <v>373</v>
       </c>
       <c r="Q22" t="s">
-        <v>291</v>
+        <v>25</v>
       </c>
       <c r="R22" t="s">
-        <v>376</v>
+        <v>374</v>
       </c>
       <c r="S22" t="s">
-        <v>25</v>
+        <v>375</v>
       </c>
       <c r="T22" t="s">
-        <v>377</v>
-      </c>
-      <c r="U22" t="s">
-        <v>378</v>
-      </c>
-      <c r="V22" t="s">
         <v>26</v>
       </c>
     </row>
@@ -8152,13 +8009,13 @@
         <v>21</v>
       </c>
       <c r="B23" t="s">
-        <v>324</v>
+        <v>321</v>
       </c>
       <c r="C23" t="s">
-        <v>286</v>
+        <v>284</v>
       </c>
       <c r="D23" t="s">
-        <v>379</v>
+        <v>376</v>
       </c>
       <c r="E23" t="s">
         <v>27</v>
@@ -8167,51 +8024,45 @@
         <v>32</v>
       </c>
       <c r="G23" t="s">
+        <v>286</v>
+      </c>
+      <c r="H23" t="s">
+        <v>25</v>
+      </c>
+      <c r="I23" t="s">
+        <v>72</v>
+      </c>
+      <c r="J23" t="s">
+        <v>321</v>
+      </c>
+      <c r="K23" t="s">
+        <v>20</v>
+      </c>
+      <c r="L23" t="s">
+        <v>287</v>
+      </c>
+      <c r="M23" t="s">
+        <v>34</v>
+      </c>
+      <c r="N23" t="s">
+        <v>284</v>
+      </c>
+      <c r="O23" t="s">
         <v>288</v>
       </c>
-      <c r="H23" t="s">
-        <v>25</v>
-      </c>
-      <c r="I23" t="s">
-        <v>286</v>
-      </c>
-      <c r="J23" t="s">
-        <v>72</v>
-      </c>
-      <c r="K23" t="s">
-        <v>324</v>
-      </c>
-      <c r="L23" t="s">
-        <v>20</v>
-      </c>
-      <c r="M23" t="s">
-        <v>289</v>
-      </c>
-      <c r="N23" t="s">
-        <v>290</v>
-      </c>
-      <c r="O23" t="s">
-        <v>34</v>
-      </c>
       <c r="P23" t="s">
-        <v>286</v>
+        <v>377</v>
       </c>
       <c r="Q23" t="s">
-        <v>291</v>
+        <v>25</v>
       </c>
       <c r="R23" t="s">
-        <v>380</v>
+        <v>378</v>
       </c>
       <c r="S23" t="s">
-        <v>25</v>
+        <v>379</v>
       </c>
       <c r="T23" t="s">
-        <v>381</v>
-      </c>
-      <c r="U23" t="s">
-        <v>382</v>
-      </c>
-      <c r="V23" t="s">
         <v>26</v>
       </c>
     </row>
@@ -8220,13 +8071,13 @@
         <v>21</v>
       </c>
       <c r="B24" t="s">
-        <v>324</v>
+        <v>321</v>
       </c>
       <c r="C24" t="s">
-        <v>286</v>
+        <v>284</v>
       </c>
       <c r="D24" t="s">
-        <v>383</v>
+        <v>380</v>
       </c>
       <c r="E24" t="s">
         <v>27</v>
@@ -8235,51 +8086,45 @@
         <v>18</v>
       </c>
       <c r="G24" t="s">
+        <v>286</v>
+      </c>
+      <c r="H24" t="s">
+        <v>25</v>
+      </c>
+      <c r="I24" t="s">
+        <v>74</v>
+      </c>
+      <c r="J24" t="s">
+        <v>321</v>
+      </c>
+      <c r="K24" t="s">
+        <v>20</v>
+      </c>
+      <c r="L24" t="s">
+        <v>287</v>
+      </c>
+      <c r="M24" t="s">
+        <v>34</v>
+      </c>
+      <c r="N24" t="s">
+        <v>284</v>
+      </c>
+      <c r="O24" t="s">
         <v>288</v>
       </c>
-      <c r="H24" t="s">
-        <v>25</v>
-      </c>
-      <c r="I24" t="s">
-        <v>286</v>
-      </c>
-      <c r="J24" t="s">
-        <v>74</v>
-      </c>
-      <c r="K24" t="s">
-        <v>324</v>
-      </c>
-      <c r="L24" t="s">
-        <v>20</v>
-      </c>
-      <c r="M24" t="s">
-        <v>289</v>
-      </c>
-      <c r="N24" t="s">
-        <v>290</v>
-      </c>
-      <c r="O24" t="s">
-        <v>34</v>
-      </c>
       <c r="P24" t="s">
-        <v>286</v>
+        <v>381</v>
       </c>
       <c r="Q24" t="s">
-        <v>291</v>
+        <v>25</v>
       </c>
       <c r="R24" t="s">
-        <v>384</v>
+        <v>382</v>
       </c>
       <c r="S24" t="s">
-        <v>25</v>
+        <v>383</v>
       </c>
       <c r="T24" t="s">
-        <v>385</v>
-      </c>
-      <c r="U24" t="s">
-        <v>386</v>
-      </c>
-      <c r="V24" t="s">
         <v>26</v>
       </c>
     </row>
@@ -8288,13 +8133,13 @@
         <v>21</v>
       </c>
       <c r="B25" t="s">
-        <v>324</v>
+        <v>321</v>
       </c>
       <c r="C25" t="s">
-        <v>286</v>
+        <v>284</v>
       </c>
       <c r="D25" t="s">
-        <v>387</v>
+        <v>384</v>
       </c>
       <c r="E25" t="s">
         <v>27</v>
@@ -8303,51 +8148,45 @@
         <v>18</v>
       </c>
       <c r="G25" t="s">
+        <v>286</v>
+      </c>
+      <c r="H25" t="s">
+        <v>25</v>
+      </c>
+      <c r="I25" t="s">
+        <v>76</v>
+      </c>
+      <c r="J25" t="s">
+        <v>321</v>
+      </c>
+      <c r="K25" t="s">
+        <v>20</v>
+      </c>
+      <c r="L25" t="s">
+        <v>287</v>
+      </c>
+      <c r="M25" t="s">
+        <v>34</v>
+      </c>
+      <c r="N25" t="s">
+        <v>284</v>
+      </c>
+      <c r="O25" t="s">
         <v>288</v>
       </c>
-      <c r="H25" t="s">
-        <v>25</v>
-      </c>
-      <c r="I25" t="s">
-        <v>286</v>
-      </c>
-      <c r="J25" t="s">
-        <v>76</v>
-      </c>
-      <c r="K25" t="s">
-        <v>324</v>
-      </c>
-      <c r="L25" t="s">
-        <v>20</v>
-      </c>
-      <c r="M25" t="s">
-        <v>289</v>
-      </c>
-      <c r="N25" t="s">
-        <v>290</v>
-      </c>
-      <c r="O25" t="s">
-        <v>34</v>
-      </c>
       <c r="P25" t="s">
-        <v>286</v>
+        <v>385</v>
       </c>
       <c r="Q25" t="s">
-        <v>291</v>
+        <v>25</v>
       </c>
       <c r="R25" t="s">
-        <v>388</v>
+        <v>386</v>
       </c>
       <c r="S25" t="s">
-        <v>25</v>
+        <v>387</v>
       </c>
       <c r="T25" t="s">
-        <v>389</v>
-      </c>
-      <c r="U25" t="s">
-        <v>390</v>
-      </c>
-      <c r="V25" t="s">
         <v>26</v>
       </c>
     </row>
@@ -8356,13 +8195,13 @@
         <v>21</v>
       </c>
       <c r="B26" t="s">
-        <v>324</v>
+        <v>321</v>
       </c>
       <c r="C26" t="s">
-        <v>286</v>
+        <v>284</v>
       </c>
       <c r="D26" t="s">
-        <v>391</v>
+        <v>388</v>
       </c>
       <c r="E26" t="s">
         <v>27</v>
@@ -8371,51 +8210,45 @@
         <v>18</v>
       </c>
       <c r="G26" t="s">
+        <v>286</v>
+      </c>
+      <c r="H26" t="s">
+        <v>25</v>
+      </c>
+      <c r="I26" t="s">
+        <v>78</v>
+      </c>
+      <c r="J26" t="s">
+        <v>321</v>
+      </c>
+      <c r="K26" t="s">
+        <v>20</v>
+      </c>
+      <c r="L26" t="s">
+        <v>287</v>
+      </c>
+      <c r="M26" t="s">
+        <v>34</v>
+      </c>
+      <c r="N26" t="s">
+        <v>284</v>
+      </c>
+      <c r="O26" t="s">
         <v>288</v>
       </c>
-      <c r="H26" t="s">
-        <v>25</v>
-      </c>
-      <c r="I26" t="s">
-        <v>286</v>
-      </c>
-      <c r="J26" t="s">
-        <v>78</v>
-      </c>
-      <c r="K26" t="s">
-        <v>324</v>
-      </c>
-      <c r="L26" t="s">
-        <v>20</v>
-      </c>
-      <c r="M26" t="s">
-        <v>289</v>
-      </c>
-      <c r="N26" t="s">
-        <v>290</v>
-      </c>
-      <c r="O26" t="s">
-        <v>34</v>
-      </c>
       <c r="P26" t="s">
-        <v>286</v>
+        <v>389</v>
       </c>
       <c r="Q26" t="s">
-        <v>291</v>
+        <v>25</v>
       </c>
       <c r="R26" t="s">
-        <v>392</v>
+        <v>390</v>
       </c>
       <c r="S26" t="s">
-        <v>25</v>
+        <v>391</v>
       </c>
       <c r="T26" t="s">
-        <v>393</v>
-      </c>
-      <c r="U26" t="s">
-        <v>394</v>
-      </c>
-      <c r="V26" t="s">
         <v>26</v>
       </c>
     </row>
@@ -8424,13 +8257,13 @@
         <v>21</v>
       </c>
       <c r="B27" t="s">
-        <v>324</v>
+        <v>321</v>
       </c>
       <c r="C27" t="s">
-        <v>286</v>
+        <v>284</v>
       </c>
       <c r="D27" t="s">
-        <v>395</v>
+        <v>392</v>
       </c>
       <c r="E27" t="s">
         <v>27</v>
@@ -8439,51 +8272,45 @@
         <v>52</v>
       </c>
       <c r="G27" t="s">
-        <v>288</v>
+        <v>286</v>
       </c>
       <c r="H27" t="s">
         <v>55</v>
       </c>
       <c r="I27" t="s">
-        <v>286</v>
+        <v>80</v>
       </c>
       <c r="J27" t="s">
-        <v>80</v>
+        <v>321</v>
       </c>
       <c r="K27" t="s">
-        <v>324</v>
+        <v>20</v>
       </c>
       <c r="L27" t="s">
-        <v>20</v>
+        <v>287</v>
       </c>
       <c r="M27" t="s">
-        <v>289</v>
+        <v>34</v>
       </c>
       <c r="N27" t="s">
-        <v>290</v>
+        <v>284</v>
       </c>
       <c r="O27" t="s">
-        <v>34</v>
+        <v>288</v>
       </c>
       <c r="P27" t="s">
-        <v>286</v>
+        <v>393</v>
       </c>
       <c r="Q27" t="s">
-        <v>291</v>
+        <v>55</v>
       </c>
       <c r="R27" t="s">
-        <v>396</v>
+        <v>394</v>
       </c>
       <c r="S27" t="s">
-        <v>55</v>
+        <v>395</v>
       </c>
       <c r="T27" t="s">
-        <v>397</v>
-      </c>
-      <c r="U27" t="s">
-        <v>398</v>
-      </c>
-      <c r="V27" t="s">
         <v>26</v>
       </c>
     </row>
@@ -8492,13 +8319,13 @@
         <v>21</v>
       </c>
       <c r="B28" t="s">
-        <v>324</v>
+        <v>321</v>
       </c>
       <c r="C28" t="s">
-        <v>286</v>
+        <v>284</v>
       </c>
       <c r="D28" t="s">
-        <v>399</v>
+        <v>396</v>
       </c>
       <c r="E28" t="s">
         <v>27</v>
@@ -8507,51 +8334,45 @@
         <v>32</v>
       </c>
       <c r="G28" t="s">
+        <v>286</v>
+      </c>
+      <c r="H28" t="s">
+        <v>25</v>
+      </c>
+      <c r="I28" t="s">
+        <v>82</v>
+      </c>
+      <c r="J28" t="s">
+        <v>321</v>
+      </c>
+      <c r="K28" t="s">
+        <v>20</v>
+      </c>
+      <c r="L28" t="s">
+        <v>287</v>
+      </c>
+      <c r="M28" t="s">
+        <v>34</v>
+      </c>
+      <c r="N28" t="s">
+        <v>284</v>
+      </c>
+      <c r="O28" t="s">
         <v>288</v>
       </c>
-      <c r="H28" t="s">
-        <v>25</v>
-      </c>
-      <c r="I28" t="s">
-        <v>286</v>
-      </c>
-      <c r="J28" t="s">
-        <v>82</v>
-      </c>
-      <c r="K28" t="s">
-        <v>324</v>
-      </c>
-      <c r="L28" t="s">
-        <v>20</v>
-      </c>
-      <c r="M28" t="s">
-        <v>289</v>
-      </c>
-      <c r="N28" t="s">
-        <v>290</v>
-      </c>
-      <c r="O28" t="s">
-        <v>34</v>
-      </c>
       <c r="P28" t="s">
-        <v>286</v>
+        <v>397</v>
       </c>
       <c r="Q28" t="s">
-        <v>291</v>
+        <v>25</v>
       </c>
       <c r="R28" t="s">
-        <v>400</v>
+        <v>398</v>
       </c>
       <c r="S28" t="s">
-        <v>25</v>
+        <v>399</v>
       </c>
       <c r="T28" t="s">
-        <v>401</v>
-      </c>
-      <c r="U28" t="s">
-        <v>402</v>
-      </c>
-      <c r="V28" t="s">
         <v>26</v>
       </c>
     </row>
@@ -8560,13 +8381,13 @@
         <v>21</v>
       </c>
       <c r="B29" t="s">
-        <v>324</v>
+        <v>321</v>
       </c>
       <c r="C29" t="s">
-        <v>286</v>
+        <v>284</v>
       </c>
       <c r="D29" t="s">
-        <v>403</v>
+        <v>400</v>
       </c>
       <c r="E29" t="s">
         <v>27</v>
@@ -8575,51 +8396,45 @@
         <v>32</v>
       </c>
       <c r="G29" t="s">
+        <v>286</v>
+      </c>
+      <c r="H29" t="s">
+        <v>25</v>
+      </c>
+      <c r="I29" t="s">
+        <v>84</v>
+      </c>
+      <c r="J29" t="s">
+        <v>321</v>
+      </c>
+      <c r="K29" t="s">
+        <v>20</v>
+      </c>
+      <c r="L29" t="s">
+        <v>287</v>
+      </c>
+      <c r="M29" t="s">
+        <v>34</v>
+      </c>
+      <c r="N29" t="s">
+        <v>284</v>
+      </c>
+      <c r="O29" t="s">
         <v>288</v>
       </c>
-      <c r="H29" t="s">
-        <v>25</v>
-      </c>
-      <c r="I29" t="s">
-        <v>286</v>
-      </c>
-      <c r="J29" t="s">
-        <v>84</v>
-      </c>
-      <c r="K29" t="s">
-        <v>324</v>
-      </c>
-      <c r="L29" t="s">
-        <v>20</v>
-      </c>
-      <c r="M29" t="s">
-        <v>289</v>
-      </c>
-      <c r="N29" t="s">
-        <v>290</v>
-      </c>
-      <c r="O29" t="s">
-        <v>34</v>
-      </c>
       <c r="P29" t="s">
-        <v>286</v>
+        <v>401</v>
       </c>
       <c r="Q29" t="s">
-        <v>291</v>
+        <v>25</v>
       </c>
       <c r="R29" t="s">
-        <v>404</v>
+        <v>402</v>
       </c>
       <c r="S29" t="s">
-        <v>25</v>
+        <v>403</v>
       </c>
       <c r="T29" t="s">
-        <v>405</v>
-      </c>
-      <c r="U29" t="s">
-        <v>406</v>
-      </c>
-      <c r="V29" t="s">
         <v>26</v>
       </c>
     </row>
@@ -8628,13 +8443,13 @@
         <v>21</v>
       </c>
       <c r="B30" t="s">
-        <v>324</v>
+        <v>321</v>
       </c>
       <c r="C30" t="s">
-        <v>286</v>
+        <v>284</v>
       </c>
       <c r="D30" t="s">
-        <v>407</v>
+        <v>404</v>
       </c>
       <c r="E30" t="s">
         <v>27</v>
@@ -8643,51 +8458,45 @@
         <v>18</v>
       </c>
       <c r="G30" t="s">
+        <v>286</v>
+      </c>
+      <c r="H30" t="s">
+        <v>25</v>
+      </c>
+      <c r="I30" t="s">
+        <v>86</v>
+      </c>
+      <c r="J30" t="s">
+        <v>321</v>
+      </c>
+      <c r="K30" t="s">
+        <v>20</v>
+      </c>
+      <c r="L30" t="s">
+        <v>287</v>
+      </c>
+      <c r="M30" t="s">
+        <v>34</v>
+      </c>
+      <c r="N30" t="s">
+        <v>284</v>
+      </c>
+      <c r="O30" t="s">
         <v>288</v>
       </c>
-      <c r="H30" t="s">
-        <v>25</v>
-      </c>
-      <c r="I30" t="s">
-        <v>286</v>
-      </c>
-      <c r="J30" t="s">
-        <v>86</v>
-      </c>
-      <c r="K30" t="s">
-        <v>324</v>
-      </c>
-      <c r="L30" t="s">
-        <v>20</v>
-      </c>
-      <c r="M30" t="s">
-        <v>289</v>
-      </c>
-      <c r="N30" t="s">
-        <v>290</v>
-      </c>
-      <c r="O30" t="s">
-        <v>34</v>
-      </c>
       <c r="P30" t="s">
-        <v>286</v>
+        <v>405</v>
       </c>
       <c r="Q30" t="s">
-        <v>291</v>
+        <v>25</v>
       </c>
       <c r="R30" t="s">
-        <v>408</v>
+        <v>406</v>
       </c>
       <c r="S30" t="s">
-        <v>25</v>
+        <v>407</v>
       </c>
       <c r="T30" t="s">
-        <v>409</v>
-      </c>
-      <c r="U30" t="s">
-        <v>410</v>
-      </c>
-      <c r="V30" t="s">
         <v>26</v>
       </c>
     </row>
@@ -8696,13 +8505,13 @@
         <v>21</v>
       </c>
       <c r="B31" t="s">
-        <v>324</v>
+        <v>321</v>
       </c>
       <c r="C31" t="s">
-        <v>286</v>
+        <v>284</v>
       </c>
       <c r="D31" t="s">
-        <v>411</v>
+        <v>408</v>
       </c>
       <c r="E31" t="s">
         <v>27</v>
@@ -8711,51 +8520,45 @@
         <v>52</v>
       </c>
       <c r="G31" t="s">
-        <v>288</v>
+        <v>286</v>
       </c>
       <c r="H31" t="s">
         <v>55</v>
       </c>
       <c r="I31" t="s">
-        <v>286</v>
+        <v>88</v>
       </c>
       <c r="J31" t="s">
-        <v>88</v>
+        <v>321</v>
       </c>
       <c r="K31" t="s">
-        <v>324</v>
+        <v>20</v>
       </c>
       <c r="L31" t="s">
-        <v>20</v>
+        <v>287</v>
       </c>
       <c r="M31" t="s">
-        <v>289</v>
+        <v>34</v>
       </c>
       <c r="N31" t="s">
-        <v>290</v>
+        <v>284</v>
       </c>
       <c r="O31" t="s">
-        <v>34</v>
+        <v>288</v>
       </c>
       <c r="P31" t="s">
-        <v>286</v>
+        <v>409</v>
       </c>
       <c r="Q31" t="s">
-        <v>291</v>
+        <v>55</v>
       </c>
       <c r="R31" t="s">
-        <v>412</v>
+        <v>410</v>
       </c>
       <c r="S31" t="s">
-        <v>55</v>
+        <v>411</v>
       </c>
       <c r="T31" t="s">
-        <v>413</v>
-      </c>
-      <c r="U31" t="s">
-        <v>414</v>
-      </c>
-      <c r="V31" t="s">
         <v>26</v>
       </c>
     </row>
@@ -8764,13 +8567,13 @@
         <v>21</v>
       </c>
       <c r="B32" t="s">
-        <v>324</v>
+        <v>321</v>
       </c>
       <c r="C32" t="s">
-        <v>286</v>
+        <v>284</v>
       </c>
       <c r="D32" t="s">
-        <v>415</v>
+        <v>412</v>
       </c>
       <c r="E32" t="s">
         <v>27</v>
@@ -8779,51 +8582,45 @@
         <v>52</v>
       </c>
       <c r="G32" t="s">
-        <v>288</v>
+        <v>286</v>
       </c>
       <c r="H32" t="s">
         <v>55</v>
       </c>
       <c r="I32" t="s">
-        <v>286</v>
+        <v>90</v>
       </c>
       <c r="J32" t="s">
-        <v>90</v>
+        <v>321</v>
       </c>
       <c r="K32" t="s">
-        <v>324</v>
+        <v>20</v>
       </c>
       <c r="L32" t="s">
-        <v>20</v>
+        <v>287</v>
       </c>
       <c r="M32" t="s">
-        <v>289</v>
+        <v>34</v>
       </c>
       <c r="N32" t="s">
-        <v>290</v>
+        <v>284</v>
       </c>
       <c r="O32" t="s">
-        <v>34</v>
+        <v>288</v>
       </c>
       <c r="P32" t="s">
-        <v>286</v>
+        <v>413</v>
       </c>
       <c r="Q32" t="s">
-        <v>291</v>
+        <v>55</v>
       </c>
       <c r="R32" t="s">
-        <v>416</v>
+        <v>414</v>
       </c>
       <c r="S32" t="s">
-        <v>55</v>
+        <v>415</v>
       </c>
       <c r="T32" t="s">
-        <v>417</v>
-      </c>
-      <c r="U32" t="s">
-        <v>418</v>
-      </c>
-      <c r="V32" t="s">
         <v>26</v>
       </c>
     </row>
@@ -8832,13 +8629,13 @@
         <v>21</v>
       </c>
       <c r="B33" t="s">
-        <v>324</v>
+        <v>321</v>
       </c>
       <c r="C33" t="s">
-        <v>286</v>
+        <v>284</v>
       </c>
       <c r="D33" t="s">
-        <v>419</v>
+        <v>416</v>
       </c>
       <c r="E33" t="s">
         <v>27</v>
@@ -8847,51 +8644,45 @@
         <v>18</v>
       </c>
       <c r="G33" t="s">
+        <v>286</v>
+      </c>
+      <c r="H33" t="s">
+        <v>25</v>
+      </c>
+      <c r="I33" t="s">
+        <v>92</v>
+      </c>
+      <c r="J33" t="s">
+        <v>321</v>
+      </c>
+      <c r="K33" t="s">
+        <v>20</v>
+      </c>
+      <c r="L33" t="s">
+        <v>287</v>
+      </c>
+      <c r="M33" t="s">
+        <v>34</v>
+      </c>
+      <c r="N33" t="s">
+        <v>284</v>
+      </c>
+      <c r="O33" t="s">
         <v>288</v>
       </c>
-      <c r="H33" t="s">
-        <v>25</v>
-      </c>
-      <c r="I33" t="s">
-        <v>286</v>
-      </c>
-      <c r="J33" t="s">
-        <v>92</v>
-      </c>
-      <c r="K33" t="s">
-        <v>324</v>
-      </c>
-      <c r="L33" t="s">
-        <v>20</v>
-      </c>
-      <c r="M33" t="s">
-        <v>289</v>
-      </c>
-      <c r="N33" t="s">
-        <v>290</v>
-      </c>
-      <c r="O33" t="s">
-        <v>34</v>
-      </c>
       <c r="P33" t="s">
-        <v>286</v>
+        <v>417</v>
       </c>
       <c r="Q33" t="s">
-        <v>291</v>
+        <v>25</v>
       </c>
       <c r="R33" t="s">
-        <v>420</v>
+        <v>418</v>
       </c>
       <c r="S33" t="s">
-        <v>25</v>
+        <v>419</v>
       </c>
       <c r="T33" t="s">
-        <v>421</v>
-      </c>
-      <c r="U33" t="s">
-        <v>422</v>
-      </c>
-      <c r="V33" t="s">
         <v>26</v>
       </c>
     </row>
@@ -8900,13 +8691,13 @@
         <v>21</v>
       </c>
       <c r="B34" t="s">
-        <v>324</v>
+        <v>321</v>
       </c>
       <c r="C34" t="s">
-        <v>286</v>
+        <v>284</v>
       </c>
       <c r="D34" t="s">
-        <v>419</v>
+        <v>416</v>
       </c>
       <c r="E34" t="s">
         <v>27</v>
@@ -8915,51 +8706,45 @@
         <v>18</v>
       </c>
       <c r="G34" t="s">
+        <v>286</v>
+      </c>
+      <c r="H34" t="s">
+        <v>25</v>
+      </c>
+      <c r="I34" t="s">
+        <v>94</v>
+      </c>
+      <c r="J34" t="s">
+        <v>321</v>
+      </c>
+      <c r="K34" t="s">
+        <v>20</v>
+      </c>
+      <c r="L34" t="s">
+        <v>287</v>
+      </c>
+      <c r="M34" t="s">
+        <v>34</v>
+      </c>
+      <c r="N34" t="s">
+        <v>284</v>
+      </c>
+      <c r="O34" t="s">
         <v>288</v>
       </c>
-      <c r="H34" t="s">
-        <v>25</v>
-      </c>
-      <c r="I34" t="s">
-        <v>286</v>
-      </c>
-      <c r="J34" t="s">
-        <v>94</v>
-      </c>
-      <c r="K34" t="s">
-        <v>324</v>
-      </c>
-      <c r="L34" t="s">
-        <v>20</v>
-      </c>
-      <c r="M34" t="s">
-        <v>289</v>
-      </c>
-      <c r="N34" t="s">
-        <v>290</v>
-      </c>
-      <c r="O34" t="s">
-        <v>34</v>
-      </c>
       <c r="P34" t="s">
-        <v>286</v>
+        <v>420</v>
       </c>
       <c r="Q34" t="s">
-        <v>291</v>
+        <v>25</v>
       </c>
       <c r="R34" t="s">
-        <v>423</v>
+        <v>421</v>
       </c>
       <c r="S34" t="s">
-        <v>25</v>
+        <v>419</v>
       </c>
       <c r="T34" t="s">
-        <v>424</v>
-      </c>
-      <c r="U34" t="s">
-        <v>422</v>
-      </c>
-      <c r="V34" t="s">
         <v>26</v>
       </c>
     </row>
@@ -8968,13 +8753,13 @@
         <v>21</v>
       </c>
       <c r="B35" t="s">
-        <v>324</v>
+        <v>321</v>
       </c>
       <c r="C35" t="s">
-        <v>286</v>
+        <v>284</v>
       </c>
       <c r="D35" t="s">
-        <v>425</v>
+        <v>422</v>
       </c>
       <c r="E35" t="s">
         <v>27</v>
@@ -8983,51 +8768,45 @@
         <v>18</v>
       </c>
       <c r="G35" t="s">
+        <v>286</v>
+      </c>
+      <c r="H35" t="s">
+        <v>25</v>
+      </c>
+      <c r="I35" t="s">
+        <v>92</v>
+      </c>
+      <c r="J35" t="s">
+        <v>321</v>
+      </c>
+      <c r="K35" t="s">
+        <v>20</v>
+      </c>
+      <c r="L35" t="s">
+        <v>287</v>
+      </c>
+      <c r="M35" t="s">
+        <v>34</v>
+      </c>
+      <c r="N35" t="s">
+        <v>284</v>
+      </c>
+      <c r="O35" t="s">
         <v>288</v>
       </c>
-      <c r="H35" t="s">
-        <v>25</v>
-      </c>
-      <c r="I35" t="s">
-        <v>286</v>
-      </c>
-      <c r="J35" t="s">
-        <v>92</v>
-      </c>
-      <c r="K35" t="s">
-        <v>324</v>
-      </c>
-      <c r="L35" t="s">
-        <v>20</v>
-      </c>
-      <c r="M35" t="s">
-        <v>289</v>
-      </c>
-      <c r="N35" t="s">
-        <v>290</v>
-      </c>
-      <c r="O35" t="s">
-        <v>34</v>
-      </c>
       <c r="P35" t="s">
-        <v>286</v>
+        <v>423</v>
       </c>
       <c r="Q35" t="s">
-        <v>291</v>
+        <v>25</v>
       </c>
       <c r="R35" t="s">
-        <v>426</v>
+        <v>424</v>
       </c>
       <c r="S35" t="s">
-        <v>25</v>
+        <v>425</v>
       </c>
       <c r="T35" t="s">
-        <v>427</v>
-      </c>
-      <c r="U35" t="s">
-        <v>428</v>
-      </c>
-      <c r="V35" t="s">
         <v>26</v>
       </c>
     </row>
@@ -9036,13 +8815,13 @@
         <v>21</v>
       </c>
       <c r="B36" t="s">
-        <v>324</v>
+        <v>321</v>
       </c>
       <c r="C36" t="s">
-        <v>286</v>
+        <v>284</v>
       </c>
       <c r="D36" t="s">
-        <v>425</v>
+        <v>422</v>
       </c>
       <c r="E36" t="s">
         <v>27</v>
@@ -9051,51 +8830,45 @@
         <v>18</v>
       </c>
       <c r="G36" t="s">
+        <v>286</v>
+      </c>
+      <c r="H36" t="s">
+        <v>25</v>
+      </c>
+      <c r="I36" t="s">
+        <v>94</v>
+      </c>
+      <c r="J36" t="s">
+        <v>321</v>
+      </c>
+      <c r="K36" t="s">
+        <v>20</v>
+      </c>
+      <c r="L36" t="s">
+        <v>287</v>
+      </c>
+      <c r="M36" t="s">
+        <v>34</v>
+      </c>
+      <c r="N36" t="s">
+        <v>284</v>
+      </c>
+      <c r="O36" t="s">
         <v>288</v>
       </c>
-      <c r="H36" t="s">
-        <v>25</v>
-      </c>
-      <c r="I36" t="s">
-        <v>286</v>
-      </c>
-      <c r="J36" t="s">
-        <v>94</v>
-      </c>
-      <c r="K36" t="s">
-        <v>324</v>
-      </c>
-      <c r="L36" t="s">
-        <v>20</v>
-      </c>
-      <c r="M36" t="s">
-        <v>289</v>
-      </c>
-      <c r="N36" t="s">
-        <v>290</v>
-      </c>
-      <c r="O36" t="s">
-        <v>34</v>
-      </c>
       <c r="P36" t="s">
-        <v>286</v>
+        <v>426</v>
       </c>
       <c r="Q36" t="s">
-        <v>291</v>
+        <v>25</v>
       </c>
       <c r="R36" t="s">
-        <v>429</v>
+        <v>427</v>
       </c>
       <c r="S36" t="s">
-        <v>25</v>
+        <v>425</v>
       </c>
       <c r="T36" t="s">
-        <v>430</v>
-      </c>
-      <c r="U36" t="s">
-        <v>428</v>
-      </c>
-      <c r="V36" t="s">
         <v>26</v>
       </c>
     </row>
@@ -9104,13 +8877,13 @@
         <v>21</v>
       </c>
       <c r="B37" t="s">
-        <v>324</v>
+        <v>321</v>
       </c>
       <c r="C37" t="s">
-        <v>286</v>
+        <v>284</v>
       </c>
       <c r="D37" t="s">
-        <v>431</v>
+        <v>428</v>
       </c>
       <c r="E37" t="s">
         <v>27</v>
@@ -9119,51 +8892,45 @@
         <v>18</v>
       </c>
       <c r="G37" t="s">
+        <v>286</v>
+      </c>
+      <c r="H37" t="s">
+        <v>25</v>
+      </c>
+      <c r="I37" t="s">
+        <v>96</v>
+      </c>
+      <c r="J37" t="s">
+        <v>321</v>
+      </c>
+      <c r="K37" t="s">
+        <v>20</v>
+      </c>
+      <c r="L37" t="s">
+        <v>287</v>
+      </c>
+      <c r="M37" t="s">
+        <v>34</v>
+      </c>
+      <c r="N37" t="s">
+        <v>284</v>
+      </c>
+      <c r="O37" t="s">
         <v>288</v>
       </c>
-      <c r="H37" t="s">
-        <v>25</v>
-      </c>
-      <c r="I37" t="s">
-        <v>286</v>
-      </c>
-      <c r="J37" t="s">
-        <v>96</v>
-      </c>
-      <c r="K37" t="s">
-        <v>324</v>
-      </c>
-      <c r="L37" t="s">
-        <v>20</v>
-      </c>
-      <c r="M37" t="s">
-        <v>289</v>
-      </c>
-      <c r="N37" t="s">
-        <v>290</v>
-      </c>
-      <c r="O37" t="s">
-        <v>34</v>
-      </c>
       <c r="P37" t="s">
-        <v>286</v>
+        <v>429</v>
       </c>
       <c r="Q37" t="s">
-        <v>291</v>
+        <v>25</v>
       </c>
       <c r="R37" t="s">
-        <v>432</v>
+        <v>430</v>
       </c>
       <c r="S37" t="s">
-        <v>25</v>
+        <v>431</v>
       </c>
       <c r="T37" t="s">
-        <v>433</v>
-      </c>
-      <c r="U37" t="s">
-        <v>434</v>
-      </c>
-      <c r="V37" t="s">
         <v>26</v>
       </c>
     </row>
@@ -9172,13 +8939,13 @@
         <v>21</v>
       </c>
       <c r="B38" t="s">
-        <v>324</v>
+        <v>321</v>
       </c>
       <c r="C38" t="s">
-        <v>286</v>
+        <v>284</v>
       </c>
       <c r="D38" t="s">
-        <v>435</v>
+        <v>432</v>
       </c>
       <c r="E38" t="s">
         <v>27</v>
@@ -9187,51 +8954,45 @@
         <v>18</v>
       </c>
       <c r="G38" t="s">
+        <v>286</v>
+      </c>
+      <c r="H38" t="s">
+        <v>25</v>
+      </c>
+      <c r="I38" t="s">
+        <v>98</v>
+      </c>
+      <c r="J38" t="s">
+        <v>321</v>
+      </c>
+      <c r="K38" t="s">
+        <v>20</v>
+      </c>
+      <c r="L38" t="s">
+        <v>287</v>
+      </c>
+      <c r="M38" t="s">
+        <v>34</v>
+      </c>
+      <c r="N38" t="s">
+        <v>284</v>
+      </c>
+      <c r="O38" t="s">
         <v>288</v>
       </c>
-      <c r="H38" t="s">
-        <v>25</v>
-      </c>
-      <c r="I38" t="s">
-        <v>286</v>
-      </c>
-      <c r="J38" t="s">
-        <v>98</v>
-      </c>
-      <c r="K38" t="s">
-        <v>324</v>
-      </c>
-      <c r="L38" t="s">
-        <v>20</v>
-      </c>
-      <c r="M38" t="s">
-        <v>289</v>
-      </c>
-      <c r="N38" t="s">
-        <v>290</v>
-      </c>
-      <c r="O38" t="s">
-        <v>34</v>
-      </c>
       <c r="P38" t="s">
-        <v>286</v>
+        <v>433</v>
       </c>
       <c r="Q38" t="s">
-        <v>291</v>
+        <v>25</v>
       </c>
       <c r="R38" t="s">
-        <v>436</v>
+        <v>434</v>
       </c>
       <c r="S38" t="s">
-        <v>25</v>
+        <v>435</v>
       </c>
       <c r="T38" t="s">
-        <v>437</v>
-      </c>
-      <c r="U38" t="s">
-        <v>438</v>
-      </c>
-      <c r="V38" t="s">
         <v>26</v>
       </c>
     </row>
@@ -9240,13 +9001,13 @@
         <v>21</v>
       </c>
       <c r="B39" t="s">
-        <v>324</v>
+        <v>321</v>
       </c>
       <c r="C39" t="s">
-        <v>286</v>
+        <v>284</v>
       </c>
       <c r="D39" t="s">
-        <v>439</v>
+        <v>436</v>
       </c>
       <c r="E39" t="s">
         <v>27</v>
@@ -9255,51 +9016,45 @@
         <v>18</v>
       </c>
       <c r="G39" t="s">
+        <v>286</v>
+      </c>
+      <c r="H39" t="s">
+        <v>25</v>
+      </c>
+      <c r="I39" t="s">
+        <v>100</v>
+      </c>
+      <c r="J39" t="s">
+        <v>321</v>
+      </c>
+      <c r="K39" t="s">
+        <v>20</v>
+      </c>
+      <c r="L39" t="s">
+        <v>287</v>
+      </c>
+      <c r="M39" t="s">
+        <v>34</v>
+      </c>
+      <c r="N39" t="s">
+        <v>284</v>
+      </c>
+      <c r="O39" t="s">
         <v>288</v>
       </c>
-      <c r="H39" t="s">
-        <v>25</v>
-      </c>
-      <c r="I39" t="s">
-        <v>286</v>
-      </c>
-      <c r="J39" t="s">
-        <v>100</v>
-      </c>
-      <c r="K39" t="s">
-        <v>324</v>
-      </c>
-      <c r="L39" t="s">
-        <v>20</v>
-      </c>
-      <c r="M39" t="s">
-        <v>289</v>
-      </c>
-      <c r="N39" t="s">
-        <v>290</v>
-      </c>
-      <c r="O39" t="s">
-        <v>34</v>
-      </c>
       <c r="P39" t="s">
-        <v>286</v>
+        <v>437</v>
       </c>
       <c r="Q39" t="s">
-        <v>291</v>
+        <v>25</v>
       </c>
       <c r="R39" t="s">
-        <v>440</v>
+        <v>438</v>
       </c>
       <c r="S39" t="s">
-        <v>25</v>
+        <v>439</v>
       </c>
       <c r="T39" t="s">
-        <v>441</v>
-      </c>
-      <c r="U39" t="s">
-        <v>442</v>
-      </c>
-      <c r="V39" t="s">
         <v>26</v>
       </c>
     </row>
@@ -9308,13 +9063,13 @@
         <v>21</v>
       </c>
       <c r="B40" t="s">
-        <v>324</v>
+        <v>321</v>
       </c>
       <c r="C40" t="s">
-        <v>286</v>
+        <v>284</v>
       </c>
       <c r="D40" t="s">
-        <v>443</v>
+        <v>440</v>
       </c>
       <c r="E40" t="s">
         <v>27</v>
@@ -9323,51 +9078,45 @@
         <v>18</v>
       </c>
       <c r="G40" t="s">
+        <v>286</v>
+      </c>
+      <c r="H40" t="s">
+        <v>25</v>
+      </c>
+      <c r="I40" t="s">
+        <v>102</v>
+      </c>
+      <c r="J40" t="s">
+        <v>321</v>
+      </c>
+      <c r="K40" t="s">
+        <v>20</v>
+      </c>
+      <c r="L40" t="s">
+        <v>287</v>
+      </c>
+      <c r="M40" t="s">
+        <v>34</v>
+      </c>
+      <c r="N40" t="s">
+        <v>284</v>
+      </c>
+      <c r="O40" t="s">
         <v>288</v>
       </c>
-      <c r="H40" t="s">
-        <v>25</v>
-      </c>
-      <c r="I40" t="s">
-        <v>286</v>
-      </c>
-      <c r="J40" t="s">
-        <v>102</v>
-      </c>
-      <c r="K40" t="s">
-        <v>324</v>
-      </c>
-      <c r="L40" t="s">
-        <v>20</v>
-      </c>
-      <c r="M40" t="s">
-        <v>289</v>
-      </c>
-      <c r="N40" t="s">
-        <v>290</v>
-      </c>
-      <c r="O40" t="s">
-        <v>34</v>
-      </c>
       <c r="P40" t="s">
-        <v>286</v>
+        <v>441</v>
       </c>
       <c r="Q40" t="s">
-        <v>291</v>
+        <v>25</v>
       </c>
       <c r="R40" t="s">
-        <v>444</v>
+        <v>442</v>
       </c>
       <c r="S40" t="s">
-        <v>25</v>
+        <v>443</v>
       </c>
       <c r="T40" t="s">
-        <v>445</v>
-      </c>
-      <c r="U40" t="s">
-        <v>446</v>
-      </c>
-      <c r="V40" t="s">
         <v>26</v>
       </c>
     </row>
@@ -9376,13 +9125,13 @@
         <v>21</v>
       </c>
       <c r="B41" t="s">
-        <v>324</v>
+        <v>321</v>
       </c>
       <c r="C41" t="s">
-        <v>286</v>
+        <v>284</v>
       </c>
       <c r="D41" t="s">
-        <v>447</v>
+        <v>444</v>
       </c>
       <c r="E41" t="s">
         <v>27</v>
@@ -9391,51 +9140,45 @@
         <v>18</v>
       </c>
       <c r="G41" t="s">
+        <v>286</v>
+      </c>
+      <c r="H41" t="s">
+        <v>25</v>
+      </c>
+      <c r="I41" t="s">
+        <v>104</v>
+      </c>
+      <c r="J41" t="s">
+        <v>321</v>
+      </c>
+      <c r="K41" t="s">
+        <v>20</v>
+      </c>
+      <c r="L41" t="s">
+        <v>287</v>
+      </c>
+      <c r="M41" t="s">
+        <v>34</v>
+      </c>
+      <c r="N41" t="s">
+        <v>284</v>
+      </c>
+      <c r="O41" t="s">
         <v>288</v>
       </c>
-      <c r="H41" t="s">
-        <v>25</v>
-      </c>
-      <c r="I41" t="s">
-        <v>286</v>
-      </c>
-      <c r="J41" t="s">
-        <v>104</v>
-      </c>
-      <c r="K41" t="s">
-        <v>324</v>
-      </c>
-      <c r="L41" t="s">
-        <v>20</v>
-      </c>
-      <c r="M41" t="s">
-        <v>289</v>
-      </c>
-      <c r="N41" t="s">
-        <v>290</v>
-      </c>
-      <c r="O41" t="s">
-        <v>34</v>
-      </c>
       <c r="P41" t="s">
-        <v>286</v>
+        <v>445</v>
       </c>
       <c r="Q41" t="s">
-        <v>291</v>
+        <v>25</v>
       </c>
       <c r="R41" t="s">
-        <v>448</v>
+        <v>446</v>
       </c>
       <c r="S41" t="s">
-        <v>25</v>
+        <v>447</v>
       </c>
       <c r="T41" t="s">
-        <v>449</v>
-      </c>
-      <c r="U41" t="s">
-        <v>450</v>
-      </c>
-      <c r="V41" t="s">
         <v>26</v>
       </c>
     </row>
@@ -9444,13 +9187,13 @@
         <v>21</v>
       </c>
       <c r="B42" t="s">
-        <v>324</v>
+        <v>321</v>
       </c>
       <c r="C42" t="s">
-        <v>286</v>
+        <v>284</v>
       </c>
       <c r="D42" t="s">
-        <v>451</v>
+        <v>448</v>
       </c>
       <c r="E42" t="s">
         <v>27</v>
@@ -9459,51 +9202,45 @@
         <v>18</v>
       </c>
       <c r="G42" t="s">
+        <v>286</v>
+      </c>
+      <c r="H42" t="s">
+        <v>25</v>
+      </c>
+      <c r="I42" t="s">
+        <v>106</v>
+      </c>
+      <c r="J42" t="s">
+        <v>321</v>
+      </c>
+      <c r="K42" t="s">
+        <v>20</v>
+      </c>
+      <c r="L42" t="s">
+        <v>287</v>
+      </c>
+      <c r="M42" t="s">
+        <v>34</v>
+      </c>
+      <c r="N42" t="s">
+        <v>284</v>
+      </c>
+      <c r="O42" t="s">
         <v>288</v>
       </c>
-      <c r="H42" t="s">
-        <v>25</v>
-      </c>
-      <c r="I42" t="s">
-        <v>286</v>
-      </c>
-      <c r="J42" t="s">
-        <v>106</v>
-      </c>
-      <c r="K42" t="s">
-        <v>324</v>
-      </c>
-      <c r="L42" t="s">
-        <v>20</v>
-      </c>
-      <c r="M42" t="s">
-        <v>289</v>
-      </c>
-      <c r="N42" t="s">
-        <v>290</v>
-      </c>
-      <c r="O42" t="s">
-        <v>34</v>
-      </c>
       <c r="P42" t="s">
-        <v>286</v>
+        <v>449</v>
       </c>
       <c r="Q42" t="s">
-        <v>291</v>
+        <v>25</v>
       </c>
       <c r="R42" t="s">
-        <v>452</v>
+        <v>450</v>
       </c>
       <c r="S42" t="s">
-        <v>25</v>
+        <v>451</v>
       </c>
       <c r="T42" t="s">
-        <v>453</v>
-      </c>
-      <c r="U42" t="s">
-        <v>454</v>
-      </c>
-      <c r="V42" t="s">
         <v>26</v>
       </c>
     </row>
@@ -9512,13 +9249,13 @@
         <v>21</v>
       </c>
       <c r="B43" t="s">
-        <v>324</v>
+        <v>321</v>
       </c>
       <c r="C43" t="s">
-        <v>286</v>
+        <v>284</v>
       </c>
       <c r="D43" t="s">
-        <v>455</v>
+        <v>452</v>
       </c>
       <c r="E43" t="s">
         <v>27</v>
@@ -9527,51 +9264,45 @@
         <v>52</v>
       </c>
       <c r="G43" t="s">
-        <v>288</v>
+        <v>286</v>
       </c>
       <c r="H43" t="s">
         <v>55</v>
       </c>
       <c r="I43" t="s">
-        <v>286</v>
+        <v>108</v>
       </c>
       <c r="J43" t="s">
-        <v>108</v>
+        <v>321</v>
       </c>
       <c r="K43" t="s">
-        <v>324</v>
+        <v>20</v>
       </c>
       <c r="L43" t="s">
-        <v>20</v>
+        <v>287</v>
       </c>
       <c r="M43" t="s">
-        <v>289</v>
+        <v>34</v>
       </c>
       <c r="N43" t="s">
-        <v>290</v>
+        <v>284</v>
       </c>
       <c r="O43" t="s">
-        <v>34</v>
+        <v>288</v>
       </c>
       <c r="P43" t="s">
-        <v>286</v>
+        <v>453</v>
       </c>
       <c r="Q43" t="s">
-        <v>291</v>
+        <v>55</v>
       </c>
       <c r="R43" t="s">
-        <v>456</v>
+        <v>454</v>
       </c>
       <c r="S43" t="s">
-        <v>55</v>
+        <v>455</v>
       </c>
       <c r="T43" t="s">
-        <v>457</v>
-      </c>
-      <c r="U43" t="s">
-        <v>458</v>
-      </c>
-      <c r="V43" t="s">
         <v>26</v>
       </c>
     </row>
@@ -9580,13 +9311,13 @@
         <v>21</v>
       </c>
       <c r="B44" t="s">
-        <v>324</v>
+        <v>321</v>
       </c>
       <c r="C44" t="s">
-        <v>286</v>
+        <v>284</v>
       </c>
       <c r="D44" t="s">
-        <v>459</v>
+        <v>456</v>
       </c>
       <c r="E44" t="s">
         <v>27</v>
@@ -9595,51 +9326,45 @@
         <v>52</v>
       </c>
       <c r="G44" t="s">
-        <v>288</v>
+        <v>286</v>
       </c>
       <c r="H44" t="s">
         <v>55</v>
       </c>
       <c r="I44" t="s">
-        <v>286</v>
+        <v>110</v>
       </c>
       <c r="J44" t="s">
-        <v>110</v>
+        <v>321</v>
       </c>
       <c r="K44" t="s">
-        <v>324</v>
+        <v>20</v>
       </c>
       <c r="L44" t="s">
-        <v>20</v>
+        <v>287</v>
       </c>
       <c r="M44" t="s">
-        <v>289</v>
+        <v>34</v>
       </c>
       <c r="N44" t="s">
-        <v>290</v>
+        <v>284</v>
       </c>
       <c r="O44" t="s">
-        <v>34</v>
+        <v>288</v>
       </c>
       <c r="P44" t="s">
-        <v>286</v>
+        <v>457</v>
       </c>
       <c r="Q44" t="s">
-        <v>291</v>
+        <v>55</v>
       </c>
       <c r="R44" t="s">
-        <v>460</v>
+        <v>458</v>
       </c>
       <c r="S44" t="s">
-        <v>55</v>
+        <v>459</v>
       </c>
       <c r="T44" t="s">
-        <v>461</v>
-      </c>
-      <c r="U44" t="s">
-        <v>462</v>
-      </c>
-      <c r="V44" t="s">
         <v>26</v>
       </c>
     </row>
@@ -9648,13 +9373,13 @@
         <v>42</v>
       </c>
       <c r="B45" t="s">
-        <v>463</v>
+        <v>460</v>
       </c>
       <c r="C45" t="s">
-        <v>286</v>
+        <v>284</v>
       </c>
       <c r="D45" t="s">
-        <v>459</v>
+        <v>456</v>
       </c>
       <c r="E45" t="s">
         <v>27</v>
@@ -9663,51 +9388,45 @@
         <v>40</v>
       </c>
       <c r="G45" t="s">
-        <v>288</v>
+        <v>286</v>
       </c>
       <c r="H45" t="s">
         <v>113</v>
       </c>
       <c r="I45" t="s">
-        <v>286</v>
+        <v>112</v>
       </c>
       <c r="J45" t="s">
-        <v>112</v>
+        <v>321</v>
       </c>
       <c r="K45" t="s">
-        <v>324</v>
+        <v>20</v>
       </c>
       <c r="L45" t="s">
-        <v>20</v>
+        <v>323</v>
       </c>
       <c r="M45" t="s">
-        <v>289</v>
+        <v>34</v>
       </c>
       <c r="N45" t="s">
-        <v>326</v>
+        <v>461</v>
       </c>
       <c r="O45" t="s">
-        <v>34</v>
+        <v>288</v>
       </c>
       <c r="P45" t="s">
-        <v>464</v>
+        <v>457</v>
       </c>
       <c r="Q45" t="s">
-        <v>291</v>
+        <v>113</v>
       </c>
       <c r="R45" t="s">
-        <v>460</v>
+        <v>462</v>
       </c>
       <c r="S45" t="s">
-        <v>113</v>
+        <v>459</v>
       </c>
       <c r="T45" t="s">
-        <v>465</v>
-      </c>
-      <c r="U45" t="s">
-        <v>462</v>
-      </c>
-      <c r="V45" t="s">
         <v>26</v>
       </c>
     </row>
@@ -9716,13 +9435,13 @@
         <v>21</v>
       </c>
       <c r="B46" t="s">
-        <v>324</v>
+        <v>321</v>
       </c>
       <c r="C46" t="s">
-        <v>286</v>
+        <v>284</v>
       </c>
       <c r="D46" t="s">
-        <v>466</v>
+        <v>463</v>
       </c>
       <c r="E46" t="s">
         <v>27</v>
@@ -9731,51 +9450,45 @@
         <v>32</v>
       </c>
       <c r="G46" t="s">
+        <v>286</v>
+      </c>
+      <c r="H46" t="s">
+        <v>25</v>
+      </c>
+      <c r="I46" t="s">
+        <v>114</v>
+      </c>
+      <c r="J46" t="s">
+        <v>321</v>
+      </c>
+      <c r="K46" t="s">
+        <v>20</v>
+      </c>
+      <c r="L46" t="s">
+        <v>287</v>
+      </c>
+      <c r="M46" t="s">
+        <v>34</v>
+      </c>
+      <c r="N46" t="s">
+        <v>284</v>
+      </c>
+      <c r="O46" t="s">
         <v>288</v>
       </c>
-      <c r="H46" t="s">
-        <v>25</v>
-      </c>
-      <c r="I46" t="s">
-        <v>286</v>
-      </c>
-      <c r="J46" t="s">
-        <v>114</v>
-      </c>
-      <c r="K46" t="s">
-        <v>324</v>
-      </c>
-      <c r="L46" t="s">
-        <v>20</v>
-      </c>
-      <c r="M46" t="s">
-        <v>289</v>
-      </c>
-      <c r="N46" t="s">
-        <v>290</v>
-      </c>
-      <c r="O46" t="s">
-        <v>34</v>
-      </c>
       <c r="P46" t="s">
-        <v>286</v>
+        <v>464</v>
       </c>
       <c r="Q46" t="s">
-        <v>291</v>
+        <v>25</v>
       </c>
       <c r="R46" t="s">
-        <v>467</v>
+        <v>465</v>
       </c>
       <c r="S46" t="s">
-        <v>25</v>
+        <v>466</v>
       </c>
       <c r="T46" t="s">
-        <v>468</v>
-      </c>
-      <c r="U46" t="s">
-        <v>469</v>
-      </c>
-      <c r="V46" t="s">
         <v>26</v>
       </c>
     </row>
@@ -9784,13 +9497,13 @@
         <v>21</v>
       </c>
       <c r="B47" t="s">
-        <v>324</v>
+        <v>321</v>
       </c>
       <c r="C47" t="s">
-        <v>286</v>
+        <v>284</v>
       </c>
       <c r="D47" t="s">
-        <v>470</v>
+        <v>467</v>
       </c>
       <c r="E47" t="s">
         <v>27</v>
@@ -9799,51 +9512,45 @@
         <v>32</v>
       </c>
       <c r="G47" t="s">
+        <v>286</v>
+      </c>
+      <c r="H47" t="s">
+        <v>25</v>
+      </c>
+      <c r="I47" t="s">
+        <v>116</v>
+      </c>
+      <c r="J47" t="s">
+        <v>321</v>
+      </c>
+      <c r="K47" t="s">
+        <v>20</v>
+      </c>
+      <c r="L47" t="s">
+        <v>287</v>
+      </c>
+      <c r="M47" t="s">
+        <v>34</v>
+      </c>
+      <c r="N47" t="s">
+        <v>284</v>
+      </c>
+      <c r="O47" t="s">
         <v>288</v>
       </c>
-      <c r="H47" t="s">
-        <v>25</v>
-      </c>
-      <c r="I47" t="s">
-        <v>286</v>
-      </c>
-      <c r="J47" t="s">
-        <v>116</v>
-      </c>
-      <c r="K47" t="s">
-        <v>324</v>
-      </c>
-      <c r="L47" t="s">
-        <v>20</v>
-      </c>
-      <c r="M47" t="s">
-        <v>289</v>
-      </c>
-      <c r="N47" t="s">
-        <v>290</v>
-      </c>
-      <c r="O47" t="s">
-        <v>34</v>
-      </c>
       <c r="P47" t="s">
-        <v>286</v>
+        <v>468</v>
       </c>
       <c r="Q47" t="s">
-        <v>291</v>
+        <v>25</v>
       </c>
       <c r="R47" t="s">
-        <v>471</v>
+        <v>469</v>
       </c>
       <c r="S47" t="s">
-        <v>25</v>
+        <v>470</v>
       </c>
       <c r="T47" t="s">
-        <v>472</v>
-      </c>
-      <c r="U47" t="s">
-        <v>473</v>
-      </c>
-      <c r="V47" t="s">
         <v>26</v>
       </c>
     </row>
@@ -9852,13 +9559,13 @@
         <v>21</v>
       </c>
       <c r="B48" t="s">
-        <v>324</v>
+        <v>321</v>
       </c>
       <c r="C48" t="s">
-        <v>286</v>
+        <v>284</v>
       </c>
       <c r="D48" t="s">
-        <v>474</v>
+        <v>471</v>
       </c>
       <c r="E48" t="s">
         <v>27</v>
@@ -9867,51 +9574,45 @@
         <v>18</v>
       </c>
       <c r="G48" t="s">
+        <v>286</v>
+      </c>
+      <c r="H48" t="s">
+        <v>25</v>
+      </c>
+      <c r="I48" t="s">
+        <v>118</v>
+      </c>
+      <c r="J48" t="s">
+        <v>321</v>
+      </c>
+      <c r="K48" t="s">
+        <v>20</v>
+      </c>
+      <c r="L48" t="s">
+        <v>287</v>
+      </c>
+      <c r="M48" t="s">
+        <v>34</v>
+      </c>
+      <c r="N48" t="s">
+        <v>284</v>
+      </c>
+      <c r="O48" t="s">
         <v>288</v>
       </c>
-      <c r="H48" t="s">
-        <v>25</v>
-      </c>
-      <c r="I48" t="s">
-        <v>286</v>
-      </c>
-      <c r="J48" t="s">
-        <v>118</v>
-      </c>
-      <c r="K48" t="s">
-        <v>324</v>
-      </c>
-      <c r="L48" t="s">
-        <v>20</v>
-      </c>
-      <c r="M48" t="s">
-        <v>289</v>
-      </c>
-      <c r="N48" t="s">
-        <v>290</v>
-      </c>
-      <c r="O48" t="s">
-        <v>34</v>
-      </c>
       <c r="P48" t="s">
-        <v>286</v>
+        <v>472</v>
       </c>
       <c r="Q48" t="s">
-        <v>291</v>
+        <v>25</v>
       </c>
       <c r="R48" t="s">
-        <v>475</v>
+        <v>473</v>
       </c>
       <c r="S48" t="s">
-        <v>25</v>
+        <v>474</v>
       </c>
       <c r="T48" t="s">
-        <v>476</v>
-      </c>
-      <c r="U48" t="s">
-        <v>477</v>
-      </c>
-      <c r="V48" t="s">
         <v>26</v>
       </c>
     </row>
@@ -9920,13 +9621,13 @@
         <v>21</v>
       </c>
       <c r="B49" t="s">
-        <v>324</v>
+        <v>321</v>
       </c>
       <c r="C49" t="s">
-        <v>286</v>
+        <v>284</v>
       </c>
       <c r="D49" t="s">
-        <v>478</v>
+        <v>475</v>
       </c>
       <c r="E49" t="s">
         <v>27</v>
@@ -9935,51 +9636,45 @@
         <v>18</v>
       </c>
       <c r="G49" t="s">
+        <v>286</v>
+      </c>
+      <c r="H49" t="s">
+        <v>25</v>
+      </c>
+      <c r="I49" t="s">
+        <v>120</v>
+      </c>
+      <c r="J49" t="s">
+        <v>321</v>
+      </c>
+      <c r="K49" t="s">
+        <v>20</v>
+      </c>
+      <c r="L49" t="s">
+        <v>287</v>
+      </c>
+      <c r="M49" t="s">
+        <v>34</v>
+      </c>
+      <c r="N49" t="s">
+        <v>284</v>
+      </c>
+      <c r="O49" t="s">
         <v>288</v>
       </c>
-      <c r="H49" t="s">
-        <v>25</v>
-      </c>
-      <c r="I49" t="s">
-        <v>286</v>
-      </c>
-      <c r="J49" t="s">
-        <v>120</v>
-      </c>
-      <c r="K49" t="s">
-        <v>324</v>
-      </c>
-      <c r="L49" t="s">
-        <v>20</v>
-      </c>
-      <c r="M49" t="s">
-        <v>289</v>
-      </c>
-      <c r="N49" t="s">
-        <v>290</v>
-      </c>
-      <c r="O49" t="s">
-        <v>34</v>
-      </c>
       <c r="P49" t="s">
-        <v>286</v>
+        <v>476</v>
       </c>
       <c r="Q49" t="s">
-        <v>291</v>
+        <v>25</v>
       </c>
       <c r="R49" t="s">
-        <v>479</v>
+        <v>477</v>
       </c>
       <c r="S49" t="s">
-        <v>25</v>
+        <v>478</v>
       </c>
       <c r="T49" t="s">
-        <v>480</v>
-      </c>
-      <c r="U49" t="s">
-        <v>481</v>
-      </c>
-      <c r="V49" t="s">
         <v>26</v>
       </c>
     </row>
@@ -9988,13 +9683,13 @@
         <v>21</v>
       </c>
       <c r="B50" t="s">
-        <v>482</v>
+        <v>479</v>
       </c>
       <c r="C50" t="s">
-        <v>286</v>
+        <v>284</v>
       </c>
       <c r="D50" t="s">
-        <v>483</v>
+        <v>480</v>
       </c>
       <c r="E50" t="s">
         <v>27</v>
@@ -10003,51 +9698,45 @@
         <v>18</v>
       </c>
       <c r="G50" t="s">
+        <v>286</v>
+      </c>
+      <c r="H50" t="s">
+        <v>25</v>
+      </c>
+      <c r="I50" t="s">
+        <v>106</v>
+      </c>
+      <c r="J50" t="s">
+        <v>479</v>
+      </c>
+      <c r="K50" t="s">
+        <v>20</v>
+      </c>
+      <c r="L50" t="s">
+        <v>287</v>
+      </c>
+      <c r="M50" t="s">
+        <v>122</v>
+      </c>
+      <c r="N50" t="s">
+        <v>284</v>
+      </c>
+      <c r="O50" t="s">
         <v>288</v>
       </c>
-      <c r="H50" t="s">
-        <v>25</v>
-      </c>
-      <c r="I50" t="s">
-        <v>286</v>
-      </c>
-      <c r="J50" t="s">
-        <v>106</v>
-      </c>
-      <c r="K50" t="s">
+      <c r="P50" t="s">
+        <v>481</v>
+      </c>
+      <c r="Q50" t="s">
+        <v>25</v>
+      </c>
+      <c r="R50" t="s">
         <v>482</v>
       </c>
-      <c r="L50" t="s">
-        <v>20</v>
-      </c>
-      <c r="M50" t="s">
-        <v>289</v>
-      </c>
-      <c r="N50" t="s">
-        <v>290</v>
-      </c>
-      <c r="O50" t="s">
-        <v>122</v>
-      </c>
-      <c r="P50" t="s">
-        <v>286</v>
-      </c>
-      <c r="Q50" t="s">
-        <v>291</v>
-      </c>
-      <c r="R50" t="s">
-        <v>484</v>
-      </c>
       <c r="S50" t="s">
-        <v>25</v>
+        <v>483</v>
       </c>
       <c r="T50" t="s">
-        <v>485</v>
-      </c>
-      <c r="U50" t="s">
-        <v>486</v>
-      </c>
-      <c r="V50" t="s">
         <v>26</v>
       </c>
     </row>
@@ -10056,13 +9745,13 @@
         <v>21</v>
       </c>
       <c r="B51" t="s">
-        <v>482</v>
+        <v>479</v>
       </c>
       <c r="C51" t="s">
-        <v>286</v>
+        <v>284</v>
       </c>
       <c r="D51" t="s">
-        <v>487</v>
+        <v>484</v>
       </c>
       <c r="E51" t="s">
         <v>27</v>
@@ -10071,51 +9760,45 @@
         <v>52</v>
       </c>
       <c r="G51" t="s">
-        <v>288</v>
+        <v>286</v>
       </c>
       <c r="H51" t="s">
         <v>55</v>
       </c>
       <c r="I51" t="s">
-        <v>286</v>
+        <v>88</v>
       </c>
       <c r="J51" t="s">
-        <v>88</v>
+        <v>479</v>
       </c>
       <c r="K51" t="s">
-        <v>482</v>
+        <v>20</v>
       </c>
       <c r="L51" t="s">
-        <v>20</v>
+        <v>287</v>
       </c>
       <c r="M51" t="s">
-        <v>289</v>
+        <v>124</v>
       </c>
       <c r="N51" t="s">
-        <v>290</v>
+        <v>284</v>
       </c>
       <c r="O51" t="s">
-        <v>124</v>
+        <v>288</v>
       </c>
       <c r="P51" t="s">
-        <v>286</v>
+        <v>485</v>
       </c>
       <c r="Q51" t="s">
-        <v>291</v>
+        <v>55</v>
       </c>
       <c r="R51" t="s">
-        <v>488</v>
+        <v>486</v>
       </c>
       <c r="S51" t="s">
-        <v>55</v>
+        <v>487</v>
       </c>
       <c r="T51" t="s">
-        <v>489</v>
-      </c>
-      <c r="U51" t="s">
-        <v>490</v>
-      </c>
-      <c r="V51" t="s">
         <v>26</v>
       </c>
     </row>
@@ -10124,13 +9807,13 @@
         <v>42</v>
       </c>
       <c r="B52" t="s">
-        <v>482</v>
+        <v>479</v>
       </c>
       <c r="C52" t="s">
-        <v>286</v>
+        <v>284</v>
       </c>
       <c r="D52" t="s">
-        <v>491</v>
+        <v>488</v>
       </c>
       <c r="E52" t="s">
         <v>27</v>
@@ -10139,51 +9822,45 @@
         <v>40</v>
       </c>
       <c r="G52" t="s">
-        <v>288</v>
+        <v>286</v>
       </c>
       <c r="H52" t="s">
         <v>128</v>
       </c>
       <c r="I52" t="s">
-        <v>286</v>
+        <v>126</v>
       </c>
       <c r="J52" t="s">
-        <v>126</v>
+        <v>479</v>
       </c>
       <c r="K52" t="s">
-        <v>482</v>
+        <v>20</v>
       </c>
       <c r="L52" t="s">
-        <v>20</v>
+        <v>323</v>
       </c>
       <c r="M52" t="s">
-        <v>289</v>
+        <v>124</v>
       </c>
       <c r="N52" t="s">
-        <v>326</v>
+        <v>489</v>
       </c>
       <c r="O52" t="s">
-        <v>124</v>
+        <v>288</v>
       </c>
       <c r="P52" t="s">
+        <v>490</v>
+      </c>
+      <c r="Q52" t="s">
+        <v>128</v>
+      </c>
+      <c r="R52" t="s">
+        <v>491</v>
+      </c>
+      <c r="S52" t="s">
         <v>492</v>
       </c>
-      <c r="Q52" t="s">
-        <v>291</v>
-      </c>
-      <c r="R52" t="s">
-        <v>493</v>
-      </c>
-      <c r="S52" t="s">
-        <v>128</v>
-      </c>
       <c r="T52" t="s">
-        <v>494</v>
-      </c>
-      <c r="U52" t="s">
-        <v>495</v>
-      </c>
-      <c r="V52" t="s">
         <v>26</v>
       </c>
     </row>
@@ -10192,13 +9869,13 @@
         <v>131</v>
       </c>
       <c r="B53" t="s">
-        <v>496</v>
+        <v>493</v>
       </c>
       <c r="C53" t="s">
-        <v>286</v>
+        <v>284</v>
       </c>
       <c r="D53" t="s">
-        <v>325</v>
+        <v>322</v>
       </c>
       <c r="E53" t="s">
         <v>27</v>
@@ -10207,51 +9884,45 @@
         <v>129</v>
       </c>
       <c r="G53" t="s">
-        <v>288</v>
+        <v>286</v>
       </c>
       <c r="H53" t="s">
         <v>132</v>
       </c>
       <c r="I53" t="s">
-        <v>286</v>
+        <v>130</v>
       </c>
       <c r="J53" t="s">
-        <v>130</v>
+        <v>493</v>
       </c>
       <c r="K53" t="s">
-        <v>496</v>
+        <v>20</v>
       </c>
       <c r="L53" t="s">
-        <v>20</v>
+        <v>287</v>
       </c>
       <c r="M53" t="s">
-        <v>289</v>
+        <v>43</v>
       </c>
       <c r="N53" t="s">
-        <v>290</v>
+        <v>284</v>
       </c>
       <c r="O53" t="s">
-        <v>43</v>
+        <v>288</v>
       </c>
       <c r="P53" t="s">
-        <v>286</v>
+        <v>325</v>
       </c>
       <c r="Q53" t="s">
-        <v>291</v>
+        <v>132</v>
       </c>
       <c r="R53" t="s">
-        <v>328</v>
+        <v>494</v>
       </c>
       <c r="S53" t="s">
-        <v>132</v>
+        <v>327</v>
       </c>
       <c r="T53" t="s">
-        <v>497</v>
-      </c>
-      <c r="U53" t="s">
-        <v>330</v>
-      </c>
-      <c r="V53" t="s">
         <v>26</v>
       </c>
     </row>
@@ -10260,13 +9931,13 @@
         <v>21</v>
       </c>
       <c r="B54" t="s">
-        <v>496</v>
+        <v>493</v>
       </c>
       <c r="C54" t="s">
-        <v>286</v>
+        <v>284</v>
       </c>
       <c r="D54" t="s">
-        <v>498</v>
+        <v>495</v>
       </c>
       <c r="E54" t="s">
         <v>27</v>
@@ -10275,51 +9946,45 @@
         <v>32</v>
       </c>
       <c r="G54" t="s">
+        <v>286</v>
+      </c>
+      <c r="H54" t="s">
+        <v>25</v>
+      </c>
+      <c r="I54" t="s">
+        <v>133</v>
+      </c>
+      <c r="J54" t="s">
+        <v>493</v>
+      </c>
+      <c r="K54" t="s">
+        <v>20</v>
+      </c>
+      <c r="L54" t="s">
+        <v>287</v>
+      </c>
+      <c r="M54" t="s">
+        <v>122</v>
+      </c>
+      <c r="N54" t="s">
+        <v>284</v>
+      </c>
+      <c r="O54" t="s">
         <v>288</v>
       </c>
-      <c r="H54" t="s">
-        <v>25</v>
-      </c>
-      <c r="I54" t="s">
-        <v>286</v>
-      </c>
-      <c r="J54" t="s">
-        <v>133</v>
-      </c>
-      <c r="K54" t="s">
+      <c r="P54" t="s">
         <v>496</v>
       </c>
-      <c r="L54" t="s">
-        <v>20</v>
-      </c>
-      <c r="M54" t="s">
-        <v>289</v>
-      </c>
-      <c r="N54" t="s">
-        <v>290</v>
-      </c>
-      <c r="O54" t="s">
-        <v>122</v>
-      </c>
-      <c r="P54" t="s">
-        <v>286</v>
-      </c>
       <c r="Q54" t="s">
-        <v>291</v>
+        <v>25</v>
       </c>
       <c r="R54" t="s">
-        <v>499</v>
+        <v>497</v>
       </c>
       <c r="S54" t="s">
-        <v>25</v>
+        <v>498</v>
       </c>
       <c r="T54" t="s">
-        <v>500</v>
-      </c>
-      <c r="U54" t="s">
-        <v>501</v>
-      </c>
-      <c r="V54" t="s">
         <v>26</v>
       </c>
     </row>
@@ -10328,13 +9993,13 @@
         <v>21</v>
       </c>
       <c r="B55" t="s">
-        <v>502</v>
+        <v>499</v>
       </c>
       <c r="C55" t="s">
-        <v>286</v>
+        <v>284</v>
       </c>
       <c r="D55" t="s">
-        <v>503</v>
+        <v>500</v>
       </c>
       <c r="E55" t="s">
         <v>27</v>
@@ -10343,51 +10008,45 @@
         <v>18</v>
       </c>
       <c r="G55" t="s">
+        <v>286</v>
+      </c>
+      <c r="H55" t="s">
+        <v>25</v>
+      </c>
+      <c r="I55" t="s">
+        <v>135</v>
+      </c>
+      <c r="J55" t="s">
+        <v>499</v>
+      </c>
+      <c r="K55" t="s">
+        <v>20</v>
+      </c>
+      <c r="L55" t="s">
+        <v>287</v>
+      </c>
+      <c r="M55" t="s">
+        <v>23</v>
+      </c>
+      <c r="N55" t="s">
+        <v>284</v>
+      </c>
+      <c r="O55" t="s">
         <v>288</v>
       </c>
-      <c r="H55" t="s">
-        <v>25</v>
-      </c>
-      <c r="I55" t="s">
-        <v>286</v>
-      </c>
-      <c r="J55" t="s">
-        <v>135</v>
-      </c>
-      <c r="K55" t="s">
+      <c r="P55" t="s">
+        <v>501</v>
+      </c>
+      <c r="Q55" t="s">
+        <v>25</v>
+      </c>
+      <c r="R55" t="s">
         <v>502</v>
       </c>
-      <c r="L55" t="s">
-        <v>20</v>
-      </c>
-      <c r="M55" t="s">
-        <v>289</v>
-      </c>
-      <c r="N55" t="s">
-        <v>290</v>
-      </c>
-      <c r="O55" t="s">
-        <v>23</v>
-      </c>
-      <c r="P55" t="s">
-        <v>286</v>
-      </c>
-      <c r="Q55" t="s">
-        <v>291</v>
-      </c>
-      <c r="R55" t="s">
-        <v>504</v>
-      </c>
       <c r="S55" t="s">
-        <v>25</v>
+        <v>503</v>
       </c>
       <c r="T55" t="s">
-        <v>505</v>
-      </c>
-      <c r="U55" t="s">
-        <v>506</v>
-      </c>
-      <c r="V55" t="s">
         <v>26</v>
       </c>
     </row>
@@ -10396,13 +10055,13 @@
         <v>21</v>
       </c>
       <c r="B56" t="s">
-        <v>502</v>
+        <v>499</v>
       </c>
       <c r="C56" t="s">
-        <v>286</v>
+        <v>284</v>
       </c>
       <c r="D56" t="s">
-        <v>507</v>
+        <v>504</v>
       </c>
       <c r="E56" t="s">
         <v>27</v>
@@ -10411,51 +10070,45 @@
         <v>18</v>
       </c>
       <c r="G56" t="s">
+        <v>286</v>
+      </c>
+      <c r="H56" t="s">
+        <v>25</v>
+      </c>
+      <c r="I56" t="s">
+        <v>137</v>
+      </c>
+      <c r="J56" t="s">
+        <v>499</v>
+      </c>
+      <c r="K56" t="s">
+        <v>20</v>
+      </c>
+      <c r="L56" t="s">
+        <v>287</v>
+      </c>
+      <c r="M56" t="s">
+        <v>23</v>
+      </c>
+      <c r="N56" t="s">
+        <v>284</v>
+      </c>
+      <c r="O56" t="s">
         <v>288</v>
       </c>
-      <c r="H56" t="s">
-        <v>25</v>
-      </c>
-      <c r="I56" t="s">
-        <v>286</v>
-      </c>
-      <c r="J56" t="s">
-        <v>137</v>
-      </c>
-      <c r="K56" t="s">
-        <v>502</v>
-      </c>
-      <c r="L56" t="s">
-        <v>20</v>
-      </c>
-      <c r="M56" t="s">
-        <v>289</v>
-      </c>
-      <c r="N56" t="s">
-        <v>290</v>
-      </c>
-      <c r="O56" t="s">
-        <v>23</v>
-      </c>
       <c r="P56" t="s">
-        <v>286</v>
+        <v>505</v>
       </c>
       <c r="Q56" t="s">
-        <v>291</v>
+        <v>25</v>
       </c>
       <c r="R56" t="s">
-        <v>508</v>
+        <v>506</v>
       </c>
       <c r="S56" t="s">
-        <v>25</v>
+        <v>507</v>
       </c>
       <c r="T56" t="s">
-        <v>509</v>
-      </c>
-      <c r="U56" t="s">
-        <v>510</v>
-      </c>
-      <c r="V56" t="s">
         <v>26</v>
       </c>
     </row>
@@ -10464,13 +10117,13 @@
         <v>21</v>
       </c>
       <c r="B57" t="s">
-        <v>502</v>
+        <v>499</v>
       </c>
       <c r="C57" t="s">
-        <v>286</v>
+        <v>284</v>
       </c>
       <c r="D57" t="s">
-        <v>511</v>
+        <v>508</v>
       </c>
       <c r="E57" t="s">
         <v>27</v>
@@ -10479,51 +10132,45 @@
         <v>18</v>
       </c>
       <c r="G57" t="s">
+        <v>286</v>
+      </c>
+      <c r="H57" t="s">
+        <v>25</v>
+      </c>
+      <c r="I57" t="s">
+        <v>139</v>
+      </c>
+      <c r="J57" t="s">
+        <v>499</v>
+      </c>
+      <c r="K57" t="s">
+        <v>20</v>
+      </c>
+      <c r="L57" t="s">
+        <v>287</v>
+      </c>
+      <c r="M57" t="s">
+        <v>23</v>
+      </c>
+      <c r="N57" t="s">
+        <v>284</v>
+      </c>
+      <c r="O57" t="s">
         <v>288</v>
       </c>
-      <c r="H57" t="s">
-        <v>25</v>
-      </c>
-      <c r="I57" t="s">
-        <v>286</v>
-      </c>
-      <c r="J57" t="s">
-        <v>139</v>
-      </c>
-      <c r="K57" t="s">
-        <v>502</v>
-      </c>
-      <c r="L57" t="s">
-        <v>20</v>
-      </c>
-      <c r="M57" t="s">
-        <v>289</v>
-      </c>
-      <c r="N57" t="s">
-        <v>290</v>
-      </c>
-      <c r="O57" t="s">
-        <v>23</v>
-      </c>
       <c r="P57" t="s">
-        <v>286</v>
+        <v>509</v>
       </c>
       <c r="Q57" t="s">
-        <v>291</v>
+        <v>25</v>
       </c>
       <c r="R57" t="s">
-        <v>512</v>
+        <v>510</v>
       </c>
       <c r="S57" t="s">
-        <v>25</v>
+        <v>511</v>
       </c>
       <c r="T57" t="s">
-        <v>513</v>
-      </c>
-      <c r="U57" t="s">
-        <v>514</v>
-      </c>
-      <c r="V57" t="s">
         <v>26</v>
       </c>
     </row>
@@ -10532,13 +10179,13 @@
         <v>21</v>
       </c>
       <c r="B58" t="s">
-        <v>502</v>
+        <v>499</v>
       </c>
       <c r="C58" t="s">
-        <v>286</v>
+        <v>284</v>
       </c>
       <c r="D58" t="s">
-        <v>511</v>
+        <v>508</v>
       </c>
       <c r="E58" t="s">
         <v>27</v>
@@ -10547,51 +10194,45 @@
         <v>18</v>
       </c>
       <c r="G58" t="s">
+        <v>286</v>
+      </c>
+      <c r="H58" t="s">
+        <v>25</v>
+      </c>
+      <c r="I58" t="s">
+        <v>141</v>
+      </c>
+      <c r="J58" t="s">
+        <v>499</v>
+      </c>
+      <c r="K58" t="s">
+        <v>20</v>
+      </c>
+      <c r="L58" t="s">
+        <v>287</v>
+      </c>
+      <c r="M58" t="s">
+        <v>23</v>
+      </c>
+      <c r="N58" t="s">
+        <v>284</v>
+      </c>
+      <c r="O58" t="s">
         <v>288</v>
       </c>
-      <c r="H58" t="s">
-        <v>25</v>
-      </c>
-      <c r="I58" t="s">
-        <v>286</v>
-      </c>
-      <c r="J58" t="s">
-        <v>141</v>
-      </c>
-      <c r="K58" t="s">
-        <v>502</v>
-      </c>
-      <c r="L58" t="s">
-        <v>20</v>
-      </c>
-      <c r="M58" t="s">
-        <v>289</v>
-      </c>
-      <c r="N58" t="s">
-        <v>290</v>
-      </c>
-      <c r="O58" t="s">
-        <v>23</v>
-      </c>
       <c r="P58" t="s">
-        <v>286</v>
+        <v>512</v>
       </c>
       <c r="Q58" t="s">
-        <v>291</v>
+        <v>25</v>
       </c>
       <c r="R58" t="s">
-        <v>515</v>
+        <v>513</v>
       </c>
       <c r="S58" t="s">
-        <v>25</v>
+        <v>511</v>
       </c>
       <c r="T58" t="s">
-        <v>516</v>
-      </c>
-      <c r="U58" t="s">
-        <v>514</v>
-      </c>
-      <c r="V58" t="s">
         <v>26</v>
       </c>
     </row>
@@ -10600,13 +10241,13 @@
         <v>21</v>
       </c>
       <c r="B59" t="s">
-        <v>502</v>
+        <v>499</v>
       </c>
       <c r="C59" t="s">
-        <v>286</v>
+        <v>284</v>
       </c>
       <c r="D59" t="s">
-        <v>511</v>
+        <v>508</v>
       </c>
       <c r="E59" t="s">
         <v>27</v>
@@ -10615,51 +10256,45 @@
         <v>18</v>
       </c>
       <c r="G59" t="s">
+        <v>286</v>
+      </c>
+      <c r="H59" t="s">
+        <v>25</v>
+      </c>
+      <c r="I59" t="s">
+        <v>142</v>
+      </c>
+      <c r="J59" t="s">
+        <v>499</v>
+      </c>
+      <c r="K59" t="s">
+        <v>20</v>
+      </c>
+      <c r="L59" t="s">
+        <v>287</v>
+      </c>
+      <c r="M59" t="s">
+        <v>23</v>
+      </c>
+      <c r="N59" t="s">
+        <v>284</v>
+      </c>
+      <c r="O59" t="s">
         <v>288</v>
       </c>
-      <c r="H59" t="s">
-        <v>25</v>
-      </c>
-      <c r="I59" t="s">
-        <v>286</v>
-      </c>
-      <c r="J59" t="s">
-        <v>142</v>
-      </c>
-      <c r="K59" t="s">
-        <v>502</v>
-      </c>
-      <c r="L59" t="s">
-        <v>20</v>
-      </c>
-      <c r="M59" t="s">
-        <v>289</v>
-      </c>
-      <c r="N59" t="s">
-        <v>290</v>
-      </c>
-      <c r="O59" t="s">
-        <v>23</v>
-      </c>
       <c r="P59" t="s">
-        <v>286</v>
+        <v>514</v>
       </c>
       <c r="Q59" t="s">
-        <v>291</v>
+        <v>25</v>
       </c>
       <c r="R59" t="s">
-        <v>517</v>
+        <v>515</v>
       </c>
       <c r="S59" t="s">
-        <v>25</v>
+        <v>511</v>
       </c>
       <c r="T59" t="s">
-        <v>518</v>
-      </c>
-      <c r="U59" t="s">
-        <v>514</v>
-      </c>
-      <c r="V59" t="s">
         <v>26</v>
       </c>
     </row>
@@ -10668,13 +10303,13 @@
         <v>21</v>
       </c>
       <c r="B60" t="s">
-        <v>502</v>
+        <v>499</v>
       </c>
       <c r="C60" t="s">
-        <v>286</v>
+        <v>284</v>
       </c>
       <c r="D60" t="s">
-        <v>519</v>
+        <v>516</v>
       </c>
       <c r="E60" t="s">
         <v>27</v>
@@ -10683,51 +10318,45 @@
         <v>18</v>
       </c>
       <c r="G60" t="s">
+        <v>286</v>
+      </c>
+      <c r="H60" t="s">
+        <v>25</v>
+      </c>
+      <c r="I60" t="s">
+        <v>143</v>
+      </c>
+      <c r="J60" t="s">
+        <v>499</v>
+      </c>
+      <c r="K60" t="s">
+        <v>20</v>
+      </c>
+      <c r="L60" t="s">
+        <v>287</v>
+      </c>
+      <c r="M60" t="s">
+        <v>122</v>
+      </c>
+      <c r="N60" t="s">
+        <v>284</v>
+      </c>
+      <c r="O60" t="s">
         <v>288</v>
       </c>
-      <c r="H60" t="s">
-        <v>25</v>
-      </c>
-      <c r="I60" t="s">
-        <v>286</v>
-      </c>
-      <c r="J60" t="s">
-        <v>143</v>
-      </c>
-      <c r="K60" t="s">
-        <v>502</v>
-      </c>
-      <c r="L60" t="s">
-        <v>20</v>
-      </c>
-      <c r="M60" t="s">
-        <v>289</v>
-      </c>
-      <c r="N60" t="s">
-        <v>290</v>
-      </c>
-      <c r="O60" t="s">
-        <v>122</v>
-      </c>
       <c r="P60" t="s">
-        <v>286</v>
+        <v>517</v>
       </c>
       <c r="Q60" t="s">
-        <v>291</v>
+        <v>25</v>
       </c>
       <c r="R60" t="s">
-        <v>520</v>
+        <v>518</v>
       </c>
       <c r="S60" t="s">
-        <v>25</v>
+        <v>519</v>
       </c>
       <c r="T60" t="s">
-        <v>521</v>
-      </c>
-      <c r="U60" t="s">
-        <v>522</v>
-      </c>
-      <c r="V60" t="s">
         <v>26</v>
       </c>
     </row>
@@ -10736,13 +10365,13 @@
         <v>21</v>
       </c>
       <c r="B61" t="s">
-        <v>502</v>
+        <v>499</v>
       </c>
       <c r="C61" t="s">
-        <v>286</v>
+        <v>284</v>
       </c>
       <c r="D61" t="s">
-        <v>331</v>
+        <v>328</v>
       </c>
       <c r="E61" t="s">
         <v>27</v>
@@ -10751,51 +10380,45 @@
         <v>18</v>
       </c>
       <c r="G61" t="s">
+        <v>286</v>
+      </c>
+      <c r="H61" t="s">
+        <v>25</v>
+      </c>
+      <c r="I61" t="s">
+        <v>145</v>
+      </c>
+      <c r="J61" t="s">
+        <v>499</v>
+      </c>
+      <c r="K61" t="s">
+        <v>20</v>
+      </c>
+      <c r="L61" t="s">
+        <v>287</v>
+      </c>
+      <c r="M61" t="s">
+        <v>122</v>
+      </c>
+      <c r="N61" t="s">
+        <v>284</v>
+      </c>
+      <c r="O61" t="s">
         <v>288</v>
       </c>
-      <c r="H61" t="s">
-        <v>25</v>
-      </c>
-      <c r="I61" t="s">
-        <v>286</v>
-      </c>
-      <c r="J61" t="s">
-        <v>145</v>
-      </c>
-      <c r="K61" t="s">
-        <v>502</v>
-      </c>
-      <c r="L61" t="s">
-        <v>20</v>
-      </c>
-      <c r="M61" t="s">
-        <v>289</v>
-      </c>
-      <c r="N61" t="s">
-        <v>290</v>
-      </c>
-      <c r="O61" t="s">
-        <v>122</v>
-      </c>
       <c r="P61" t="s">
-        <v>286</v>
+        <v>520</v>
       </c>
       <c r="Q61" t="s">
-        <v>291</v>
+        <v>25</v>
       </c>
       <c r="R61" t="s">
-        <v>523</v>
+        <v>521</v>
       </c>
       <c r="S61" t="s">
-        <v>25</v>
+        <v>522</v>
       </c>
       <c r="T61" t="s">
-        <v>524</v>
-      </c>
-      <c r="U61" t="s">
-        <v>525</v>
-      </c>
-      <c r="V61" t="s">
         <v>26</v>
       </c>
     </row>
@@ -10804,13 +10427,13 @@
         <v>21</v>
       </c>
       <c r="B62" t="s">
-        <v>502</v>
+        <v>499</v>
       </c>
       <c r="C62" t="s">
-        <v>286</v>
+        <v>284</v>
       </c>
       <c r="D62" t="s">
-        <v>526</v>
+        <v>523</v>
       </c>
       <c r="E62" t="s">
         <v>27</v>
@@ -10819,51 +10442,45 @@
         <v>18</v>
       </c>
       <c r="G62" t="s">
+        <v>286</v>
+      </c>
+      <c r="H62" t="s">
+        <v>25</v>
+      </c>
+      <c r="I62" t="s">
+        <v>146</v>
+      </c>
+      <c r="J62" t="s">
+        <v>499</v>
+      </c>
+      <c r="K62" t="s">
+        <v>20</v>
+      </c>
+      <c r="L62" t="s">
+        <v>287</v>
+      </c>
+      <c r="M62" t="s">
+        <v>122</v>
+      </c>
+      <c r="N62" t="s">
+        <v>284</v>
+      </c>
+      <c r="O62" t="s">
         <v>288</v>
       </c>
-      <c r="H62" t="s">
-        <v>25</v>
-      </c>
-      <c r="I62" t="s">
-        <v>286</v>
-      </c>
-      <c r="J62" t="s">
-        <v>146</v>
-      </c>
-      <c r="K62" t="s">
-        <v>502</v>
-      </c>
-      <c r="L62" t="s">
-        <v>20</v>
-      </c>
-      <c r="M62" t="s">
-        <v>289</v>
-      </c>
-      <c r="N62" t="s">
-        <v>290</v>
-      </c>
-      <c r="O62" t="s">
-        <v>122</v>
-      </c>
       <c r="P62" t="s">
-        <v>286</v>
+        <v>524</v>
       </c>
       <c r="Q62" t="s">
-        <v>291</v>
+        <v>25</v>
       </c>
       <c r="R62" t="s">
-        <v>527</v>
+        <v>525</v>
       </c>
       <c r="S62" t="s">
-        <v>25</v>
+        <v>526</v>
       </c>
       <c r="T62" t="s">
-        <v>528</v>
-      </c>
-      <c r="U62" t="s">
-        <v>529</v>
-      </c>
-      <c r="V62" t="s">
         <v>26</v>
       </c>
     </row>
@@ -10872,13 +10489,13 @@
         <v>21</v>
       </c>
       <c r="B63" t="s">
-        <v>502</v>
+        <v>499</v>
       </c>
       <c r="C63" t="s">
-        <v>286</v>
+        <v>284</v>
       </c>
       <c r="D63" t="s">
-        <v>530</v>
+        <v>527</v>
       </c>
       <c r="E63" t="s">
         <v>27</v>
@@ -10887,51 +10504,45 @@
         <v>18</v>
       </c>
       <c r="G63" t="s">
+        <v>286</v>
+      </c>
+      <c r="H63" t="s">
+        <v>25</v>
+      </c>
+      <c r="I63" t="s">
+        <v>148</v>
+      </c>
+      <c r="J63" t="s">
+        <v>499</v>
+      </c>
+      <c r="K63" t="s">
+        <v>20</v>
+      </c>
+      <c r="L63" t="s">
+        <v>287</v>
+      </c>
+      <c r="M63" t="s">
+        <v>122</v>
+      </c>
+      <c r="N63" t="s">
+        <v>284</v>
+      </c>
+      <c r="O63" t="s">
         <v>288</v>
       </c>
-      <c r="H63" t="s">
-        <v>25</v>
-      </c>
-      <c r="I63" t="s">
-        <v>286</v>
-      </c>
-      <c r="J63" t="s">
-        <v>148</v>
-      </c>
-      <c r="K63" t="s">
-        <v>502</v>
-      </c>
-      <c r="L63" t="s">
-        <v>20</v>
-      </c>
-      <c r="M63" t="s">
-        <v>289</v>
-      </c>
-      <c r="N63" t="s">
-        <v>290</v>
-      </c>
-      <c r="O63" t="s">
-        <v>122</v>
-      </c>
       <c r="P63" t="s">
-        <v>286</v>
+        <v>528</v>
       </c>
       <c r="Q63" t="s">
-        <v>291</v>
+        <v>25</v>
       </c>
       <c r="R63" t="s">
-        <v>531</v>
+        <v>529</v>
       </c>
       <c r="S63" t="s">
-        <v>25</v>
+        <v>530</v>
       </c>
       <c r="T63" t="s">
-        <v>532</v>
-      </c>
-      <c r="U63" t="s">
-        <v>533</v>
-      </c>
-      <c r="V63" t="s">
         <v>26</v>
       </c>
     </row>
@@ -10940,13 +10551,13 @@
         <v>21</v>
       </c>
       <c r="B64" t="s">
-        <v>502</v>
+        <v>499</v>
       </c>
       <c r="C64" t="s">
-        <v>286</v>
+        <v>284</v>
       </c>
       <c r="D64" t="s">
-        <v>371</v>
+        <v>368</v>
       </c>
       <c r="E64" t="s">
         <v>27</v>
@@ -10955,51 +10566,45 @@
         <v>32</v>
       </c>
       <c r="G64" t="s">
+        <v>286</v>
+      </c>
+      <c r="H64" t="s">
+        <v>25</v>
+      </c>
+      <c r="I64" t="s">
+        <v>150</v>
+      </c>
+      <c r="J64" t="s">
+        <v>499</v>
+      </c>
+      <c r="K64" t="s">
+        <v>20</v>
+      </c>
+      <c r="L64" t="s">
+        <v>287</v>
+      </c>
+      <c r="M64" t="s">
+        <v>122</v>
+      </c>
+      <c r="N64" t="s">
+        <v>284</v>
+      </c>
+      <c r="O64" t="s">
         <v>288</v>
       </c>
-      <c r="H64" t="s">
-        <v>25</v>
-      </c>
-      <c r="I64" t="s">
-        <v>286</v>
-      </c>
-      <c r="J64" t="s">
-        <v>150</v>
-      </c>
-      <c r="K64" t="s">
-        <v>502</v>
-      </c>
-      <c r="L64" t="s">
-        <v>20</v>
-      </c>
-      <c r="M64" t="s">
-        <v>289</v>
-      </c>
-      <c r="N64" t="s">
-        <v>290</v>
-      </c>
-      <c r="O64" t="s">
-        <v>122</v>
-      </c>
       <c r="P64" t="s">
-        <v>286</v>
+        <v>531</v>
       </c>
       <c r="Q64" t="s">
-        <v>291</v>
+        <v>25</v>
       </c>
       <c r="R64" t="s">
-        <v>534</v>
+        <v>532</v>
       </c>
       <c r="S64" t="s">
-        <v>25</v>
+        <v>533</v>
       </c>
       <c r="T64" t="s">
-        <v>535</v>
-      </c>
-      <c r="U64" t="s">
-        <v>536</v>
-      </c>
-      <c r="V64" t="s">
         <v>26</v>
       </c>
     </row>
@@ -11008,13 +10613,13 @@
         <v>21</v>
       </c>
       <c r="B65" t="s">
-        <v>502</v>
+        <v>499</v>
       </c>
       <c r="C65" t="s">
-        <v>286</v>
+        <v>284</v>
       </c>
       <c r="D65" t="s">
-        <v>537</v>
+        <v>534</v>
       </c>
       <c r="E65" t="s">
         <v>27</v>
@@ -11023,51 +10628,45 @@
         <v>18</v>
       </c>
       <c r="G65" t="s">
+        <v>286</v>
+      </c>
+      <c r="H65" t="s">
+        <v>25</v>
+      </c>
+      <c r="I65" t="s">
+        <v>151</v>
+      </c>
+      <c r="J65" t="s">
+        <v>499</v>
+      </c>
+      <c r="K65" t="s">
+        <v>20</v>
+      </c>
+      <c r="L65" t="s">
+        <v>287</v>
+      </c>
+      <c r="M65" t="s">
+        <v>122</v>
+      </c>
+      <c r="N65" t="s">
+        <v>284</v>
+      </c>
+      <c r="O65" t="s">
         <v>288</v>
       </c>
-      <c r="H65" t="s">
-        <v>25</v>
-      </c>
-      <c r="I65" t="s">
-        <v>286</v>
-      </c>
-      <c r="J65" t="s">
-        <v>151</v>
-      </c>
-      <c r="K65" t="s">
-        <v>502</v>
-      </c>
-      <c r="L65" t="s">
-        <v>20</v>
-      </c>
-      <c r="M65" t="s">
-        <v>289</v>
-      </c>
-      <c r="N65" t="s">
-        <v>290</v>
-      </c>
-      <c r="O65" t="s">
-        <v>122</v>
-      </c>
       <c r="P65" t="s">
-        <v>286</v>
+        <v>535</v>
       </c>
       <c r="Q65" t="s">
-        <v>291</v>
+        <v>25</v>
       </c>
       <c r="R65" t="s">
-        <v>538</v>
+        <v>536</v>
       </c>
       <c r="S65" t="s">
-        <v>25</v>
+        <v>537</v>
       </c>
       <c r="T65" t="s">
-        <v>539</v>
-      </c>
-      <c r="U65" t="s">
-        <v>540</v>
-      </c>
-      <c r="V65" t="s">
         <v>26</v>
       </c>
     </row>
@@ -11076,13 +10675,13 @@
         <v>21</v>
       </c>
       <c r="B66" t="s">
-        <v>502</v>
+        <v>499</v>
       </c>
       <c r="C66" t="s">
-        <v>286</v>
+        <v>284</v>
       </c>
       <c r="D66" t="s">
-        <v>541</v>
+        <v>538</v>
       </c>
       <c r="E66" t="s">
         <v>27</v>
@@ -11091,51 +10690,45 @@
         <v>18</v>
       </c>
       <c r="G66" t="s">
+        <v>286</v>
+      </c>
+      <c r="H66" t="s">
+        <v>25</v>
+      </c>
+      <c r="I66" t="s">
+        <v>153</v>
+      </c>
+      <c r="J66" t="s">
+        <v>539</v>
+      </c>
+      <c r="K66" t="s">
+        <v>20</v>
+      </c>
+      <c r="L66" t="s">
+        <v>287</v>
+      </c>
+      <c r="M66" t="s">
+        <v>43</v>
+      </c>
+      <c r="N66" t="s">
+        <v>284</v>
+      </c>
+      <c r="O66" t="s">
         <v>288</v>
       </c>
-      <c r="H66" t="s">
-        <v>25</v>
-      </c>
-      <c r="I66" t="s">
-        <v>286</v>
-      </c>
-      <c r="J66" t="s">
-        <v>153</v>
-      </c>
-      <c r="K66" t="s">
+      <c r="P66" t="s">
+        <v>540</v>
+      </c>
+      <c r="Q66" t="s">
+        <v>25</v>
+      </c>
+      <c r="R66" t="s">
+        <v>541</v>
+      </c>
+      <c r="S66" t="s">
         <v>542</v>
       </c>
-      <c r="L66" t="s">
-        <v>20</v>
-      </c>
-      <c r="M66" t="s">
-        <v>289</v>
-      </c>
-      <c r="N66" t="s">
-        <v>290</v>
-      </c>
-      <c r="O66" t="s">
-        <v>43</v>
-      </c>
-      <c r="P66" t="s">
-        <v>286</v>
-      </c>
-      <c r="Q66" t="s">
-        <v>291</v>
-      </c>
-      <c r="R66" t="s">
-        <v>543</v>
-      </c>
-      <c r="S66" t="s">
-        <v>25</v>
-      </c>
       <c r="T66" t="s">
-        <v>544</v>
-      </c>
-      <c r="U66" t="s">
-        <v>545</v>
-      </c>
-      <c r="V66" t="s">
         <v>26</v>
       </c>
     </row>
@@ -11144,13 +10737,13 @@
         <v>21</v>
       </c>
       <c r="B67" t="s">
-        <v>502</v>
+        <v>499</v>
       </c>
       <c r="C67" t="s">
-        <v>286</v>
+        <v>284</v>
       </c>
       <c r="D67" t="s">
-        <v>541</v>
+        <v>538</v>
       </c>
       <c r="E67" t="s">
         <v>27</v>
@@ -11159,51 +10752,45 @@
         <v>18</v>
       </c>
       <c r="G67" t="s">
+        <v>286</v>
+      </c>
+      <c r="H67" t="s">
+        <v>25</v>
+      </c>
+      <c r="I67" t="s">
+        <v>155</v>
+      </c>
+      <c r="J67" t="s">
+        <v>539</v>
+      </c>
+      <c r="K67" t="s">
+        <v>20</v>
+      </c>
+      <c r="L67" t="s">
+        <v>287</v>
+      </c>
+      <c r="M67" t="s">
+        <v>43</v>
+      </c>
+      <c r="N67" t="s">
+        <v>284</v>
+      </c>
+      <c r="O67" t="s">
         <v>288</v>
       </c>
-      <c r="H67" t="s">
-        <v>25</v>
-      </c>
-      <c r="I67" t="s">
-        <v>286</v>
-      </c>
-      <c r="J67" t="s">
-        <v>155</v>
-      </c>
-      <c r="K67" t="s">
+      <c r="P67" t="s">
+        <v>543</v>
+      </c>
+      <c r="Q67" t="s">
+        <v>25</v>
+      </c>
+      <c r="R67" t="s">
+        <v>544</v>
+      </c>
+      <c r="S67" t="s">
         <v>542</v>
       </c>
-      <c r="L67" t="s">
-        <v>20</v>
-      </c>
-      <c r="M67" t="s">
-        <v>289</v>
-      </c>
-      <c r="N67" t="s">
-        <v>290</v>
-      </c>
-      <c r="O67" t="s">
-        <v>43</v>
-      </c>
-      <c r="P67" t="s">
-        <v>286</v>
-      </c>
-      <c r="Q67" t="s">
-        <v>291</v>
-      </c>
-      <c r="R67" t="s">
-        <v>546</v>
-      </c>
-      <c r="S67" t="s">
-        <v>25</v>
-      </c>
       <c r="T67" t="s">
-        <v>547</v>
-      </c>
-      <c r="U67" t="s">
-        <v>545</v>
-      </c>
-      <c r="V67" t="s">
         <v>26</v>
       </c>
     </row>
@@ -11212,13 +10799,13 @@
         <v>21</v>
       </c>
       <c r="B68" t="s">
-        <v>502</v>
+        <v>499</v>
       </c>
       <c r="C68" t="s">
-        <v>286</v>
+        <v>284</v>
       </c>
       <c r="D68" t="s">
-        <v>312</v>
+        <v>309</v>
       </c>
       <c r="E68" t="s">
         <v>27</v>
@@ -11227,51 +10814,45 @@
         <v>18</v>
       </c>
       <c r="G68" t="s">
+        <v>286</v>
+      </c>
+      <c r="H68" t="s">
+        <v>25</v>
+      </c>
+      <c r="I68" t="s">
+        <v>156</v>
+      </c>
+      <c r="J68" t="s">
+        <v>539</v>
+      </c>
+      <c r="K68" t="s">
+        <v>20</v>
+      </c>
+      <c r="L68" t="s">
+        <v>287</v>
+      </c>
+      <c r="M68" t="s">
+        <v>43</v>
+      </c>
+      <c r="N68" t="s">
+        <v>284</v>
+      </c>
+      <c r="O68" t="s">
         <v>288</v>
       </c>
-      <c r="H68" t="s">
-        <v>25</v>
-      </c>
-      <c r="I68" t="s">
-        <v>286</v>
-      </c>
-      <c r="J68" t="s">
-        <v>156</v>
-      </c>
-      <c r="K68" t="s">
-        <v>542</v>
-      </c>
-      <c r="L68" t="s">
-        <v>20</v>
-      </c>
-      <c r="M68" t="s">
-        <v>289</v>
-      </c>
-      <c r="N68" t="s">
-        <v>290</v>
-      </c>
-      <c r="O68" t="s">
-        <v>43</v>
-      </c>
       <c r="P68" t="s">
-        <v>286</v>
+        <v>545</v>
       </c>
       <c r="Q68" t="s">
-        <v>291</v>
+        <v>25</v>
       </c>
       <c r="R68" t="s">
-        <v>548</v>
+        <v>546</v>
       </c>
       <c r="S68" t="s">
-        <v>25</v>
+        <v>547</v>
       </c>
       <c r="T68" t="s">
-        <v>549</v>
-      </c>
-      <c r="U68" t="s">
-        <v>550</v>
-      </c>
-      <c r="V68" t="s">
         <v>26</v>
       </c>
     </row>
@@ -11280,13 +10861,13 @@
         <v>21</v>
       </c>
       <c r="B69" t="s">
-        <v>502</v>
+        <v>499</v>
       </c>
       <c r="C69" t="s">
-        <v>286</v>
+        <v>284</v>
       </c>
       <c r="D69" t="s">
-        <v>551</v>
+        <v>548</v>
       </c>
       <c r="E69" t="s">
         <v>27</v>
@@ -11295,51 +10876,45 @@
         <v>18</v>
       </c>
       <c r="G69" t="s">
+        <v>286</v>
+      </c>
+      <c r="H69" t="s">
+        <v>25</v>
+      </c>
+      <c r="I69" t="s">
+        <v>157</v>
+      </c>
+      <c r="J69" t="s">
+        <v>539</v>
+      </c>
+      <c r="K69" t="s">
+        <v>20</v>
+      </c>
+      <c r="L69" t="s">
+        <v>287</v>
+      </c>
+      <c r="M69" t="s">
+        <v>43</v>
+      </c>
+      <c r="N69" t="s">
+        <v>284</v>
+      </c>
+      <c r="O69" t="s">
         <v>288</v>
       </c>
-      <c r="H69" t="s">
-        <v>25</v>
-      </c>
-      <c r="I69" t="s">
-        <v>286</v>
-      </c>
-      <c r="J69" t="s">
-        <v>157</v>
-      </c>
-      <c r="K69" t="s">
-        <v>542</v>
-      </c>
-      <c r="L69" t="s">
-        <v>20</v>
-      </c>
-      <c r="M69" t="s">
-        <v>289</v>
-      </c>
-      <c r="N69" t="s">
-        <v>290</v>
-      </c>
-      <c r="O69" t="s">
-        <v>43</v>
-      </c>
       <c r="P69" t="s">
-        <v>286</v>
+        <v>549</v>
       </c>
       <c r="Q69" t="s">
-        <v>291</v>
+        <v>25</v>
       </c>
       <c r="R69" t="s">
-        <v>552</v>
+        <v>550</v>
       </c>
       <c r="S69" t="s">
-        <v>25</v>
+        <v>551</v>
       </c>
       <c r="T69" t="s">
-        <v>553</v>
-      </c>
-      <c r="U69" t="s">
-        <v>554</v>
-      </c>
-      <c r="V69" t="s">
         <v>26</v>
       </c>
     </row>
@@ -11348,13 +10923,13 @@
         <v>131</v>
       </c>
       <c r="B70" t="s">
-        <v>502</v>
+        <v>499</v>
       </c>
       <c r="C70" t="s">
-        <v>286</v>
+        <v>284</v>
       </c>
       <c r="D70" t="s">
-        <v>551</v>
+        <v>548</v>
       </c>
       <c r="E70" t="s">
         <v>27</v>
@@ -11363,51 +10938,45 @@
         <v>129</v>
       </c>
       <c r="G70" t="s">
-        <v>288</v>
+        <v>286</v>
       </c>
       <c r="H70" t="s">
         <v>132</v>
       </c>
       <c r="I70" t="s">
-        <v>286</v>
+        <v>159</v>
       </c>
       <c r="J70" t="s">
-        <v>159</v>
+        <v>539</v>
       </c>
       <c r="K70" t="s">
-        <v>542</v>
+        <v>20</v>
       </c>
       <c r="L70" t="s">
-        <v>20</v>
+        <v>287</v>
       </c>
       <c r="M70" t="s">
-        <v>289</v>
+        <v>43</v>
       </c>
       <c r="N70" t="s">
-        <v>290</v>
+        <v>284</v>
       </c>
       <c r="O70" t="s">
-        <v>43</v>
+        <v>288</v>
       </c>
       <c r="P70" t="s">
-        <v>286</v>
+        <v>552</v>
       </c>
       <c r="Q70" t="s">
-        <v>291</v>
+        <v>132</v>
       </c>
       <c r="R70" t="s">
-        <v>555</v>
+        <v>553</v>
       </c>
       <c r="S70" t="s">
-        <v>132</v>
+        <v>551</v>
       </c>
       <c r="T70" t="s">
-        <v>556</v>
-      </c>
-      <c r="U70" t="s">
-        <v>554</v>
-      </c>
-      <c r="V70" t="s">
         <v>26</v>
       </c>
     </row>
@@ -11416,13 +10985,13 @@
         <v>21</v>
       </c>
       <c r="B71" t="s">
-        <v>542</v>
+        <v>539</v>
       </c>
       <c r="C71" t="s">
-        <v>286</v>
+        <v>284</v>
       </c>
       <c r="D71" t="s">
-        <v>557</v>
+        <v>554</v>
       </c>
       <c r="E71" t="s">
         <v>27</v>
@@ -11431,51 +11000,45 @@
         <v>32</v>
       </c>
       <c r="G71" t="s">
+        <v>286</v>
+      </c>
+      <c r="H71" t="s">
+        <v>25</v>
+      </c>
+      <c r="I71" t="s">
+        <v>160</v>
+      </c>
+      <c r="J71" t="s">
+        <v>539</v>
+      </c>
+      <c r="K71" t="s">
+        <v>20</v>
+      </c>
+      <c r="L71" t="s">
+        <v>287</v>
+      </c>
+      <c r="M71" t="s">
+        <v>122</v>
+      </c>
+      <c r="N71" t="s">
+        <v>284</v>
+      </c>
+      <c r="O71" t="s">
         <v>288</v>
       </c>
-      <c r="H71" t="s">
-        <v>25</v>
-      </c>
-      <c r="I71" t="s">
-        <v>286</v>
-      </c>
-      <c r="J71" t="s">
-        <v>160</v>
-      </c>
-      <c r="K71" t="s">
-        <v>542</v>
-      </c>
-      <c r="L71" t="s">
-        <v>20</v>
-      </c>
-      <c r="M71" t="s">
-        <v>289</v>
-      </c>
-      <c r="N71" t="s">
-        <v>290</v>
-      </c>
-      <c r="O71" t="s">
-        <v>122</v>
-      </c>
       <c r="P71" t="s">
-        <v>286</v>
+        <v>555</v>
       </c>
       <c r="Q71" t="s">
-        <v>291</v>
+        <v>25</v>
       </c>
       <c r="R71" t="s">
-        <v>558</v>
+        <v>556</v>
       </c>
       <c r="S71" t="s">
-        <v>25</v>
+        <v>557</v>
       </c>
       <c r="T71" t="s">
-        <v>559</v>
-      </c>
-      <c r="U71" t="s">
-        <v>560</v>
-      </c>
-      <c r="V71" t="s">
         <v>26</v>
       </c>
     </row>
@@ -11484,13 +11047,13 @@
         <v>21</v>
       </c>
       <c r="B72" t="s">
-        <v>542</v>
+        <v>539</v>
       </c>
       <c r="C72" t="s">
-        <v>286</v>
+        <v>284</v>
       </c>
       <c r="D72" t="s">
-        <v>561</v>
+        <v>558</v>
       </c>
       <c r="E72" t="s">
         <v>27</v>
@@ -11499,51 +11062,45 @@
         <v>52</v>
       </c>
       <c r="G72" t="s">
-        <v>288</v>
+        <v>286</v>
       </c>
       <c r="H72" t="s">
         <v>55</v>
       </c>
       <c r="I72" t="s">
-        <v>286</v>
+        <v>162</v>
       </c>
       <c r="J72" t="s">
-        <v>162</v>
+        <v>539</v>
       </c>
       <c r="K72" t="s">
-        <v>542</v>
+        <v>20</v>
       </c>
       <c r="L72" t="s">
-        <v>20</v>
+        <v>287</v>
       </c>
       <c r="M72" t="s">
-        <v>289</v>
+        <v>122</v>
       </c>
       <c r="N72" t="s">
-        <v>290</v>
+        <v>284</v>
       </c>
       <c r="O72" t="s">
-        <v>122</v>
+        <v>288</v>
       </c>
       <c r="P72" t="s">
-        <v>286</v>
+        <v>559</v>
       </c>
       <c r="Q72" t="s">
-        <v>291</v>
+        <v>55</v>
       </c>
       <c r="R72" t="s">
-        <v>562</v>
+        <v>560</v>
       </c>
       <c r="S72" t="s">
-        <v>55</v>
+        <v>561</v>
       </c>
       <c r="T72" t="s">
-        <v>563</v>
-      </c>
-      <c r="U72" t="s">
-        <v>564</v>
-      </c>
-      <c r="V72" t="s">
         <v>26</v>
       </c>
     </row>
@@ -11552,13 +11109,13 @@
         <v>21</v>
       </c>
       <c r="B73" t="s">
-        <v>542</v>
+        <v>539</v>
       </c>
       <c r="C73" t="s">
-        <v>286</v>
+        <v>284</v>
       </c>
       <c r="D73" t="s">
-        <v>359</v>
+        <v>356</v>
       </c>
       <c r="E73" t="s">
         <v>27</v>
@@ -11567,51 +11124,45 @@
         <v>52</v>
       </c>
       <c r="G73" t="s">
-        <v>288</v>
+        <v>286</v>
       </c>
       <c r="H73" t="s">
         <v>55</v>
       </c>
       <c r="I73" t="s">
-        <v>286</v>
+        <v>164</v>
       </c>
       <c r="J73" t="s">
-        <v>164</v>
+        <v>539</v>
       </c>
       <c r="K73" t="s">
-        <v>542</v>
+        <v>20</v>
       </c>
       <c r="L73" t="s">
-        <v>20</v>
+        <v>287</v>
       </c>
       <c r="M73" t="s">
-        <v>289</v>
+        <v>122</v>
       </c>
       <c r="N73" t="s">
-        <v>290</v>
+        <v>284</v>
       </c>
       <c r="O73" t="s">
-        <v>122</v>
+        <v>288</v>
       </c>
       <c r="P73" t="s">
-        <v>286</v>
+        <v>562</v>
       </c>
       <c r="Q73" t="s">
-        <v>291</v>
+        <v>55</v>
       </c>
       <c r="R73" t="s">
-        <v>565</v>
+        <v>563</v>
       </c>
       <c r="S73" t="s">
-        <v>55</v>
+        <v>564</v>
       </c>
       <c r="T73" t="s">
-        <v>566</v>
-      </c>
-      <c r="U73" t="s">
-        <v>567</v>
-      </c>
-      <c r="V73" t="s">
         <v>26</v>
       </c>
     </row>
@@ -11620,13 +11171,13 @@
         <v>21</v>
       </c>
       <c r="B74" t="s">
-        <v>542</v>
+        <v>539</v>
       </c>
       <c r="C74" t="s">
-        <v>286</v>
+        <v>284</v>
       </c>
       <c r="D74" t="s">
-        <v>568</v>
+        <v>565</v>
       </c>
       <c r="E74" t="s">
         <v>27</v>
@@ -11635,51 +11186,45 @@
         <v>32</v>
       </c>
       <c r="G74" t="s">
+        <v>286</v>
+      </c>
+      <c r="H74" t="s">
+        <v>25</v>
+      </c>
+      <c r="I74" t="s">
+        <v>165</v>
+      </c>
+      <c r="J74" t="s">
+        <v>539</v>
+      </c>
+      <c r="K74" t="s">
+        <v>20</v>
+      </c>
+      <c r="L74" t="s">
+        <v>287</v>
+      </c>
+      <c r="M74" t="s">
+        <v>122</v>
+      </c>
+      <c r="N74" t="s">
+        <v>284</v>
+      </c>
+      <c r="O74" t="s">
         <v>288</v>
       </c>
-      <c r="H74" t="s">
-        <v>25</v>
-      </c>
-      <c r="I74" t="s">
-        <v>286</v>
-      </c>
-      <c r="J74" t="s">
-        <v>165</v>
-      </c>
-      <c r="K74" t="s">
-        <v>542</v>
-      </c>
-      <c r="L74" t="s">
-        <v>20</v>
-      </c>
-      <c r="M74" t="s">
-        <v>289</v>
-      </c>
-      <c r="N74" t="s">
-        <v>290</v>
-      </c>
-      <c r="O74" t="s">
-        <v>122</v>
-      </c>
       <c r="P74" t="s">
-        <v>286</v>
+        <v>566</v>
       </c>
       <c r="Q74" t="s">
-        <v>291</v>
+        <v>25</v>
       </c>
       <c r="R74" t="s">
-        <v>569</v>
+        <v>567</v>
       </c>
       <c r="S74" t="s">
-        <v>25</v>
+        <v>568</v>
       </c>
       <c r="T74" t="s">
-        <v>570</v>
-      </c>
-      <c r="U74" t="s">
-        <v>571</v>
-      </c>
-      <c r="V74" t="s">
         <v>26</v>
       </c>
     </row>
@@ -11688,13 +11233,13 @@
         <v>21</v>
       </c>
       <c r="B75" t="s">
-        <v>542</v>
+        <v>539</v>
       </c>
       <c r="C75" t="s">
-        <v>286</v>
+        <v>284</v>
       </c>
       <c r="D75" t="s">
-        <v>572</v>
+        <v>569</v>
       </c>
       <c r="E75" t="s">
         <v>27</v>
@@ -11703,51 +11248,45 @@
         <v>52</v>
       </c>
       <c r="G75" t="s">
-        <v>288</v>
+        <v>286</v>
       </c>
       <c r="H75" t="s">
         <v>55</v>
       </c>
       <c r="I75" t="s">
-        <v>286</v>
+        <v>167</v>
       </c>
       <c r="J75" t="s">
-        <v>167</v>
+        <v>539</v>
       </c>
       <c r="K75" t="s">
-        <v>542</v>
+        <v>20</v>
       </c>
       <c r="L75" t="s">
-        <v>20</v>
+        <v>287</v>
       </c>
       <c r="M75" t="s">
-        <v>289</v>
+        <v>122</v>
       </c>
       <c r="N75" t="s">
-        <v>290</v>
+        <v>284</v>
       </c>
       <c r="O75" t="s">
-        <v>122</v>
+        <v>288</v>
       </c>
       <c r="P75" t="s">
-        <v>286</v>
+        <v>570</v>
       </c>
       <c r="Q75" t="s">
-        <v>291</v>
+        <v>55</v>
       </c>
       <c r="R75" t="s">
-        <v>573</v>
+        <v>571</v>
       </c>
       <c r="S75" t="s">
-        <v>55</v>
+        <v>572</v>
       </c>
       <c r="T75" t="s">
-        <v>574</v>
-      </c>
-      <c r="U75" t="s">
-        <v>575</v>
-      </c>
-      <c r="V75" t="s">
         <v>26</v>
       </c>
     </row>
@@ -11756,13 +11295,13 @@
         <v>21</v>
       </c>
       <c r="B76" t="s">
-        <v>542</v>
+        <v>539</v>
       </c>
       <c r="C76" t="s">
-        <v>286</v>
+        <v>284</v>
       </c>
       <c r="D76" t="s">
-        <v>576</v>
+        <v>573</v>
       </c>
       <c r="E76" t="s">
         <v>27</v>
@@ -11771,51 +11310,45 @@
         <v>52</v>
       </c>
       <c r="G76" t="s">
-        <v>288</v>
+        <v>286</v>
       </c>
       <c r="H76" t="s">
         <v>55</v>
       </c>
       <c r="I76" t="s">
-        <v>286</v>
+        <v>169</v>
       </c>
       <c r="J76" t="s">
-        <v>169</v>
+        <v>539</v>
       </c>
       <c r="K76" t="s">
-        <v>542</v>
+        <v>20</v>
       </c>
       <c r="L76" t="s">
-        <v>20</v>
+        <v>287</v>
       </c>
       <c r="M76" t="s">
-        <v>289</v>
+        <v>122</v>
       </c>
       <c r="N76" t="s">
-        <v>290</v>
+        <v>284</v>
       </c>
       <c r="O76" t="s">
-        <v>122</v>
+        <v>288</v>
       </c>
       <c r="P76" t="s">
-        <v>286</v>
+        <v>574</v>
       </c>
       <c r="Q76" t="s">
-        <v>291</v>
+        <v>55</v>
       </c>
       <c r="R76" t="s">
-        <v>577</v>
+        <v>575</v>
       </c>
       <c r="S76" t="s">
-        <v>55</v>
+        <v>576</v>
       </c>
       <c r="T76" t="s">
-        <v>578</v>
-      </c>
-      <c r="U76" t="s">
-        <v>579</v>
-      </c>
-      <c r="V76" t="s">
         <v>26</v>
       </c>
     </row>
@@ -11824,13 +11357,13 @@
         <v>21</v>
       </c>
       <c r="B77" t="s">
-        <v>542</v>
+        <v>539</v>
       </c>
       <c r="C77" t="s">
-        <v>286</v>
+        <v>284</v>
       </c>
       <c r="D77" t="s">
-        <v>580</v>
+        <v>577</v>
       </c>
       <c r="E77" t="s">
         <v>27</v>
@@ -11839,51 +11372,45 @@
         <v>52</v>
       </c>
       <c r="G77" t="s">
-        <v>288</v>
+        <v>286</v>
       </c>
       <c r="H77" t="s">
         <v>55</v>
       </c>
       <c r="I77" t="s">
-        <v>286</v>
+        <v>171</v>
       </c>
       <c r="J77" t="s">
-        <v>171</v>
+        <v>539</v>
       </c>
       <c r="K77" t="s">
-        <v>542</v>
+        <v>20</v>
       </c>
       <c r="L77" t="s">
-        <v>20</v>
+        <v>287</v>
       </c>
       <c r="M77" t="s">
-        <v>289</v>
+        <v>122</v>
       </c>
       <c r="N77" t="s">
-        <v>290</v>
+        <v>284</v>
       </c>
       <c r="O77" t="s">
-        <v>122</v>
+        <v>288</v>
       </c>
       <c r="P77" t="s">
-        <v>286</v>
+        <v>578</v>
       </c>
       <c r="Q77" t="s">
-        <v>291</v>
+        <v>55</v>
       </c>
       <c r="R77" t="s">
-        <v>581</v>
+        <v>579</v>
       </c>
       <c r="S77" t="s">
-        <v>55</v>
+        <v>580</v>
       </c>
       <c r="T77" t="s">
-        <v>582</v>
-      </c>
-      <c r="U77" t="s">
-        <v>583</v>
-      </c>
-      <c r="V77" t="s">
         <v>26</v>
       </c>
     </row>
@@ -11892,13 +11419,13 @@
         <v>21</v>
       </c>
       <c r="B78" t="s">
-        <v>542</v>
+        <v>539</v>
       </c>
       <c r="C78" t="s">
-        <v>286</v>
+        <v>284</v>
       </c>
       <c r="D78" t="s">
-        <v>584</v>
+        <v>581</v>
       </c>
       <c r="E78" t="s">
         <v>27</v>
@@ -11907,51 +11434,45 @@
         <v>32</v>
       </c>
       <c r="G78" t="s">
+        <v>286</v>
+      </c>
+      <c r="H78" t="s">
+        <v>25</v>
+      </c>
+      <c r="I78" t="s">
+        <v>173</v>
+      </c>
+      <c r="J78" t="s">
+        <v>539</v>
+      </c>
+      <c r="K78" t="s">
+        <v>20</v>
+      </c>
+      <c r="L78" t="s">
+        <v>287</v>
+      </c>
+      <c r="M78" t="s">
+        <v>122</v>
+      </c>
+      <c r="N78" t="s">
+        <v>284</v>
+      </c>
+      <c r="O78" t="s">
         <v>288</v>
       </c>
-      <c r="H78" t="s">
-        <v>25</v>
-      </c>
-      <c r="I78" t="s">
-        <v>286</v>
-      </c>
-      <c r="J78" t="s">
-        <v>173</v>
-      </c>
-      <c r="K78" t="s">
-        <v>542</v>
-      </c>
-      <c r="L78" t="s">
-        <v>20</v>
-      </c>
-      <c r="M78" t="s">
-        <v>289</v>
-      </c>
-      <c r="N78" t="s">
-        <v>290</v>
-      </c>
-      <c r="O78" t="s">
-        <v>122</v>
-      </c>
       <c r="P78" t="s">
-        <v>286</v>
+        <v>582</v>
       </c>
       <c r="Q78" t="s">
-        <v>291</v>
+        <v>25</v>
       </c>
       <c r="R78" t="s">
-        <v>585</v>
+        <v>583</v>
       </c>
       <c r="S78" t="s">
-        <v>25</v>
+        <v>584</v>
       </c>
       <c r="T78" t="s">
-        <v>586</v>
-      </c>
-      <c r="U78" t="s">
-        <v>587</v>
-      </c>
-      <c r="V78" t="s">
         <v>26</v>
       </c>
     </row>
@@ -11960,13 +11481,13 @@
         <v>21</v>
       </c>
       <c r="B79" t="s">
-        <v>542</v>
+        <v>539</v>
       </c>
       <c r="C79" t="s">
-        <v>286</v>
+        <v>284</v>
       </c>
       <c r="D79" t="s">
-        <v>588</v>
+        <v>585</v>
       </c>
       <c r="E79" t="s">
         <v>27</v>
@@ -11975,51 +11496,45 @@
         <v>32</v>
       </c>
       <c r="G79" t="s">
+        <v>286</v>
+      </c>
+      <c r="H79" t="s">
+        <v>25</v>
+      </c>
+      <c r="I79" t="s">
+        <v>33</v>
+      </c>
+      <c r="J79" t="s">
+        <v>539</v>
+      </c>
+      <c r="K79" t="s">
+        <v>20</v>
+      </c>
+      <c r="L79" t="s">
+        <v>287</v>
+      </c>
+      <c r="M79" t="s">
+        <v>122</v>
+      </c>
+      <c r="N79" t="s">
+        <v>284</v>
+      </c>
+      <c r="O79" t="s">
         <v>288</v>
       </c>
-      <c r="H79" t="s">
-        <v>25</v>
-      </c>
-      <c r="I79" t="s">
-        <v>286</v>
-      </c>
-      <c r="J79" t="s">
-        <v>33</v>
-      </c>
-      <c r="K79" t="s">
-        <v>542</v>
-      </c>
-      <c r="L79" t="s">
-        <v>20</v>
-      </c>
-      <c r="M79" t="s">
-        <v>289</v>
-      </c>
-      <c r="N79" t="s">
-        <v>290</v>
-      </c>
-      <c r="O79" t="s">
-        <v>122</v>
-      </c>
       <c r="P79" t="s">
-        <v>286</v>
+        <v>586</v>
       </c>
       <c r="Q79" t="s">
-        <v>291</v>
+        <v>25</v>
       </c>
       <c r="R79" t="s">
-        <v>589</v>
+        <v>587</v>
       </c>
       <c r="S79" t="s">
-        <v>25</v>
+        <v>312</v>
       </c>
       <c r="T79" t="s">
-        <v>590</v>
-      </c>
-      <c r="U79" t="s">
-        <v>315</v>
-      </c>
-      <c r="V79" t="s">
         <v>26</v>
       </c>
     </row>
@@ -12028,13 +11543,13 @@
         <v>21</v>
       </c>
       <c r="B80" t="s">
-        <v>542</v>
+        <v>539</v>
       </c>
       <c r="C80" t="s">
-        <v>286</v>
+        <v>284</v>
       </c>
       <c r="D80" t="s">
-        <v>591</v>
+        <v>588</v>
       </c>
       <c r="E80" t="s">
         <v>27</v>
@@ -12043,51 +11558,45 @@
         <v>32</v>
       </c>
       <c r="G80" t="s">
+        <v>286</v>
+      </c>
+      <c r="H80" t="s">
+        <v>25</v>
+      </c>
+      <c r="I80" t="s">
+        <v>176</v>
+      </c>
+      <c r="J80" t="s">
+        <v>539</v>
+      </c>
+      <c r="K80" t="s">
+        <v>20</v>
+      </c>
+      <c r="L80" t="s">
+        <v>287</v>
+      </c>
+      <c r="M80" t="s">
+        <v>124</v>
+      </c>
+      <c r="N80" t="s">
+        <v>284</v>
+      </c>
+      <c r="O80" t="s">
         <v>288</v>
       </c>
-      <c r="H80" t="s">
-        <v>25</v>
-      </c>
-      <c r="I80" t="s">
-        <v>286</v>
-      </c>
-      <c r="J80" t="s">
-        <v>176</v>
-      </c>
-      <c r="K80" t="s">
-        <v>542</v>
-      </c>
-      <c r="L80" t="s">
-        <v>20</v>
-      </c>
-      <c r="M80" t="s">
-        <v>289</v>
-      </c>
-      <c r="N80" t="s">
-        <v>290</v>
-      </c>
-      <c r="O80" t="s">
-        <v>124</v>
-      </c>
       <c r="P80" t="s">
-        <v>286</v>
+        <v>589</v>
       </c>
       <c r="Q80" t="s">
-        <v>291</v>
+        <v>25</v>
       </c>
       <c r="R80" t="s">
-        <v>592</v>
+        <v>590</v>
       </c>
       <c r="S80" t="s">
-        <v>25</v>
+        <v>591</v>
       </c>
       <c r="T80" t="s">
-        <v>593</v>
-      </c>
-      <c r="U80" t="s">
-        <v>594</v>
-      </c>
-      <c r="V80" t="s">
         <v>26</v>
       </c>
     </row>
@@ -12096,13 +11605,13 @@
         <v>21</v>
       </c>
       <c r="B81" t="s">
-        <v>542</v>
+        <v>539</v>
       </c>
       <c r="C81" t="s">
-        <v>286</v>
+        <v>284</v>
       </c>
       <c r="D81" t="s">
-        <v>595</v>
+        <v>592</v>
       </c>
       <c r="E81" t="s">
         <v>27</v>
@@ -12111,51 +11620,45 @@
         <v>52</v>
       </c>
       <c r="G81" t="s">
-        <v>288</v>
+        <v>286</v>
       </c>
       <c r="H81" t="s">
         <v>55</v>
       </c>
       <c r="I81" t="s">
-        <v>286</v>
+        <v>162</v>
       </c>
       <c r="J81" t="s">
-        <v>162</v>
+        <v>539</v>
       </c>
       <c r="K81" t="s">
-        <v>542</v>
+        <v>20</v>
       </c>
       <c r="L81" t="s">
-        <v>20</v>
+        <v>287</v>
       </c>
       <c r="M81" t="s">
-        <v>289</v>
+        <v>124</v>
       </c>
       <c r="N81" t="s">
-        <v>290</v>
+        <v>284</v>
       </c>
       <c r="O81" t="s">
-        <v>124</v>
+        <v>288</v>
       </c>
       <c r="P81" t="s">
-        <v>286</v>
+        <v>593</v>
       </c>
       <c r="Q81" t="s">
-        <v>291</v>
+        <v>55</v>
       </c>
       <c r="R81" t="s">
-        <v>596</v>
+        <v>594</v>
       </c>
       <c r="S81" t="s">
-        <v>55</v>
+        <v>561</v>
       </c>
       <c r="T81" t="s">
-        <v>597</v>
-      </c>
-      <c r="U81" t="s">
-        <v>564</v>
-      </c>
-      <c r="V81" t="s">
         <v>26</v>
       </c>
     </row>
@@ -12164,13 +11667,13 @@
         <v>21</v>
       </c>
       <c r="B82" t="s">
-        <v>542</v>
+        <v>539</v>
       </c>
       <c r="C82" t="s">
-        <v>286</v>
+        <v>284</v>
       </c>
       <c r="D82" t="s">
-        <v>598</v>
+        <v>595</v>
       </c>
       <c r="E82" t="s">
         <v>27</v>
@@ -12179,51 +11682,45 @@
         <v>32</v>
       </c>
       <c r="G82" t="s">
+        <v>286</v>
+      </c>
+      <c r="H82" t="s">
+        <v>25</v>
+      </c>
+      <c r="I82" t="s">
+        <v>179</v>
+      </c>
+      <c r="J82" t="s">
+        <v>539</v>
+      </c>
+      <c r="K82" t="s">
+        <v>20</v>
+      </c>
+      <c r="L82" t="s">
+        <v>287</v>
+      </c>
+      <c r="M82" t="s">
+        <v>124</v>
+      </c>
+      <c r="N82" t="s">
+        <v>284</v>
+      </c>
+      <c r="O82" t="s">
         <v>288</v>
       </c>
-      <c r="H82" t="s">
-        <v>25</v>
-      </c>
-      <c r="I82" t="s">
-        <v>286</v>
-      </c>
-      <c r="J82" t="s">
-        <v>179</v>
-      </c>
-      <c r="K82" t="s">
-        <v>542</v>
-      </c>
-      <c r="L82" t="s">
-        <v>20</v>
-      </c>
-      <c r="M82" t="s">
-        <v>289</v>
-      </c>
-      <c r="N82" t="s">
-        <v>290</v>
-      </c>
-      <c r="O82" t="s">
-        <v>124</v>
-      </c>
       <c r="P82" t="s">
-        <v>286</v>
+        <v>596</v>
       </c>
       <c r="Q82" t="s">
-        <v>291</v>
+        <v>25</v>
       </c>
       <c r="R82" t="s">
-        <v>599</v>
+        <v>597</v>
       </c>
       <c r="S82" t="s">
-        <v>25</v>
+        <v>598</v>
       </c>
       <c r="T82" t="s">
-        <v>600</v>
-      </c>
-      <c r="U82" t="s">
-        <v>601</v>
-      </c>
-      <c r="V82" t="s">
         <v>26</v>
       </c>
     </row>
@@ -12232,13 +11729,13 @@
         <v>21</v>
       </c>
       <c r="B83" t="s">
-        <v>542</v>
+        <v>539</v>
       </c>
       <c r="C83" t="s">
-        <v>286</v>
+        <v>284</v>
       </c>
       <c r="D83" t="s">
-        <v>602</v>
+        <v>599</v>
       </c>
       <c r="E83" t="s">
         <v>27</v>
@@ -12247,51 +11744,45 @@
         <v>32</v>
       </c>
       <c r="G83" t="s">
+        <v>286</v>
+      </c>
+      <c r="H83" t="s">
+        <v>25</v>
+      </c>
+      <c r="I83" t="s">
+        <v>181</v>
+      </c>
+      <c r="J83" t="s">
+        <v>539</v>
+      </c>
+      <c r="K83" t="s">
+        <v>20</v>
+      </c>
+      <c r="L83" t="s">
+        <v>287</v>
+      </c>
+      <c r="M83" t="s">
+        <v>124</v>
+      </c>
+      <c r="N83" t="s">
+        <v>284</v>
+      </c>
+      <c r="O83" t="s">
         <v>288</v>
       </c>
-      <c r="H83" t="s">
-        <v>25</v>
-      </c>
-      <c r="I83" t="s">
-        <v>286</v>
-      </c>
-      <c r="J83" t="s">
-        <v>181</v>
-      </c>
-      <c r="K83" t="s">
-        <v>542</v>
-      </c>
-      <c r="L83" t="s">
-        <v>20</v>
-      </c>
-      <c r="M83" t="s">
-        <v>289</v>
-      </c>
-      <c r="N83" t="s">
-        <v>290</v>
-      </c>
-      <c r="O83" t="s">
-        <v>124</v>
-      </c>
       <c r="P83" t="s">
-        <v>286</v>
+        <v>600</v>
       </c>
       <c r="Q83" t="s">
-        <v>291</v>
+        <v>25</v>
       </c>
       <c r="R83" t="s">
-        <v>603</v>
+        <v>601</v>
       </c>
       <c r="S83" t="s">
-        <v>25</v>
+        <v>602</v>
       </c>
       <c r="T83" t="s">
-        <v>604</v>
-      </c>
-      <c r="U83" t="s">
-        <v>605</v>
-      </c>
-      <c r="V83" t="s">
         <v>26</v>
       </c>
     </row>
@@ -12300,13 +11791,13 @@
         <v>21</v>
       </c>
       <c r="B84" t="s">
-        <v>542</v>
+        <v>539</v>
       </c>
       <c r="C84" t="s">
-        <v>286</v>
+        <v>284</v>
       </c>
       <c r="D84" t="s">
-        <v>606</v>
+        <v>603</v>
       </c>
       <c r="E84" t="s">
         <v>27</v>
@@ -12315,51 +11806,45 @@
         <v>32</v>
       </c>
       <c r="G84" t="s">
+        <v>286</v>
+      </c>
+      <c r="H84" t="s">
+        <v>25</v>
+      </c>
+      <c r="I84" t="s">
+        <v>183</v>
+      </c>
+      <c r="J84" t="s">
+        <v>539</v>
+      </c>
+      <c r="K84" t="s">
+        <v>20</v>
+      </c>
+      <c r="L84" t="s">
+        <v>287</v>
+      </c>
+      <c r="M84" t="s">
+        <v>124</v>
+      </c>
+      <c r="N84" t="s">
+        <v>284</v>
+      </c>
+      <c r="O84" t="s">
         <v>288</v>
       </c>
-      <c r="H84" t="s">
-        <v>25</v>
-      </c>
-      <c r="I84" t="s">
-        <v>286</v>
-      </c>
-      <c r="J84" t="s">
-        <v>183</v>
-      </c>
-      <c r="K84" t="s">
-        <v>542</v>
-      </c>
-      <c r="L84" t="s">
-        <v>20</v>
-      </c>
-      <c r="M84" t="s">
-        <v>289</v>
-      </c>
-      <c r="N84" t="s">
-        <v>290</v>
-      </c>
-      <c r="O84" t="s">
-        <v>124</v>
-      </c>
       <c r="P84" t="s">
-        <v>286</v>
+        <v>604</v>
       </c>
       <c r="Q84" t="s">
-        <v>291</v>
+        <v>25</v>
       </c>
       <c r="R84" t="s">
-        <v>607</v>
+        <v>605</v>
       </c>
       <c r="S84" t="s">
-        <v>25</v>
+        <v>606</v>
       </c>
       <c r="T84" t="s">
-        <v>608</v>
-      </c>
-      <c r="U84" t="s">
-        <v>609</v>
-      </c>
-      <c r="V84" t="s">
         <v>26</v>
       </c>
     </row>
@@ -12368,13 +11853,13 @@
         <v>21</v>
       </c>
       <c r="B85" t="s">
-        <v>542</v>
+        <v>539</v>
       </c>
       <c r="C85" t="s">
-        <v>286</v>
+        <v>284</v>
       </c>
       <c r="D85" t="s">
-        <v>610</v>
+        <v>607</v>
       </c>
       <c r="E85" t="s">
         <v>27</v>
@@ -12383,51 +11868,45 @@
         <v>32</v>
       </c>
       <c r="G85" t="s">
+        <v>286</v>
+      </c>
+      <c r="H85" t="s">
+        <v>25</v>
+      </c>
+      <c r="I85" t="s">
+        <v>185</v>
+      </c>
+      <c r="J85" t="s">
+        <v>539</v>
+      </c>
+      <c r="K85" t="s">
+        <v>20</v>
+      </c>
+      <c r="L85" t="s">
+        <v>287</v>
+      </c>
+      <c r="M85" t="s">
+        <v>124</v>
+      </c>
+      <c r="N85" t="s">
+        <v>284</v>
+      </c>
+      <c r="O85" t="s">
         <v>288</v>
       </c>
-      <c r="H85" t="s">
-        <v>25</v>
-      </c>
-      <c r="I85" t="s">
-        <v>286</v>
-      </c>
-      <c r="J85" t="s">
-        <v>185</v>
-      </c>
-      <c r="K85" t="s">
-        <v>542</v>
-      </c>
-      <c r="L85" t="s">
-        <v>20</v>
-      </c>
-      <c r="M85" t="s">
-        <v>289</v>
-      </c>
-      <c r="N85" t="s">
-        <v>290</v>
-      </c>
-      <c r="O85" t="s">
-        <v>124</v>
-      </c>
       <c r="P85" t="s">
-        <v>286</v>
+        <v>608</v>
       </c>
       <c r="Q85" t="s">
-        <v>291</v>
+        <v>25</v>
       </c>
       <c r="R85" t="s">
-        <v>611</v>
+        <v>609</v>
       </c>
       <c r="S85" t="s">
-        <v>25</v>
+        <v>610</v>
       </c>
       <c r="T85" t="s">
-        <v>612</v>
-      </c>
-      <c r="U85" t="s">
-        <v>613</v>
-      </c>
-      <c r="V85" t="s">
         <v>26</v>
       </c>
     </row>
@@ -12436,13 +11915,13 @@
         <v>21</v>
       </c>
       <c r="B86" t="s">
-        <v>542</v>
+        <v>539</v>
       </c>
       <c r="C86" t="s">
-        <v>286</v>
+        <v>284</v>
       </c>
       <c r="D86" t="s">
-        <v>355</v>
+        <v>352</v>
       </c>
       <c r="E86" t="s">
         <v>27</v>
@@ -12451,51 +11930,45 @@
         <v>32</v>
       </c>
       <c r="G86" t="s">
+        <v>286</v>
+      </c>
+      <c r="H86" t="s">
+        <v>25</v>
+      </c>
+      <c r="I86" t="s">
+        <v>187</v>
+      </c>
+      <c r="J86" t="s">
+        <v>539</v>
+      </c>
+      <c r="K86" t="s">
+        <v>20</v>
+      </c>
+      <c r="L86" t="s">
+        <v>287</v>
+      </c>
+      <c r="M86" t="s">
+        <v>124</v>
+      </c>
+      <c r="N86" t="s">
+        <v>284</v>
+      </c>
+      <c r="O86" t="s">
         <v>288</v>
       </c>
-      <c r="H86" t="s">
-        <v>25</v>
-      </c>
-      <c r="I86" t="s">
-        <v>286</v>
-      </c>
-      <c r="J86" t="s">
-        <v>187</v>
-      </c>
-      <c r="K86" t="s">
-        <v>542</v>
-      </c>
-      <c r="L86" t="s">
-        <v>20</v>
-      </c>
-      <c r="M86" t="s">
-        <v>289</v>
-      </c>
-      <c r="N86" t="s">
-        <v>290</v>
-      </c>
-      <c r="O86" t="s">
-        <v>124</v>
-      </c>
       <c r="P86" t="s">
-        <v>286</v>
+        <v>353</v>
       </c>
       <c r="Q86" t="s">
-        <v>291</v>
+        <v>25</v>
       </c>
       <c r="R86" t="s">
-        <v>356</v>
+        <v>611</v>
       </c>
       <c r="S86" t="s">
-        <v>25</v>
+        <v>612</v>
       </c>
       <c r="T86" t="s">
-        <v>614</v>
-      </c>
-      <c r="U86" t="s">
-        <v>615</v>
-      </c>
-      <c r="V86" t="s">
         <v>26</v>
       </c>
     </row>
@@ -12504,13 +11977,13 @@
         <v>21</v>
       </c>
       <c r="B87" t="s">
-        <v>542</v>
+        <v>539</v>
       </c>
       <c r="C87" t="s">
-        <v>286</v>
+        <v>284</v>
       </c>
       <c r="D87" t="s">
-        <v>616</v>
+        <v>613</v>
       </c>
       <c r="E87" t="s">
         <v>27</v>
@@ -12519,51 +11992,45 @@
         <v>32</v>
       </c>
       <c r="G87" t="s">
+        <v>286</v>
+      </c>
+      <c r="H87" t="s">
+        <v>25</v>
+      </c>
+      <c r="I87" t="s">
+        <v>188</v>
+      </c>
+      <c r="J87" t="s">
+        <v>539</v>
+      </c>
+      <c r="K87" t="s">
+        <v>20</v>
+      </c>
+      <c r="L87" t="s">
+        <v>287</v>
+      </c>
+      <c r="M87" t="s">
+        <v>124</v>
+      </c>
+      <c r="N87" t="s">
+        <v>284</v>
+      </c>
+      <c r="O87" t="s">
         <v>288</v>
       </c>
-      <c r="H87" t="s">
-        <v>25</v>
-      </c>
-      <c r="I87" t="s">
-        <v>286</v>
-      </c>
-      <c r="J87" t="s">
-        <v>188</v>
-      </c>
-      <c r="K87" t="s">
-        <v>542</v>
-      </c>
-      <c r="L87" t="s">
-        <v>20</v>
-      </c>
-      <c r="M87" t="s">
-        <v>289</v>
-      </c>
-      <c r="N87" t="s">
-        <v>290</v>
-      </c>
-      <c r="O87" t="s">
-        <v>124</v>
-      </c>
       <c r="P87" t="s">
-        <v>286</v>
+        <v>614</v>
       </c>
       <c r="Q87" t="s">
-        <v>291</v>
+        <v>25</v>
       </c>
       <c r="R87" t="s">
-        <v>617</v>
+        <v>615</v>
       </c>
       <c r="S87" t="s">
-        <v>25</v>
+        <v>616</v>
       </c>
       <c r="T87" t="s">
-        <v>618</v>
-      </c>
-      <c r="U87" t="s">
-        <v>619</v>
-      </c>
-      <c r="V87" t="s">
         <v>26</v>
       </c>
     </row>
@@ -12572,13 +12039,13 @@
         <v>21</v>
       </c>
       <c r="B88" t="s">
-        <v>542</v>
+        <v>539</v>
       </c>
       <c r="C88" t="s">
-        <v>286</v>
+        <v>284</v>
       </c>
       <c r="D88" t="s">
-        <v>620</v>
+        <v>617</v>
       </c>
       <c r="E88" t="s">
         <v>27</v>
@@ -12587,51 +12054,45 @@
         <v>32</v>
       </c>
       <c r="G88" t="s">
+        <v>286</v>
+      </c>
+      <c r="H88" t="s">
+        <v>25</v>
+      </c>
+      <c r="I88" t="s">
+        <v>190</v>
+      </c>
+      <c r="J88" t="s">
+        <v>539</v>
+      </c>
+      <c r="K88" t="s">
+        <v>20</v>
+      </c>
+      <c r="L88" t="s">
+        <v>287</v>
+      </c>
+      <c r="M88" t="s">
+        <v>124</v>
+      </c>
+      <c r="N88" t="s">
+        <v>284</v>
+      </c>
+      <c r="O88" t="s">
         <v>288</v>
       </c>
-      <c r="H88" t="s">
-        <v>25</v>
-      </c>
-      <c r="I88" t="s">
-        <v>286</v>
-      </c>
-      <c r="J88" t="s">
-        <v>190</v>
-      </c>
-      <c r="K88" t="s">
-        <v>542</v>
-      </c>
-      <c r="L88" t="s">
-        <v>20</v>
-      </c>
-      <c r="M88" t="s">
-        <v>289</v>
-      </c>
-      <c r="N88" t="s">
-        <v>290</v>
-      </c>
-      <c r="O88" t="s">
-        <v>124</v>
-      </c>
       <c r="P88" t="s">
-        <v>286</v>
+        <v>618</v>
       </c>
       <c r="Q88" t="s">
-        <v>291</v>
+        <v>25</v>
       </c>
       <c r="R88" t="s">
-        <v>621</v>
+        <v>619</v>
       </c>
       <c r="S88" t="s">
-        <v>25</v>
+        <v>620</v>
       </c>
       <c r="T88" t="s">
-        <v>622</v>
-      </c>
-      <c r="U88" t="s">
-        <v>623</v>
-      </c>
-      <c r="V88" t="s">
         <v>26</v>
       </c>
     </row>
@@ -12640,13 +12101,13 @@
         <v>21</v>
       </c>
       <c r="B89" t="s">
-        <v>542</v>
+        <v>539</v>
       </c>
       <c r="C89" t="s">
-        <v>286</v>
+        <v>284</v>
       </c>
       <c r="D89" t="s">
-        <v>624</v>
+        <v>621</v>
       </c>
       <c r="E89" t="s">
         <v>27</v>
@@ -12655,51 +12116,45 @@
         <v>52</v>
       </c>
       <c r="G89" t="s">
-        <v>288</v>
+        <v>286</v>
       </c>
       <c r="H89" t="s">
         <v>55</v>
       </c>
       <c r="I89" t="s">
-        <v>286</v>
+        <v>192</v>
       </c>
       <c r="J89" t="s">
-        <v>192</v>
+        <v>539</v>
       </c>
       <c r="K89" t="s">
-        <v>542</v>
+        <v>20</v>
       </c>
       <c r="L89" t="s">
-        <v>20</v>
+        <v>287</v>
       </c>
       <c r="M89" t="s">
-        <v>289</v>
+        <v>124</v>
       </c>
       <c r="N89" t="s">
-        <v>290</v>
+        <v>284</v>
       </c>
       <c r="O89" t="s">
-        <v>124</v>
+        <v>288</v>
       </c>
       <c r="P89" t="s">
-        <v>286</v>
+        <v>622</v>
       </c>
       <c r="Q89" t="s">
-        <v>291</v>
+        <v>55</v>
       </c>
       <c r="R89" t="s">
-        <v>625</v>
+        <v>623</v>
       </c>
       <c r="S89" t="s">
-        <v>55</v>
+        <v>624</v>
       </c>
       <c r="T89" t="s">
-        <v>626</v>
-      </c>
-      <c r="U89" t="s">
-        <v>627</v>
-      </c>
-      <c r="V89" t="s">
         <v>26</v>
       </c>
     </row>
@@ -12708,13 +12163,13 @@
         <v>21</v>
       </c>
       <c r="B90" t="s">
-        <v>542</v>
+        <v>539</v>
       </c>
       <c r="C90" t="s">
-        <v>286</v>
+        <v>284</v>
       </c>
       <c r="D90" t="s">
-        <v>371</v>
+        <v>368</v>
       </c>
       <c r="E90" t="s">
         <v>27</v>
@@ -12723,51 +12178,45 @@
         <v>52</v>
       </c>
       <c r="G90" t="s">
-        <v>288</v>
+        <v>286</v>
       </c>
       <c r="H90" t="s">
         <v>55</v>
       </c>
       <c r="I90" t="s">
-        <v>286</v>
+        <v>194</v>
       </c>
       <c r="J90" t="s">
-        <v>194</v>
+        <v>539</v>
       </c>
       <c r="K90" t="s">
-        <v>542</v>
+        <v>20</v>
       </c>
       <c r="L90" t="s">
-        <v>20</v>
+        <v>287</v>
       </c>
       <c r="M90" t="s">
-        <v>289</v>
+        <v>124</v>
       </c>
       <c r="N90" t="s">
-        <v>290</v>
+        <v>284</v>
       </c>
       <c r="O90" t="s">
-        <v>124</v>
+        <v>288</v>
       </c>
       <c r="P90" t="s">
-        <v>286</v>
+        <v>625</v>
       </c>
       <c r="Q90" t="s">
-        <v>291</v>
+        <v>55</v>
       </c>
       <c r="R90" t="s">
-        <v>628</v>
+        <v>626</v>
       </c>
       <c r="S90" t="s">
-        <v>55</v>
+        <v>627</v>
       </c>
       <c r="T90" t="s">
-        <v>629</v>
-      </c>
-      <c r="U90" t="s">
-        <v>630</v>
-      </c>
-      <c r="V90" t="s">
         <v>26</v>
       </c>
     </row>
@@ -12776,13 +12225,13 @@
         <v>21</v>
       </c>
       <c r="B91" t="s">
-        <v>542</v>
+        <v>539</v>
       </c>
       <c r="C91" t="s">
-        <v>286</v>
+        <v>284</v>
       </c>
       <c r="D91" t="s">
-        <v>631</v>
+        <v>628</v>
       </c>
       <c r="E91" t="s">
         <v>27</v>
@@ -12791,51 +12240,45 @@
         <v>52</v>
       </c>
       <c r="G91" t="s">
-        <v>288</v>
+        <v>286</v>
       </c>
       <c r="H91" t="s">
         <v>55</v>
       </c>
       <c r="I91" t="s">
-        <v>286</v>
+        <v>195</v>
       </c>
       <c r="J91" t="s">
-        <v>195</v>
+        <v>539</v>
       </c>
       <c r="K91" t="s">
-        <v>542</v>
+        <v>20</v>
       </c>
       <c r="L91" t="s">
-        <v>20</v>
+        <v>287</v>
       </c>
       <c r="M91" t="s">
-        <v>289</v>
+        <v>124</v>
       </c>
       <c r="N91" t="s">
-        <v>290</v>
+        <v>284</v>
       </c>
       <c r="O91" t="s">
-        <v>124</v>
+        <v>288</v>
       </c>
       <c r="P91" t="s">
-        <v>286</v>
+        <v>629</v>
       </c>
       <c r="Q91" t="s">
-        <v>291</v>
+        <v>55</v>
       </c>
       <c r="R91" t="s">
-        <v>632</v>
+        <v>630</v>
       </c>
       <c r="S91" t="s">
-        <v>55</v>
+        <v>631</v>
       </c>
       <c r="T91" t="s">
-        <v>633</v>
-      </c>
-      <c r="U91" t="s">
-        <v>634</v>
-      </c>
-      <c r="V91" t="s">
         <v>26</v>
       </c>
     </row>
@@ -12844,13 +12287,13 @@
         <v>21</v>
       </c>
       <c r="B92" t="s">
-        <v>542</v>
+        <v>539</v>
       </c>
       <c r="C92" t="s">
-        <v>286</v>
+        <v>284</v>
       </c>
       <c r="D92" t="s">
-        <v>399</v>
+        <v>396</v>
       </c>
       <c r="E92" t="s">
         <v>27</v>
@@ -12859,51 +12302,45 @@
         <v>52</v>
       </c>
       <c r="G92" t="s">
-        <v>288</v>
+        <v>286</v>
       </c>
       <c r="H92" t="s">
         <v>55</v>
       </c>
       <c r="I92" t="s">
-        <v>286</v>
+        <v>197</v>
       </c>
       <c r="J92" t="s">
-        <v>197</v>
+        <v>539</v>
       </c>
       <c r="K92" t="s">
-        <v>542</v>
+        <v>20</v>
       </c>
       <c r="L92" t="s">
-        <v>20</v>
+        <v>287</v>
       </c>
       <c r="M92" t="s">
-        <v>289</v>
+        <v>124</v>
       </c>
       <c r="N92" t="s">
-        <v>290</v>
+        <v>284</v>
       </c>
       <c r="O92" t="s">
-        <v>124</v>
+        <v>288</v>
       </c>
       <c r="P92" t="s">
-        <v>286</v>
+        <v>632</v>
       </c>
       <c r="Q92" t="s">
-        <v>291</v>
+        <v>55</v>
       </c>
       <c r="R92" t="s">
-        <v>635</v>
+        <v>633</v>
       </c>
       <c r="S92" t="s">
-        <v>55</v>
+        <v>634</v>
       </c>
       <c r="T92" t="s">
-        <v>636</v>
-      </c>
-      <c r="U92" t="s">
-        <v>637</v>
-      </c>
-      <c r="V92" t="s">
         <v>26</v>
       </c>
     </row>
@@ -12912,13 +12349,13 @@
         <v>21</v>
       </c>
       <c r="B93" t="s">
-        <v>502</v>
+        <v>499</v>
       </c>
       <c r="C93" t="s">
-        <v>286</v>
+        <v>284</v>
       </c>
       <c r="D93" t="s">
-        <v>511</v>
+        <v>508</v>
       </c>
       <c r="E93" t="s">
         <v>27</v>
@@ -12927,51 +12364,45 @@
         <v>52</v>
       </c>
       <c r="G93" t="s">
-        <v>288</v>
+        <v>286</v>
       </c>
       <c r="H93" t="s">
         <v>55</v>
       </c>
       <c r="I93" t="s">
-        <v>286</v>
+        <v>162</v>
       </c>
       <c r="J93" t="s">
-        <v>162</v>
+        <v>539</v>
       </c>
       <c r="K93" t="s">
-        <v>542</v>
+        <v>20</v>
       </c>
       <c r="L93" t="s">
-        <v>20</v>
+        <v>287</v>
       </c>
       <c r="M93" t="s">
-        <v>289</v>
+        <v>34</v>
       </c>
       <c r="N93" t="s">
-        <v>290</v>
+        <v>284</v>
       </c>
       <c r="O93" t="s">
-        <v>34</v>
+        <v>288</v>
       </c>
       <c r="P93" t="s">
-        <v>286</v>
+        <v>635</v>
       </c>
       <c r="Q93" t="s">
-        <v>291</v>
+        <v>55</v>
       </c>
       <c r="R93" t="s">
-        <v>638</v>
+        <v>636</v>
       </c>
       <c r="S93" t="s">
-        <v>55</v>
+        <v>561</v>
       </c>
       <c r="T93" t="s">
-        <v>639</v>
-      </c>
-      <c r="U93" t="s">
-        <v>564</v>
-      </c>
-      <c r="V93" t="s">
         <v>26</v>
       </c>
     </row>
@@ -12980,13 +12411,13 @@
         <v>21</v>
       </c>
       <c r="B94" t="s">
-        <v>502</v>
+        <v>499</v>
       </c>
       <c r="C94" t="s">
-        <v>286</v>
+        <v>284</v>
       </c>
       <c r="D94" t="s">
-        <v>640</v>
+        <v>637</v>
       </c>
       <c r="E94" t="s">
         <v>27</v>
@@ -12995,51 +12426,45 @@
         <v>32</v>
       </c>
       <c r="G94" t="s">
+        <v>286</v>
+      </c>
+      <c r="H94" t="s">
+        <v>25</v>
+      </c>
+      <c r="I94" t="s">
+        <v>198</v>
+      </c>
+      <c r="J94" t="s">
+        <v>539</v>
+      </c>
+      <c r="K94" t="s">
+        <v>20</v>
+      </c>
+      <c r="L94" t="s">
+        <v>287</v>
+      </c>
+      <c r="M94" t="s">
+        <v>34</v>
+      </c>
+      <c r="N94" t="s">
+        <v>284</v>
+      </c>
+      <c r="O94" t="s">
         <v>288</v>
       </c>
-      <c r="H94" t="s">
-        <v>25</v>
-      </c>
-      <c r="I94" t="s">
-        <v>286</v>
-      </c>
-      <c r="J94" t="s">
-        <v>198</v>
-      </c>
-      <c r="K94" t="s">
-        <v>542</v>
-      </c>
-      <c r="L94" t="s">
-        <v>20</v>
-      </c>
-      <c r="M94" t="s">
-        <v>289</v>
-      </c>
-      <c r="N94" t="s">
-        <v>290</v>
-      </c>
-      <c r="O94" t="s">
-        <v>34</v>
-      </c>
       <c r="P94" t="s">
-        <v>286</v>
+        <v>638</v>
       </c>
       <c r="Q94" t="s">
-        <v>291</v>
+        <v>25</v>
       </c>
       <c r="R94" t="s">
-        <v>641</v>
+        <v>639</v>
       </c>
       <c r="S94" t="s">
-        <v>25</v>
+        <v>640</v>
       </c>
       <c r="T94" t="s">
-        <v>642</v>
-      </c>
-      <c r="U94" t="s">
-        <v>643</v>
-      </c>
-      <c r="V94" t="s">
         <v>26</v>
       </c>
     </row>
@@ -13048,13 +12473,13 @@
         <v>21</v>
       </c>
       <c r="B95" t="s">
-        <v>502</v>
+        <v>499</v>
       </c>
       <c r="C95" t="s">
-        <v>286</v>
+        <v>284</v>
       </c>
       <c r="D95" t="s">
-        <v>644</v>
+        <v>641</v>
       </c>
       <c r="E95" t="s">
         <v>27</v>
@@ -13063,51 +12488,45 @@
         <v>32</v>
       </c>
       <c r="G95" t="s">
+        <v>286</v>
+      </c>
+      <c r="H95" t="s">
+        <v>25</v>
+      </c>
+      <c r="I95" t="s">
+        <v>200</v>
+      </c>
+      <c r="J95" t="s">
+        <v>539</v>
+      </c>
+      <c r="K95" t="s">
+        <v>20</v>
+      </c>
+      <c r="L95" t="s">
+        <v>287</v>
+      </c>
+      <c r="M95" t="s">
+        <v>34</v>
+      </c>
+      <c r="N95" t="s">
+        <v>284</v>
+      </c>
+      <c r="O95" t="s">
         <v>288</v>
       </c>
-      <c r="H95" t="s">
-        <v>25</v>
-      </c>
-      <c r="I95" t="s">
-        <v>286</v>
-      </c>
-      <c r="J95" t="s">
-        <v>200</v>
-      </c>
-      <c r="K95" t="s">
-        <v>542</v>
-      </c>
-      <c r="L95" t="s">
-        <v>20</v>
-      </c>
-      <c r="M95" t="s">
-        <v>289</v>
-      </c>
-      <c r="N95" t="s">
-        <v>290</v>
-      </c>
-      <c r="O95" t="s">
-        <v>34</v>
-      </c>
       <c r="P95" t="s">
-        <v>286</v>
+        <v>642</v>
       </c>
       <c r="Q95" t="s">
-        <v>291</v>
+        <v>25</v>
       </c>
       <c r="R95" t="s">
-        <v>645</v>
+        <v>643</v>
       </c>
       <c r="S95" t="s">
-        <v>25</v>
+        <v>644</v>
       </c>
       <c r="T95" t="s">
-        <v>646</v>
-      </c>
-      <c r="U95" t="s">
-        <v>647</v>
-      </c>
-      <c r="V95" t="s">
         <v>26</v>
       </c>
     </row>
@@ -13116,13 +12535,13 @@
         <v>21</v>
       </c>
       <c r="B96" t="s">
-        <v>502</v>
+        <v>499</v>
       </c>
       <c r="C96" t="s">
-        <v>286</v>
+        <v>284</v>
       </c>
       <c r="D96" t="s">
-        <v>648</v>
+        <v>645</v>
       </c>
       <c r="E96" t="s">
         <v>27</v>
@@ -13131,51 +12550,45 @@
         <v>32</v>
       </c>
       <c r="G96" t="s">
+        <v>286</v>
+      </c>
+      <c r="H96" t="s">
+        <v>25</v>
+      </c>
+      <c r="I96" t="s">
+        <v>188</v>
+      </c>
+      <c r="J96" t="s">
+        <v>539</v>
+      </c>
+      <c r="K96" t="s">
+        <v>20</v>
+      </c>
+      <c r="L96" t="s">
+        <v>287</v>
+      </c>
+      <c r="M96" t="s">
+        <v>34</v>
+      </c>
+      <c r="N96" t="s">
+        <v>284</v>
+      </c>
+      <c r="O96" t="s">
         <v>288</v>
       </c>
-      <c r="H96" t="s">
-        <v>25</v>
-      </c>
-      <c r="I96" t="s">
-        <v>286</v>
-      </c>
-      <c r="J96" t="s">
-        <v>188</v>
-      </c>
-      <c r="K96" t="s">
-        <v>542</v>
-      </c>
-      <c r="L96" t="s">
-        <v>20</v>
-      </c>
-      <c r="M96" t="s">
-        <v>289</v>
-      </c>
-      <c r="N96" t="s">
-        <v>290</v>
-      </c>
-      <c r="O96" t="s">
-        <v>34</v>
-      </c>
       <c r="P96" t="s">
-        <v>286</v>
+        <v>646</v>
       </c>
       <c r="Q96" t="s">
-        <v>291</v>
+        <v>25</v>
       </c>
       <c r="R96" t="s">
-        <v>649</v>
+        <v>647</v>
       </c>
       <c r="S96" t="s">
-        <v>25</v>
+        <v>616</v>
       </c>
       <c r="T96" t="s">
-        <v>650</v>
-      </c>
-      <c r="U96" t="s">
-        <v>619</v>
-      </c>
-      <c r="V96" t="s">
         <v>26</v>
       </c>
     </row>
@@ -13184,13 +12597,13 @@
         <v>21</v>
       </c>
       <c r="B97" t="s">
-        <v>502</v>
+        <v>499</v>
       </c>
       <c r="C97" t="s">
-        <v>286</v>
+        <v>284</v>
       </c>
       <c r="D97" t="s">
-        <v>651</v>
+        <v>648</v>
       </c>
       <c r="E97" t="s">
         <v>27</v>
@@ -13199,51 +12612,45 @@
         <v>32</v>
       </c>
       <c r="G97" t="s">
+        <v>286</v>
+      </c>
+      <c r="H97" t="s">
+        <v>25</v>
+      </c>
+      <c r="I97" t="s">
+        <v>203</v>
+      </c>
+      <c r="J97" t="s">
+        <v>539</v>
+      </c>
+      <c r="K97" t="s">
+        <v>20</v>
+      </c>
+      <c r="L97" t="s">
+        <v>287</v>
+      </c>
+      <c r="M97" t="s">
+        <v>34</v>
+      </c>
+      <c r="N97" t="s">
+        <v>284</v>
+      </c>
+      <c r="O97" t="s">
         <v>288</v>
       </c>
-      <c r="H97" t="s">
-        <v>25</v>
-      </c>
-      <c r="I97" t="s">
-        <v>286</v>
-      </c>
-      <c r="J97" t="s">
-        <v>203</v>
-      </c>
-      <c r="K97" t="s">
-        <v>542</v>
-      </c>
-      <c r="L97" t="s">
-        <v>20</v>
-      </c>
-      <c r="M97" t="s">
-        <v>289</v>
-      </c>
-      <c r="N97" t="s">
-        <v>290</v>
-      </c>
-      <c r="O97" t="s">
-        <v>34</v>
-      </c>
       <c r="P97" t="s">
-        <v>286</v>
+        <v>649</v>
       </c>
       <c r="Q97" t="s">
-        <v>291</v>
+        <v>25</v>
       </c>
       <c r="R97" t="s">
-        <v>652</v>
+        <v>650</v>
       </c>
       <c r="S97" t="s">
-        <v>25</v>
+        <v>651</v>
       </c>
       <c r="T97" t="s">
-        <v>653</v>
-      </c>
-      <c r="U97" t="s">
-        <v>654</v>
-      </c>
-      <c r="V97" t="s">
         <v>26</v>
       </c>
     </row>
@@ -13252,13 +12659,13 @@
         <v>21</v>
       </c>
       <c r="B98" t="s">
-        <v>502</v>
+        <v>499</v>
       </c>
       <c r="C98" t="s">
-        <v>286</v>
+        <v>284</v>
       </c>
       <c r="D98" t="s">
-        <v>655</v>
+        <v>652</v>
       </c>
       <c r="E98" t="s">
         <v>27</v>
@@ -13267,51 +12674,45 @@
         <v>32</v>
       </c>
       <c r="G98" t="s">
+        <v>286</v>
+      </c>
+      <c r="H98" t="s">
+        <v>25</v>
+      </c>
+      <c r="I98" t="s">
+        <v>173</v>
+      </c>
+      <c r="J98" t="s">
+        <v>539</v>
+      </c>
+      <c r="K98" t="s">
+        <v>20</v>
+      </c>
+      <c r="L98" t="s">
+        <v>287</v>
+      </c>
+      <c r="M98" t="s">
+        <v>34</v>
+      </c>
+      <c r="N98" t="s">
+        <v>284</v>
+      </c>
+      <c r="O98" t="s">
         <v>288</v>
       </c>
-      <c r="H98" t="s">
-        <v>25</v>
-      </c>
-      <c r="I98" t="s">
-        <v>286</v>
-      </c>
-      <c r="J98" t="s">
-        <v>173</v>
-      </c>
-      <c r="K98" t="s">
-        <v>542</v>
-      </c>
-      <c r="L98" t="s">
-        <v>20</v>
-      </c>
-      <c r="M98" t="s">
-        <v>289</v>
-      </c>
-      <c r="N98" t="s">
-        <v>290</v>
-      </c>
-      <c r="O98" t="s">
-        <v>34</v>
-      </c>
       <c r="P98" t="s">
-        <v>286</v>
+        <v>653</v>
       </c>
       <c r="Q98" t="s">
-        <v>291</v>
+        <v>25</v>
       </c>
       <c r="R98" t="s">
-        <v>656</v>
+        <v>654</v>
       </c>
       <c r="S98" t="s">
-        <v>25</v>
+        <v>584</v>
       </c>
       <c r="T98" t="s">
-        <v>657</v>
-      </c>
-      <c r="U98" t="s">
-        <v>587</v>
-      </c>
-      <c r="V98" t="s">
         <v>26</v>
       </c>
     </row>
@@ -15672,69 +15073,69 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
+        <v>655</v>
+      </c>
+      <c r="B1" t="s">
+        <v>656</v>
+      </c>
+      <c r="C1" t="s">
+        <v>657</v>
+      </c>
+      <c r="D1" t="s">
         <v>658</v>
       </c>
-      <c r="B1" t="s">
+      <c r="E1" t="s">
         <v>659</v>
       </c>
-      <c r="C1" t="s">
+      <c r="F1" t="s">
         <v>660</v>
       </c>
-      <c r="D1" t="s">
+      <c r="G1" t="s">
         <v>661</v>
       </c>
-      <c r="E1" t="s">
+      <c r="H1" t="s">
         <v>662</v>
       </c>
-      <c r="F1" t="s">
+      <c r="I1" t="s">
         <v>663</v>
-      </c>
-      <c r="G1" t="s">
-        <v>664</v>
-      </c>
-      <c r="H1" t="s">
-        <v>665</v>
-      </c>
-      <c r="I1" t="s">
-        <v>666</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>667</v>
+        <v>664</v>
       </c>
       <c r="B2"/>
       <c r="C2" t="s">
-        <v>668</v>
+        <v>665</v>
       </c>
       <c r="D2" t="s">
-        <v>669</v>
+        <v>666</v>
       </c>
       <c r="E2" t="s">
-        <v>668</v>
+        <v>665</v>
       </c>
       <c r="F2" t="s">
-        <v>668</v>
+        <v>665</v>
       </c>
       <c r="G2" t="s">
         <v>27</v>
       </c>
       <c r="H2"/>
       <c r="I2" t="s">
-        <v>670</v>
+        <v>667</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>671</v>
+        <v>668</v>
       </c>
       <c r="B3"/>
       <c r="C3"/>
       <c r="D3" t="s">
-        <v>669</v>
+        <v>666</v>
       </c>
       <c r="E3" t="s">
-        <v>668</v>
+        <v>665</v>
       </c>
       <c r="F3"/>
       <c r="G3" t="s">
@@ -15742,215 +15143,215 @@
       </c>
       <c r="H3"/>
       <c r="I3" t="s">
-        <v>670</v>
+        <v>667</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
+        <v>669</v>
+      </c>
+      <c r="B4" t="s">
+        <v>670</v>
+      </c>
+      <c r="C4" t="s">
+        <v>671</v>
+      </c>
+      <c r="D4" t="s">
+        <v>666</v>
+      </c>
+      <c r="E4" t="s">
         <v>672</v>
       </c>
-      <c r="B4" t="s">
+      <c r="F4" t="s">
         <v>673</v>
       </c>
-      <c r="C4" t="s">
+      <c r="G4" t="s">
+        <v>27</v>
+      </c>
+      <c r="H4" t="s">
         <v>674</v>
       </c>
-      <c r="D4" t="s">
-        <v>669</v>
-      </c>
-      <c r="E4" t="s">
+      <c r="I4" t="s">
         <v>675</v>
-      </c>
-      <c r="F4" t="s">
-        <v>676</v>
-      </c>
-      <c r="G4" t="s">
-        <v>27</v>
-      </c>
-      <c r="H4" t="s">
-        <v>677</v>
-      </c>
-      <c r="I4" t="s">
-        <v>678</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
+        <v>676</v>
+      </c>
+      <c r="B5" t="s">
+        <v>677</v>
+      </c>
+      <c r="C5" t="s">
+        <v>678</v>
+      </c>
+      <c r="D5" t="s">
+        <v>666</v>
+      </c>
+      <c r="E5" t="s">
         <v>679</v>
       </c>
-      <c r="B5" t="s">
+      <c r="F5" t="s">
         <v>680</v>
       </c>
-      <c r="C5" t="s">
+      <c r="G5" t="s">
+        <v>27</v>
+      </c>
+      <c r="H5" t="s">
         <v>681</v>
       </c>
-      <c r="D5" t="s">
-        <v>669</v>
-      </c>
-      <c r="E5" t="s">
+      <c r="I5" t="s">
         <v>682</v>
-      </c>
-      <c r="F5" t="s">
-        <v>683</v>
-      </c>
-      <c r="G5" t="s">
-        <v>27</v>
-      </c>
-      <c r="H5" t="s">
-        <v>684</v>
-      </c>
-      <c r="I5" t="s">
-        <v>685</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>686</v>
+        <v>683</v>
       </c>
       <c r="B6" t="s">
-        <v>673</v>
+        <v>670</v>
       </c>
       <c r="C6" t="s">
         <v>161</v>
       </c>
       <c r="D6" t="s">
-        <v>669</v>
+        <v>666</v>
       </c>
       <c r="E6" t="s">
+        <v>684</v>
+      </c>
+      <c r="F6" t="s">
+        <v>685</v>
+      </c>
+      <c r="G6" t="s">
+        <v>27</v>
+      </c>
+      <c r="H6" t="s">
+        <v>686</v>
+      </c>
+      <c r="I6" t="s">
         <v>687</v>
-      </c>
-      <c r="F6" t="s">
-        <v>688</v>
-      </c>
-      <c r="G6" t="s">
-        <v>27</v>
-      </c>
-      <c r="H6" t="s">
-        <v>689</v>
-      </c>
-      <c r="I6" t="s">
-        <v>690</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>691</v>
+        <v>688</v>
       </c>
       <c r="B7" t="s">
-        <v>673</v>
+        <v>670</v>
       </c>
       <c r="C7" t="s">
         <v>49</v>
       </c>
       <c r="D7" t="s">
-        <v>669</v>
+        <v>666</v>
       </c>
       <c r="E7" t="s">
-        <v>692</v>
+        <v>689</v>
       </c>
       <c r="F7" t="s">
-        <v>693</v>
+        <v>690</v>
       </c>
       <c r="G7" t="s">
         <v>27</v>
       </c>
       <c r="H7" t="s">
-        <v>339</v>
+        <v>336</v>
       </c>
       <c r="I7" t="s">
-        <v>694</v>
+        <v>691</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
+        <v>692</v>
+      </c>
+      <c r="B8" t="s">
+        <v>670</v>
+      </c>
+      <c r="C8" t="s">
+        <v>693</v>
+      </c>
+      <c r="D8" t="s">
+        <v>666</v>
+      </c>
+      <c r="E8" t="s">
+        <v>694</v>
+      </c>
+      <c r="F8" t="s">
         <v>695</v>
       </c>
-      <c r="B8" t="s">
-        <v>673</v>
-      </c>
-      <c r="C8" t="s">
+      <c r="G8" t="s">
+        <v>27</v>
+      </c>
+      <c r="H8" t="s">
         <v>696</v>
       </c>
-      <c r="D8" t="s">
-        <v>669</v>
-      </c>
-      <c r="E8" t="s">
+      <c r="I8" t="s">
         <v>697</v>
-      </c>
-      <c r="F8" t="s">
-        <v>698</v>
-      </c>
-      <c r="G8" t="s">
-        <v>27</v>
-      </c>
-      <c r="H8" t="s">
-        <v>699</v>
-      </c>
-      <c r="I8" t="s">
-        <v>700</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>701</v>
+        <v>698</v>
       </c>
       <c r="B9" t="s">
-        <v>702</v>
+        <v>699</v>
       </c>
       <c r="C9" t="s">
         <v>51</v>
       </c>
       <c r="D9" t="s">
-        <v>669</v>
+        <v>666</v>
       </c>
       <c r="E9" t="s">
         <v>57</v>
       </c>
       <c r="F9" t="s">
-        <v>703</v>
+        <v>700</v>
       </c>
       <c r="G9" t="s">
         <v>27</v>
       </c>
       <c r="H9" t="s">
-        <v>677</v>
+        <v>674</v>
       </c>
       <c r="I9" t="s">
-        <v>704</v>
+        <v>701</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>705</v>
+        <v>702</v>
       </c>
       <c r="B10" t="s">
-        <v>706</v>
+        <v>703</v>
       </c>
       <c r="C10" t="s">
-        <v>707</v>
+        <v>704</v>
       </c>
       <c r="D10" t="s">
-        <v>669</v>
+        <v>666</v>
       </c>
       <c r="E10" t="s">
         <v>178</v>
       </c>
       <c r="F10" t="s">
-        <v>708</v>
+        <v>705</v>
       </c>
       <c r="G10" t="s">
         <v>27</v>
       </c>
       <c r="H10" t="s">
-        <v>709</v>
+        <v>706</v>
       </c>
       <c r="I10" t="s">
-        <v>710</v>
+        <v>707</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>711</v>
+        <v>708</v>
       </c>
       <c r="B11"/>
       <c r="C11"/>
@@ -15962,49 +15363,49 @@
       </c>
       <c r="H11"/>
       <c r="I11" t="s">
-        <v>712</v>
+        <v>709</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>713</v>
+        <v>710</v>
       </c>
       <c r="B12" t="s">
-        <v>714</v>
+        <v>711</v>
       </c>
       <c r="C12" t="s">
         <v>172</v>
       </c>
       <c r="D12" t="s">
-        <v>669</v>
+        <v>666</v>
       </c>
       <c r="E12" t="s">
-        <v>715</v>
+        <v>712</v>
       </c>
       <c r="F12" t="s">
-        <v>716</v>
+        <v>713</v>
       </c>
       <c r="G12" t="s">
         <v>27</v>
       </c>
       <c r="H12" t="s">
-        <v>717</v>
+        <v>714</v>
       </c>
       <c r="I12" t="s">
-        <v>713</v>
+        <v>710</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>718</v>
+        <v>715</v>
       </c>
       <c r="B13"/>
       <c r="C13"/>
       <c r="D13" t="s">
-        <v>669</v>
+        <v>666</v>
       </c>
       <c r="E13" t="s">
-        <v>668</v>
+        <v>665</v>
       </c>
       <c r="F13"/>
       <c r="G13" t="s">
@@ -16012,20 +15413,20 @@
       </c>
       <c r="H13"/>
       <c r="I13" t="s">
-        <v>719</v>
+        <v>716</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>720</v>
+        <v>717</v>
       </c>
       <c r="B14"/>
       <c r="C14"/>
       <c r="D14" t="s">
-        <v>669</v>
+        <v>666</v>
       </c>
       <c r="E14" t="s">
-        <v>668</v>
+        <v>665</v>
       </c>
       <c r="F14"/>
       <c r="G14" t="s">
@@ -16033,20 +15434,20 @@
       </c>
       <c r="H14"/>
       <c r="I14" t="s">
-        <v>721</v>
+        <v>718</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>722</v>
+        <v>719</v>
       </c>
       <c r="B15"/>
       <c r="C15"/>
       <c r="D15" t="s">
-        <v>669</v>
+        <v>666</v>
       </c>
       <c r="E15" t="s">
-        <v>668</v>
+        <v>665</v>
       </c>
       <c r="F15"/>
       <c r="G15" t="s">
@@ -16054,20 +15455,20 @@
       </c>
       <c r="H15"/>
       <c r="I15" t="s">
-        <v>723</v>
+        <v>720</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>724</v>
+        <v>721</v>
       </c>
       <c r="B16"/>
       <c r="C16"/>
       <c r="D16" t="s">
-        <v>669</v>
+        <v>666</v>
       </c>
       <c r="E16" t="s">
-        <v>668</v>
+        <v>665</v>
       </c>
       <c r="F16"/>
       <c r="G16" t="s">
@@ -16075,20 +15476,20 @@
       </c>
       <c r="H16"/>
       <c r="I16" t="s">
-        <v>725</v>
+        <v>722</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>726</v>
+        <v>723</v>
       </c>
       <c r="B17"/>
       <c r="C17"/>
       <c r="D17" t="s">
-        <v>669</v>
+        <v>666</v>
       </c>
       <c r="E17" t="s">
-        <v>668</v>
+        <v>665</v>
       </c>
       <c r="F17"/>
       <c r="G17" t="s">
@@ -16096,12 +15497,12 @@
       </c>
       <c r="H17"/>
       <c r="I17" t="s">
-        <v>727</v>
+        <v>724</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s">
-        <v>728</v>
+        <v>725</v>
       </c>
       <c r="B18"/>
       <c r="C18"/>
@@ -16113,20 +15514,20 @@
       </c>
       <c r="H18"/>
       <c r="I18" t="s">
-        <v>728</v>
+        <v>725</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s">
-        <v>729</v>
+        <v>726</v>
       </c>
       <c r="B19"/>
       <c r="C19"/>
       <c r="D19" t="s">
-        <v>669</v>
+        <v>666</v>
       </c>
       <c r="E19" t="s">
-        <v>668</v>
+        <v>665</v>
       </c>
       <c r="F19"/>
       <c r="G19" t="s">
@@ -16134,36 +15535,36 @@
       </c>
       <c r="H19"/>
       <c r="I19" t="s">
-        <v>730</v>
+        <v>727</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="s">
+        <v>728</v>
+      </c>
+      <c r="B20" t="s">
+        <v>729</v>
+      </c>
+      <c r="C20" t="s">
+        <v>730</v>
+      </c>
+      <c r="D20" t="s">
+        <v>666</v>
+      </c>
+      <c r="E20" t="s">
         <v>731</v>
       </c>
-      <c r="B20" t="s">
+      <c r="F20" t="s">
         <v>732</v>
       </c>
-      <c r="C20" t="s">
+      <c r="G20" t="s">
+        <v>27</v>
+      </c>
+      <c r="H20" t="s">
         <v>733</v>
       </c>
-      <c r="D20" t="s">
-        <v>669</v>
-      </c>
-      <c r="E20" t="s">
+      <c r="I20" t="s">
         <v>734</v>
-      </c>
-      <c r="F20" t="s">
-        <v>735</v>
-      </c>
-      <c r="G20" t="s">
-        <v>27</v>
-      </c>
-      <c r="H20" t="s">
-        <v>736</v>
-      </c>
-      <c r="I20" t="s">
-        <v>737</v>
       </c>
     </row>
   </sheetData>
